--- a/me/11.Rent-A-Car-Project.xlsx
+++ b/me/11.Rent-A-Car-Project.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\LightningWebComponent\me\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{099EBA94-5D68-4983-861F-D59C315A0CB1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C959EB07-EA9E-4C27-B053-6A7E9112F528}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Installing Schema" sheetId="1" r:id="rId1"/>
     <sheet name="Develop CarSearchForm Component" sheetId="2" r:id="rId2"/>
+    <sheet name="DevelopCarSearchResultComponent" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="313">
   <si>
     <t>構成</t>
   </si>
@@ -1004,6 +1005,349 @@
   </si>
   <si>
     <t>test browser</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">This part we are going to handle the event which is being fired from </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carSearchForm</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> component which was firing an event with the name </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>cartypeselect</t>
+    </r>
+  </si>
+  <si>
+    <t>  &lt;div class="slds-m-bottom_small"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Search Your Car"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;c-car-search-form</t>
+  </si>
+  <si>
+    <t>      &gt;&lt;/c-car-search-form&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/lightning-card&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>  &lt;div class="slds-m-vertical_small"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;lightning-card title="Matching Cars"&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;c-car-search-result car-type-id={carTypeId}&gt;&lt;/c-car-search-result&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">        </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>oncartypeselect={carTypeSelectHandler}</t>
+    </r>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\carSearch\carSearch.js</t>
+  </si>
+  <si>
+    <t>export default class CarSearch extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @track carTypeId = '';</t>
+  </si>
+  <si>
+    <t>    carTypeSelectHandler(event){</t>
+  </si>
+  <si>
+    <t>        this.carTypeId = event.detail;</t>
+  </si>
+  <si>
+    <r>
+      <t>import { LightningElement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, track</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> } from 'lwc';</t>
+    </r>
+  </si>
+  <si>
+    <t>code</t>
+  </si>
+  <si>
+    <t>which is fired from carSearchForm component</t>
+  </si>
+  <si>
+    <t>carSearchResult</t>
+  </si>
+  <si>
+    <t>carSearchResult.html</t>
+  </si>
+  <si>
+    <t>carSearchResult.js</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\carSearchResult\carSearchResult.html</t>
+  </si>
+  <si>
+    <t>  &lt;lightning-layout multiple-rows horizontal-align="center"&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;template if:true={carsFound}&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;template for:each={cars} for:item="car"&gt;</t>
+  </si>
+  <si>
+    <t>        &lt;lightning-layout-item</t>
+  </si>
+  <si>
+    <t>          key={car.Id}</t>
+  </si>
+  <si>
+    <t>          padding="around-small"</t>
+  </si>
+  <si>
+    <t>          size="12"</t>
+  </si>
+  <si>
+    <t>          small-device-size="6"</t>
+  </si>
+  <si>
+    <t>          large-device-size="6"</t>
+  </si>
+  <si>
+    <t>          medium-device-size="6"</t>
+  </si>
+  <si>
+    <t>        &gt;</t>
+  </si>
+  <si>
+    <t>          {car.Name}</t>
+  </si>
+  <si>
+    <t>        &lt;/lightning-layout-item&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;/template&gt;</t>
+  </si>
+  <si>
+    <t>    &lt;template if:false={carsFound}&gt;</t>
+  </si>
+  <si>
+    <t>      &lt;div class="slds-align_absolute-center"&gt;No Cars Found&lt;/div&gt;</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\lwc\carSearchResult\carSearchResult.js</t>
+  </si>
+  <si>
+    <t>import { LightningElement, api, wire, track } from 'lwc';</t>
+  </si>
+  <si>
+    <t>import getCars from '@salesforce/apex/CarSearchResultController.getCars';</t>
+  </si>
+  <si>
+    <t>export default class CarSearchResult extends LightningElement {</t>
+  </si>
+  <si>
+    <t>    @api carTypeId;</t>
+  </si>
+  <si>
+    <t>    @track cars;</t>
+  </si>
+  <si>
+    <t>    @wire(getCars, {carTypeId : '$carTypeId'})</t>
+  </si>
+  <si>
+    <t>    wiredCars({data, error}){</t>
+  </si>
+  <si>
+    <t>            this.cars = data;</t>
+  </si>
+  <si>
+    <t>    get carsFound(){</t>
+  </si>
+  <si>
+    <t>        if(this.cars){</t>
+  </si>
+  <si>
+    <t>            return true;</t>
+  </si>
+  <si>
+    <t>        return false;</t>
+  </si>
+  <si>
+    <t>CarSearchResultController.cls</t>
+  </si>
+  <si>
+    <t>LightningWebComponent\LWC\force-app\main\default\classes\CarSearchResultController.cls</t>
+  </si>
+  <si>
+    <t>public with sharing class CarSearchResultController {</t>
+  </si>
+  <si>
+    <t>    public static List&lt;Car__c&gt; getCars(String carTypeId){</t>
+  </si>
+  <si>
+    <t xml:space="preserve">        </t>
+  </si>
+  <si>
+    <t>        if(String.isEmpty(carTypeId)){</t>
+  </si>
+  <si>
+    <t>            return [SELECT Id, Name, Picture__c, Contact__r.Name,</t>
+  </si>
+  <si>
+    <t>                    Geolocation__latitude__s, Geolocation__longitude__s</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    FROM Car__c </t>
+  </si>
+  <si>
+    <t>                    WHERE Available_For_Rent__c = true ];</t>
+  </si>
+  <si>
+    <t>        } else{</t>
+  </si>
+  <si>
+    <t xml:space="preserve">                    WHERE Available_For_Rent__c = true </t>
+  </si>
+  <si>
+    <t>                    AND Car_type__c =: carTypeId];</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">use wire adaptor to make a call getCars apex function. The wire adaptor may get fire beforce the component initiation and we may not have the </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carTypeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> at that time so let's make our wire adaptor reactive and pass carTypeId using </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>$</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> symbol. So whenever</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">we are changing our selection from the combo box, the new </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>carTypeId</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> will be automatically supplied to this wire adaptor</t>
+    </r>
+  </si>
+  <si>
+    <t>Check browser</t>
+  </si>
+  <si>
+    <t>Ban đầu</t>
+  </si>
+  <si>
+    <t>Thay đổi option khác</t>
   </si>
 </sst>
 </file>
@@ -1138,7 +1482,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -1161,9 +1505,18 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2333,6 +2686,371 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>142</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="3" name="Straight Arrow Connector 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3EDB6945-4341-F8A0-90DE-A78F809AA284}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="828675" y="26431875"/>
+          <a:ext cx="1143000" cy="3181350"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>148</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="6" name="Straight Arrow Connector 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DC3650C7-8528-E4A3-D998-CC4497425E1F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1800225" y="28155900"/>
+          <a:ext cx="1019175" cy="9829800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>168</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>438150</xdr:colOff>
+      <xdr:row>222</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="11" name="Straight Arrow Connector 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4821FAC2-BC43-BA51-22CD-6CAF1E2B04A3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1247775" y="32165925"/>
+          <a:ext cx="1019175" cy="10210800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>122905</xdr:colOff>
+      <xdr:row>251</xdr:row>
+      <xdr:rowOff>66676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>282747</xdr:colOff>
+      <xdr:row>279</xdr:row>
+      <xdr:rowOff>41416</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="Picture 13">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3E8CE72D-7126-E194-148A-1BB895EB7B44}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="728023" y="47882176"/>
+          <a:ext cx="10446842" cy="5308740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>156881</xdr:colOff>
+      <xdr:row>283</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>212910</xdr:colOff>
+      <xdr:row>311</xdr:row>
+      <xdr:rowOff>36192</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="Picture 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD8EC9F-023D-221E-4563-B82B3BEBF525}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="761999" y="53866676"/>
+          <a:ext cx="10343029" cy="5224516"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>145676</xdr:colOff>
+      <xdr:row>312</xdr:row>
+      <xdr:rowOff>70048</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>459441</xdr:colOff>
+      <xdr:row>334</xdr:row>
+      <xdr:rowOff>64062</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Picture 16">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F23AE37-3E49-EA07-5CA8-6741E4017676}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="750794" y="59506048"/>
+          <a:ext cx="10600765" cy="4185014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>425823</xdr:colOff>
+      <xdr:row>189</xdr:row>
+      <xdr:rowOff>145676</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>257735</xdr:colOff>
+      <xdr:row>332</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="19" name="Straight Arrow Connector 18">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C7CB15AE-9AF5-4BB9-C393-663009F1C581}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2846294" y="36150176"/>
+          <a:ext cx="1042147" cy="27196677"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -5421,8 +6139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1D70C2D-7D77-4DAD-8C15-CD9009380499}">
   <dimension ref="A2:T270"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A268" workbookViewId="0">
-      <selection activeCell="E270" sqref="E270"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P158" sqref="P158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5459,508 +6177,100 @@
       <c r="B5" s="5" t="s">
         <v>238</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="22"/>
-      <c r="M5" s="22"/>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
       <c r="T5" s="6"/>
     </row>
     <row r="6" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B6" s="5" t="s">
         <v>239</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22"/>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22"/>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
-      <c r="K6" s="22"/>
-      <c r="L6" s="22"/>
-      <c r="M6" s="22"/>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22"/>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22"/>
       <c r="T6" s="6"/>
     </row>
     <row r="7" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B7" s="5"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="22"/>
-      <c r="E7" s="22"/>
-      <c r="F7" s="22"/>
-      <c r="G7" s="22"/>
-      <c r="H7" s="22"/>
-      <c r="I7" s="22"/>
-      <c r="J7" s="22"/>
-      <c r="K7" s="22"/>
-      <c r="L7" s="22"/>
-      <c r="M7" s="22"/>
-      <c r="N7" s="22"/>
-      <c r="O7" s="22"/>
-      <c r="P7" s="22"/>
-      <c r="Q7" s="22"/>
-      <c r="R7" s="22"/>
-      <c r="S7" s="22"/>
       <c r="T7" s="6"/>
     </row>
     <row r="8" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B8" s="5"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="22"/>
-      <c r="E8" s="22"/>
-      <c r="F8" s="22"/>
-      <c r="G8" s="22"/>
-      <c r="H8" s="22"/>
-      <c r="I8" s="22"/>
-      <c r="J8" s="22"/>
-      <c r="K8" s="22"/>
-      <c r="L8" s="22"/>
-      <c r="M8" s="22"/>
-      <c r="N8" s="22"/>
-      <c r="O8" s="22"/>
-      <c r="P8" s="22"/>
-      <c r="Q8" s="22"/>
-      <c r="R8" s="22"/>
-      <c r="S8" s="22"/>
       <c r="T8" s="6"/>
     </row>
     <row r="9" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B9" s="5"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="22"/>
-      <c r="E9" s="22"/>
-      <c r="F9" s="22"/>
-      <c r="G9" s="22"/>
-      <c r="H9" s="22"/>
-      <c r="I9" s="22"/>
-      <c r="J9" s="22"/>
-      <c r="K9" s="22"/>
-      <c r="L9" s="22"/>
-      <c r="M9" s="22"/>
-      <c r="N9" s="22"/>
-      <c r="O9" s="22"/>
-      <c r="P9" s="22"/>
-      <c r="Q9" s="22"/>
-      <c r="R9" s="22"/>
-      <c r="S9" s="22"/>
       <c r="T9" s="6"/>
     </row>
     <row r="10" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="22"/>
-      <c r="E10" s="22"/>
-      <c r="F10" s="22"/>
-      <c r="G10" s="22"/>
-      <c r="H10" s="22"/>
-      <c r="I10" s="22"/>
-      <c r="J10" s="22"/>
-      <c r="K10" s="22"/>
-      <c r="L10" s="22"/>
-      <c r="M10" s="22"/>
-      <c r="N10" s="22"/>
-      <c r="O10" s="22"/>
-      <c r="P10" s="22"/>
-      <c r="Q10" s="22"/>
-      <c r="R10" s="22"/>
-      <c r="S10" s="22"/>
       <c r="T10" s="6"/>
     </row>
     <row r="11" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B11" s="5"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="22"/>
-      <c r="E11" s="22"/>
-      <c r="F11" s="22"/>
-      <c r="G11" s="22"/>
-      <c r="H11" s="22"/>
-      <c r="I11" s="22"/>
-      <c r="J11" s="22"/>
-      <c r="K11" s="22"/>
-      <c r="L11" s="22"/>
-      <c r="M11" s="22"/>
-      <c r="N11" s="22"/>
-      <c r="O11" s="22"/>
-      <c r="P11" s="22"/>
-      <c r="Q11" s="22"/>
-      <c r="R11" s="22"/>
-      <c r="S11" s="22"/>
       <c r="T11" s="6"/>
     </row>
     <row r="12" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B12" s="5"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="22"/>
-      <c r="E12" s="22"/>
-      <c r="F12" s="22"/>
-      <c r="G12" s="22"/>
-      <c r="H12" s="22"/>
-      <c r="I12" s="22"/>
-      <c r="J12" s="22"/>
-      <c r="K12" s="22"/>
-      <c r="L12" s="22"/>
-      <c r="M12" s="22"/>
-      <c r="N12" s="22"/>
-      <c r="O12" s="22"/>
-      <c r="P12" s="22"/>
-      <c r="Q12" s="22"/>
-      <c r="R12" s="22"/>
-      <c r="S12" s="22"/>
       <c r="T12" s="6"/>
     </row>
     <row r="13" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B13" s="5"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="22"/>
-      <c r="E13" s="22"/>
-      <c r="F13" s="22"/>
-      <c r="G13" s="22"/>
-      <c r="H13" s="22"/>
-      <c r="I13" s="22"/>
-      <c r="J13" s="22"/>
-      <c r="K13" s="22"/>
-      <c r="L13" s="22"/>
-      <c r="M13" s="22"/>
-      <c r="N13" s="22"/>
-      <c r="O13" s="22"/>
-      <c r="P13" s="22"/>
-      <c r="Q13" s="22"/>
-      <c r="R13" s="22"/>
-      <c r="S13" s="22"/>
       <c r="T13" s="6"/>
     </row>
     <row r="14" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B14" s="5"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="22"/>
-      <c r="G14" s="22"/>
-      <c r="H14" s="22"/>
-      <c r="I14" s="22"/>
-      <c r="J14" s="22"/>
-      <c r="K14" s="22"/>
-      <c r="L14" s="22"/>
-      <c r="M14" s="22"/>
-      <c r="N14" s="22"/>
-      <c r="O14" s="22"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="22"/>
-      <c r="S14" s="22"/>
       <c r="T14" s="6"/>
     </row>
     <row r="15" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B15" s="5"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="22"/>
-      <c r="E15" s="22"/>
-      <c r="F15" s="22"/>
-      <c r="G15" s="22"/>
-      <c r="H15" s="22"/>
-      <c r="I15" s="22"/>
-      <c r="J15" s="22"/>
-      <c r="K15" s="22"/>
-      <c r="L15" s="22"/>
-      <c r="M15" s="22"/>
-      <c r="N15" s="22"/>
-      <c r="O15" s="22"/>
-      <c r="P15" s="22"/>
-      <c r="Q15" s="22"/>
-      <c r="R15" s="22"/>
-      <c r="S15" s="22"/>
       <c r="T15" s="6"/>
     </row>
     <row r="16" spans="2:20" x14ac:dyDescent="0.25">
       <c r="B16" s="5"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
-      <c r="F16" s="22"/>
-      <c r="G16" s="22"/>
-      <c r="H16" s="22"/>
-      <c r="I16" s="22"/>
-      <c r="J16" s="22"/>
-      <c r="K16" s="22"/>
-      <c r="L16" s="22"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
       <c r="T16" s="6"/>
     </row>
     <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B17" s="5"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="22"/>
-      <c r="J17" s="22"/>
-      <c r="K17" s="22"/>
-      <c r="L17" s="22"/>
-      <c r="M17" s="22"/>
-      <c r="N17" s="22"/>
-      <c r="O17" s="22"/>
-      <c r="P17" s="22"/>
-      <c r="Q17" s="22"/>
-      <c r="R17" s="22"/>
-      <c r="S17" s="22"/>
       <c r="T17" s="6"/>
     </row>
     <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B18" s="5"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="22"/>
-      <c r="E18" s="22"/>
-      <c r="F18" s="22"/>
-      <c r="G18" s="22"/>
-      <c r="H18" s="22"/>
-      <c r="I18" s="22"/>
-      <c r="J18" s="22"/>
-      <c r="K18" s="22"/>
-      <c r="L18" s="22"/>
-      <c r="M18" s="22"/>
-      <c r="N18" s="22"/>
-      <c r="O18" s="22"/>
-      <c r="P18" s="22"/>
-      <c r="Q18" s="22"/>
-      <c r="R18" s="22"/>
-      <c r="S18" s="22"/>
       <c r="T18" s="6"/>
     </row>
     <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B19" s="5"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="22"/>
-      <c r="E19" s="22"/>
-      <c r="F19" s="22"/>
-      <c r="G19" s="22"/>
-      <c r="H19" s="22"/>
-      <c r="I19" s="22"/>
-      <c r="J19" s="22"/>
-      <c r="K19" s="22"/>
-      <c r="L19" s="22"/>
-      <c r="M19" s="22"/>
-      <c r="N19" s="22"/>
-      <c r="O19" s="22"/>
-      <c r="P19" s="22"/>
-      <c r="Q19" s="22"/>
-      <c r="R19" s="22"/>
-      <c r="S19" s="22"/>
       <c r="T19" s="6"/>
     </row>
     <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B20" s="5"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="22"/>
-      <c r="E20" s="22"/>
-      <c r="F20" s="22"/>
-      <c r="G20" s="22"/>
-      <c r="H20" s="22"/>
-      <c r="I20" s="22"/>
-      <c r="J20" s="22"/>
-      <c r="K20" s="22"/>
-      <c r="L20" s="22"/>
-      <c r="M20" s="22"/>
-      <c r="N20" s="22"/>
-      <c r="O20" s="22"/>
-      <c r="P20" s="22"/>
-      <c r="Q20" s="22"/>
-      <c r="R20" s="22"/>
-      <c r="S20" s="22"/>
       <c r="T20" s="6"/>
     </row>
     <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B21" s="5"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="22"/>
-      <c r="F21" s="22"/>
-      <c r="G21" s="22"/>
-      <c r="H21" s="22"/>
-      <c r="I21" s="22"/>
-      <c r="J21" s="22"/>
-      <c r="K21" s="22"/>
-      <c r="L21" s="22"/>
-      <c r="M21" s="22"/>
-      <c r="N21" s="22"/>
-      <c r="O21" s="22"/>
-      <c r="P21" s="22"/>
-      <c r="Q21" s="22"/>
-      <c r="R21" s="22"/>
-      <c r="S21" s="22"/>
       <c r="T21" s="6"/>
     </row>
     <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B22" s="5"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="22"/>
-      <c r="F22" s="22"/>
-      <c r="G22" s="22"/>
-      <c r="H22" s="22"/>
-      <c r="I22" s="22"/>
-      <c r="J22" s="22"/>
-      <c r="K22" s="22"/>
-      <c r="L22" s="22"/>
-      <c r="M22" s="22"/>
-      <c r="N22" s="22"/>
-      <c r="O22" s="22"/>
-      <c r="P22" s="22"/>
-      <c r="Q22" s="22"/>
-      <c r="R22" s="22"/>
-      <c r="S22" s="22"/>
       <c r="T22" s="6"/>
     </row>
     <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B23" s="5"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="22"/>
-      <c r="F23" s="22"/>
-      <c r="G23" s="22"/>
-      <c r="H23" s="22"/>
-      <c r="I23" s="22"/>
-      <c r="J23" s="22"/>
-      <c r="K23" s="22"/>
-      <c r="L23" s="22"/>
-      <c r="M23" s="22"/>
-      <c r="N23" s="22"/>
-      <c r="O23" s="22"/>
-      <c r="P23" s="22"/>
-      <c r="Q23" s="22"/>
-      <c r="R23" s="22"/>
-      <c r="S23" s="22"/>
       <c r="T23" s="6"/>
     </row>
     <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B24" s="5"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="22"/>
-      <c r="F24" s="22"/>
-      <c r="G24" s="22"/>
-      <c r="H24" s="22"/>
-      <c r="I24" s="22"/>
-      <c r="J24" s="22"/>
-      <c r="K24" s="22"/>
-      <c r="L24" s="22"/>
-      <c r="M24" s="22"/>
-      <c r="N24" s="22"/>
-      <c r="O24" s="22"/>
-      <c r="P24" s="22"/>
-      <c r="Q24" s="22"/>
-      <c r="R24" s="22"/>
-      <c r="S24" s="22"/>
       <c r="T24" s="6"/>
     </row>
     <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B25" s="5"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="22"/>
-      <c r="F25" s="22"/>
-      <c r="G25" s="22"/>
-      <c r="H25" s="22"/>
-      <c r="I25" s="22"/>
-      <c r="J25" s="22"/>
-      <c r="K25" s="22"/>
-      <c r="L25" s="22"/>
-      <c r="M25" s="22"/>
-      <c r="N25" s="22"/>
-      <c r="O25" s="22"/>
-      <c r="P25" s="22"/>
-      <c r="Q25" s="22"/>
-      <c r="R25" s="22"/>
-      <c r="S25" s="22"/>
       <c r="T25" s="6"/>
     </row>
     <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B26" s="5"/>
-      <c r="C26" s="22"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="22"/>
-      <c r="F26" s="22"/>
-      <c r="G26" s="22"/>
-      <c r="H26" s="22"/>
-      <c r="I26" s="22"/>
-      <c r="J26" s="22"/>
-      <c r="K26" s="22"/>
-      <c r="L26" s="22"/>
-      <c r="M26" s="22"/>
-      <c r="N26" s="22"/>
-      <c r="O26" s="22"/>
-      <c r="P26" s="22"/>
-      <c r="Q26" s="22"/>
-      <c r="R26" s="22"/>
-      <c r="S26" s="22"/>
       <c r="T26" s="6"/>
     </row>
     <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B27" s="5"/>
-      <c r="C27" s="22"/>
-      <c r="D27" s="22"/>
-      <c r="E27" s="22"/>
-      <c r="F27" s="22"/>
-      <c r="G27" s="22"/>
-      <c r="H27" s="22"/>
-      <c r="I27" s="22"/>
-      <c r="J27" s="22"/>
-      <c r="K27" s="22"/>
-      <c r="L27" s="22"/>
-      <c r="M27" s="22"/>
-      <c r="N27" s="22"/>
-      <c r="O27" s="22"/>
-      <c r="P27" s="22"/>
-      <c r="Q27" s="22"/>
-      <c r="R27" s="22"/>
-      <c r="S27" s="22"/>
       <c r="T27" s="6"/>
     </row>
     <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="B28" s="5"/>
-      <c r="C28" s="22"/>
-      <c r="D28" s="22"/>
-      <c r="E28" s="22"/>
-      <c r="F28" s="22"/>
-      <c r="G28" s="22"/>
-      <c r="H28" s="22"/>
-      <c r="I28" s="22"/>
-      <c r="J28" s="22"/>
-      <c r="K28" s="22"/>
-      <c r="L28" s="22"/>
-      <c r="M28" s="22"/>
-      <c r="N28" s="22"/>
-      <c r="O28" s="22"/>
-      <c r="P28" s="22"/>
-      <c r="Q28" s="22"/>
-      <c r="R28" s="22"/>
-      <c r="S28" s="22"/>
       <c r="T28" s="6"/>
     </row>
     <row r="29" spans="1:20" x14ac:dyDescent="0.25">
@@ -8034,47 +8344,47 @@
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A159" s="13"/>
-      <c r="B159" s="24"/>
-      <c r="C159" s="24"/>
-      <c r="D159" s="24"/>
-      <c r="E159" s="24"/>
-      <c r="F159" s="24"/>
-      <c r="G159" s="24"/>
-      <c r="H159" s="24"/>
-      <c r="I159" s="24"/>
-      <c r="J159" s="24"/>
-      <c r="K159" s="24"/>
-      <c r="L159" s="24"/>
+      <c r="B159" s="13"/>
+      <c r="C159" s="13"/>
+      <c r="D159" s="13"/>
+      <c r="E159" s="13"/>
+      <c r="F159" s="13"/>
+      <c r="G159" s="13"/>
+      <c r="H159" s="13"/>
+      <c r="I159" s="13"/>
+      <c r="J159" s="13"/>
+      <c r="K159" s="13"/>
+      <c r="L159" s="13"/>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A160" s="13"/>
-      <c r="B160" s="24"/>
-      <c r="C160" s="24"/>
-      <c r="D160" s="24"/>
-      <c r="E160" s="24"/>
-      <c r="F160" s="24"/>
-      <c r="G160" s="24"/>
-      <c r="H160" s="24"/>
-      <c r="I160" s="24"/>
-      <c r="J160" s="24"/>
-      <c r="K160" s="24"/>
-      <c r="L160" s="24"/>
+      <c r="B160" s="13"/>
+      <c r="C160" s="13"/>
+      <c r="D160" s="13"/>
+      <c r="E160" s="13"/>
+      <c r="F160" s="13"/>
+      <c r="G160" s="13"/>
+      <c r="H160" s="13"/>
+      <c r="I160" s="13"/>
+      <c r="J160" s="13"/>
+      <c r="K160" s="13"/>
+      <c r="L160" s="13"/>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A161" s="13" t="s">
         <v>222</v>
       </c>
-      <c r="B161" s="24"/>
-      <c r="C161" s="24"/>
-      <c r="D161" s="24"/>
-      <c r="E161" s="24"/>
-      <c r="F161" s="24"/>
-      <c r="G161" s="24"/>
-      <c r="H161" s="24"/>
-      <c r="I161" s="24"/>
-      <c r="J161" s="24"/>
-      <c r="K161" s="24"/>
-      <c r="L161" s="24"/>
+      <c r="B161" s="13"/>
+      <c r="C161" s="13"/>
+      <c r="D161" s="13"/>
+      <c r="E161" s="13"/>
+      <c r="F161" s="13"/>
+      <c r="G161" s="13"/>
+      <c r="H161" s="13"/>
+      <c r="I161" s="13"/>
+      <c r="J161" s="13"/>
+      <c r="K161" s="13"/>
+      <c r="L161" s="13"/>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A162" s="13"/>
@@ -8086,83 +8396,83 @@
       <c r="E162" s="15"/>
       <c r="F162" s="15"/>
       <c r="G162" s="16"/>
-      <c r="H162" s="24"/>
-      <c r="I162" s="24"/>
-      <c r="J162" s="24"/>
-      <c r="K162" s="24"/>
-      <c r="L162" s="24"/>
+      <c r="H162" s="13"/>
+      <c r="I162" s="13"/>
+      <c r="J162" s="13"/>
+      <c r="K162" s="13"/>
+      <c r="L162" s="13"/>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A163" s="13"/>
       <c r="B163" s="17" t="s">
         <v>224</v>
       </c>
-      <c r="C163" s="24"/>
-      <c r="D163" s="24"/>
-      <c r="E163" s="24"/>
-      <c r="F163" s="24"/>
+      <c r="C163" s="13"/>
+      <c r="D163" s="13"/>
+      <c r="E163" s="13"/>
+      <c r="F163" s="13"/>
       <c r="G163" s="18"/>
-      <c r="H163" s="24" t="s">
+      <c r="H163" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I163" s="24" t="s">
+      <c r="I163" s="13" t="s">
         <v>240</v>
       </c>
-      <c r="J163" s="24"/>
-      <c r="K163" s="24"/>
-      <c r="L163" s="24"/>
+      <c r="J163" s="13"/>
+      <c r="K163" s="13"/>
+      <c r="L163" s="13"/>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A164" s="13"/>
       <c r="B164" s="17" t="s">
         <v>225</v>
       </c>
-      <c r="C164" s="24"/>
-      <c r="D164" s="24"/>
-      <c r="E164" s="24"/>
-      <c r="F164" s="24"/>
+      <c r="C164" s="13"/>
+      <c r="D164" s="13"/>
+      <c r="E164" s="13"/>
+      <c r="F164" s="13"/>
       <c r="G164" s="18"/>
-      <c r="H164" s="24" t="s">
+      <c r="H164" s="13" t="s">
         <v>142</v>
       </c>
-      <c r="I164" s="24" t="s">
+      <c r="I164" s="13" t="s">
         <v>227</v>
       </c>
-      <c r="J164" s="24"/>
-      <c r="K164" s="24"/>
-      <c r="L164" s="24"/>
+      <c r="J164" s="13"/>
+      <c r="K164" s="13"/>
+      <c r="L164" s="13"/>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A165" s="13"/>
       <c r="B165" s="17" t="s">
         <v>226</v>
       </c>
-      <c r="C165" s="24"/>
-      <c r="D165" s="24"/>
-      <c r="E165" s="24"/>
-      <c r="F165" s="24"/>
+      <c r="C165" s="13"/>
+      <c r="D165" s="13"/>
+      <c r="E165" s="13"/>
+      <c r="F165" s="13"/>
       <c r="G165" s="18"/>
-      <c r="H165" s="24"/>
-      <c r="I165" s="24"/>
-      <c r="J165" s="24"/>
-      <c r="K165" s="24"/>
-      <c r="L165" s="24"/>
+      <c r="H165" s="13"/>
+      <c r="I165" s="13"/>
+      <c r="J165" s="13"/>
+      <c r="K165" s="13"/>
+      <c r="L165" s="13"/>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A166" s="13"/>
       <c r="B166" s="17" t="s">
         <v>185</v>
       </c>
-      <c r="C166" s="24"/>
-      <c r="D166" s="24"/>
-      <c r="E166" s="24"/>
-      <c r="F166" s="24"/>
+      <c r="C166" s="13"/>
+      <c r="D166" s="13"/>
+      <c r="E166" s="13"/>
+      <c r="F166" s="13"/>
       <c r="G166" s="18"/>
-      <c r="H166" s="24"/>
-      <c r="I166" s="24"/>
-      <c r="J166" s="24"/>
-      <c r="K166" s="24"/>
-      <c r="L166" s="24"/>
+      <c r="H166" s="13"/>
+      <c r="I166" s="13"/>
+      <c r="J166" s="13"/>
+      <c r="K166" s="13"/>
+      <c r="L166" s="13"/>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A167" s="13"/>
@@ -8174,25 +8484,25 @@
       <c r="E167" s="20"/>
       <c r="F167" s="20"/>
       <c r="G167" s="21"/>
-      <c r="H167" s="24"/>
-      <c r="I167" s="24"/>
-      <c r="J167" s="24"/>
-      <c r="K167" s="24"/>
-      <c r="L167" s="24"/>
+      <c r="H167" s="13"/>
+      <c r="I167" s="13"/>
+      <c r="J167" s="13"/>
+      <c r="K167" s="13"/>
+      <c r="L167" s="13"/>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A168" s="13"/>
-      <c r="B168" s="24"/>
-      <c r="C168" s="24"/>
-      <c r="D168" s="24"/>
-      <c r="E168" s="24"/>
-      <c r="F168" s="24"/>
-      <c r="G168" s="24"/>
-      <c r="H168" s="24"/>
-      <c r="I168" s="24"/>
-      <c r="J168" s="24"/>
-      <c r="K168" s="24"/>
-      <c r="L168" s="24"/>
+      <c r="B168" s="13"/>
+      <c r="C168" s="13"/>
+      <c r="D168" s="13"/>
+      <c r="E168" s="13"/>
+      <c r="F168" s="13"/>
+      <c r="G168" s="13"/>
+      <c r="H168" s="13"/>
+      <c r="I168" s="13"/>
+      <c r="J168" s="13"/>
+      <c r="K168" s="13"/>
+      <c r="L168" s="13"/>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
@@ -8213,80 +8523,48 @@
       <c r="B172" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="C172" s="22"/>
-      <c r="D172" s="22"/>
-      <c r="E172" s="22"/>
-      <c r="F172" s="22"/>
       <c r="G172" s="6"/>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B173" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C173" s="22"/>
-      <c r="D173" s="22"/>
-      <c r="E173" s="22"/>
-      <c r="F173" s="22"/>
       <c r="G173" s="6"/>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B174" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="C174" s="22"/>
-      <c r="D174" s="22"/>
-      <c r="E174" s="22"/>
-      <c r="F174" s="22"/>
       <c r="G174" s="6"/>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B175" s="5" t="s">
         <v>149</v>
       </c>
-      <c r="C175" s="22"/>
-      <c r="D175" s="22"/>
-      <c r="E175" s="22"/>
-      <c r="F175" s="22"/>
       <c r="G175" s="6"/>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.25">
       <c r="B176" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="C176" s="22"/>
-      <c r="D176" s="22"/>
-      <c r="E176" s="22"/>
-      <c r="F176" s="22"/>
       <c r="G176" s="6"/>
     </row>
     <row r="177" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B177" s="5" t="s">
         <v>151</v>
       </c>
-      <c r="C177" s="22"/>
-      <c r="D177" s="22"/>
-      <c r="E177" s="22"/>
-      <c r="F177" s="22"/>
       <c r="G177" s="6"/>
     </row>
     <row r="178" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B178" s="5" t="s">
         <v>152</v>
       </c>
-      <c r="C178" s="22"/>
-      <c r="D178" s="22"/>
-      <c r="E178" s="22"/>
-      <c r="F178" s="22"/>
       <c r="G178" s="6"/>
     </row>
     <row r="179" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B179" s="5" t="s">
         <v>153</v>
       </c>
-      <c r="C179" s="22"/>
-      <c r="D179" s="22"/>
-      <c r="E179" s="22"/>
-      <c r="F179" s="22"/>
       <c r="G179" s="6"/>
       <c r="H179" t="s">
         <v>142</v>
@@ -8299,10 +8577,6 @@
       <c r="B180" s="5" t="s">
         <v>154</v>
       </c>
-      <c r="C180" s="22"/>
-      <c r="D180" s="22"/>
-      <c r="E180" s="22"/>
-      <c r="F180" s="22"/>
       <c r="G180" s="6"/>
       <c r="H180" t="s">
         <v>142</v>
@@ -8315,70 +8589,42 @@
       <c r="B181" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="C181" s="22"/>
-      <c r="D181" s="22"/>
-      <c r="E181" s="22"/>
-      <c r="F181" s="22"/>
       <c r="G181" s="6"/>
     </row>
     <row r="182" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B182" s="5" t="s">
         <v>156</v>
       </c>
-      <c r="C182" s="22"/>
-      <c r="D182" s="22"/>
-      <c r="E182" s="22"/>
-      <c r="F182" s="22"/>
       <c r="G182" s="6"/>
     </row>
     <row r="183" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B183" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C183" s="22"/>
-      <c r="D183" s="22"/>
-      <c r="E183" s="22"/>
-      <c r="F183" s="22"/>
       <c r="G183" s="6"/>
     </row>
     <row r="184" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B184" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="C184" s="22"/>
-      <c r="D184" s="22"/>
-      <c r="E184" s="22"/>
-      <c r="F184" s="22"/>
       <c r="G184" s="6"/>
     </row>
     <row r="185" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B185" s="5" t="s">
         <v>158</v>
       </c>
-      <c r="C185" s="22"/>
-      <c r="D185" s="22"/>
-      <c r="E185" s="22"/>
-      <c r="F185" s="22"/>
       <c r="G185" s="6"/>
     </row>
     <row r="186" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B186" s="5" t="s">
         <v>159</v>
       </c>
-      <c r="C186" s="22"/>
-      <c r="D186" s="22"/>
-      <c r="E186" s="22"/>
-      <c r="F186" s="22"/>
       <c r="G186" s="6"/>
     </row>
     <row r="187" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B187" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="C187" s="22"/>
-      <c r="D187" s="22"/>
-      <c r="E187" s="22"/>
-      <c r="F187" s="22"/>
       <c r="G187" s="6"/>
       <c r="H187" t="str">
         <f>$H$180</f>
@@ -8392,30 +8638,18 @@
       <c r="B188" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="C188" s="22"/>
-      <c r="D188" s="22"/>
-      <c r="E188" s="22"/>
-      <c r="F188" s="22"/>
       <c r="G188" s="6"/>
     </row>
     <row r="189" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B189" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="C189" s="22"/>
-      <c r="D189" s="22"/>
-      <c r="E189" s="22"/>
-      <c r="F189" s="22"/>
       <c r="G189" s="6"/>
     </row>
     <row r="190" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B190" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C190" s="22"/>
-      <c r="D190" s="22"/>
-      <c r="E190" s="22"/>
-      <c r="F190" s="22"/>
       <c r="G190" s="6"/>
     </row>
     <row r="191" spans="2:9" x14ac:dyDescent="0.25">
@@ -8451,14 +8685,6 @@
       <c r="B196" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="C196" s="22"/>
-      <c r="D196" s="22"/>
-      <c r="E196" s="22"/>
-      <c r="F196" s="22"/>
-      <c r="G196" s="22"/>
-      <c r="H196" s="22"/>
-      <c r="I196" s="22"/>
-      <c r="J196" s="22"/>
       <c r="K196" s="6"/>
       <c r="L196" t="s">
         <v>142</v>
@@ -8471,94 +8697,38 @@
       <c r="B197" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C197" s="22"/>
-      <c r="D197" s="22"/>
-      <c r="E197" s="22"/>
-      <c r="F197" s="22"/>
-      <c r="G197" s="22"/>
-      <c r="H197" s="22"/>
-      <c r="I197" s="22"/>
-      <c r="J197" s="22"/>
       <c r="K197" s="6"/>
     </row>
     <row r="198" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B198" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="C198" s="22"/>
-      <c r="D198" s="22"/>
-      <c r="E198" s="22"/>
-      <c r="F198" s="22"/>
-      <c r="G198" s="22"/>
-      <c r="H198" s="22"/>
-      <c r="I198" s="22"/>
-      <c r="J198" s="22"/>
       <c r="K198" s="6"/>
     </row>
     <row r="199" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B199" s="5"/>
-      <c r="C199" s="22"/>
-      <c r="D199" s="22"/>
-      <c r="E199" s="22"/>
-      <c r="F199" s="22"/>
-      <c r="G199" s="22"/>
-      <c r="H199" s="22"/>
-      <c r="I199" s="22"/>
-      <c r="J199" s="22"/>
       <c r="K199" s="6"/>
     </row>
     <row r="200" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B200" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C200" s="22"/>
-      <c r="D200" s="22"/>
-      <c r="E200" s="22"/>
-      <c r="F200" s="22"/>
-      <c r="G200" s="22"/>
-      <c r="H200" s="22"/>
-      <c r="I200" s="22"/>
-      <c r="J200" s="22"/>
       <c r="K200" s="6"/>
     </row>
     <row r="201" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B201" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="C201" s="22"/>
-      <c r="D201" s="22"/>
-      <c r="E201" s="22"/>
-      <c r="F201" s="22"/>
-      <c r="G201" s="22"/>
-      <c r="H201" s="22"/>
-      <c r="I201" s="22"/>
-      <c r="J201" s="22"/>
       <c r="K201" s="6"/>
     </row>
     <row r="202" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B202" s="5"/>
-      <c r="C202" s="22"/>
-      <c r="D202" s="22"/>
-      <c r="E202" s="22"/>
-      <c r="F202" s="22"/>
-      <c r="G202" s="22"/>
-      <c r="H202" s="22"/>
-      <c r="I202" s="22"/>
-      <c r="J202" s="22"/>
       <c r="K202" s="6"/>
     </row>
     <row r="203" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B203" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C203" s="22"/>
-      <c r="D203" s="22"/>
-      <c r="E203" s="22"/>
-      <c r="F203" s="22"/>
-      <c r="G203" s="22"/>
-      <c r="H203" s="22"/>
-      <c r="I203" s="22"/>
-      <c r="J203" s="22"/>
       <c r="K203" s="6"/>
       <c r="L203" t="s">
         <v>142</v>
@@ -8571,14 +8741,6 @@
       <c r="B204" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="C204" s="22"/>
-      <c r="D204" s="22"/>
-      <c r="E204" s="22"/>
-      <c r="F204" s="22"/>
-      <c r="G204" s="22"/>
-      <c r="H204" s="22"/>
-      <c r="I204" s="22"/>
-      <c r="J204" s="22"/>
       <c r="K204" s="6"/>
       <c r="L204" t="s">
         <v>142</v>
@@ -8591,14 +8753,6 @@
       <c r="B205" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C205" s="22"/>
-      <c r="D205" s="22"/>
-      <c r="E205" s="22"/>
-      <c r="F205" s="22"/>
-      <c r="G205" s="22"/>
-      <c r="H205" s="22"/>
-      <c r="I205" s="22"/>
-      <c r="J205" s="22"/>
       <c r="K205" s="6"/>
       <c r="L205" t="s">
         <v>142</v>
@@ -8611,14 +8765,6 @@
       <c r="B206" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="C206" s="22"/>
-      <c r="D206" s="22"/>
-      <c r="E206" s="22"/>
-      <c r="F206" s="22"/>
-      <c r="G206" s="22"/>
-      <c r="H206" s="22"/>
-      <c r="I206" s="22"/>
-      <c r="J206" s="22"/>
       <c r="K206" s="6"/>
       <c r="L206" t="s">
         <v>142</v>
@@ -8631,98 +8777,42 @@
       <c r="B207" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C207" s="22"/>
-      <c r="D207" s="22"/>
-      <c r="E207" s="22"/>
-      <c r="F207" s="22"/>
-      <c r="G207" s="22"/>
-      <c r="H207" s="22"/>
-      <c r="I207" s="22"/>
-      <c r="J207" s="22"/>
       <c r="K207" s="6"/>
     </row>
     <row r="208" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B208" s="5" t="s">
         <v>177</v>
       </c>
-      <c r="C208" s="22"/>
-      <c r="D208" s="22"/>
-      <c r="E208" s="22"/>
-      <c r="F208" s="22"/>
-      <c r="G208" s="22"/>
-      <c r="H208" s="22"/>
-      <c r="I208" s="22"/>
-      <c r="J208" s="22"/>
       <c r="K208" s="6"/>
     </row>
     <row r="209" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B209" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="C209" s="22"/>
-      <c r="D209" s="22"/>
-      <c r="E209" s="22"/>
-      <c r="F209" s="22"/>
-      <c r="G209" s="22"/>
-      <c r="H209" s="22"/>
-      <c r="I209" s="22"/>
-      <c r="J209" s="22"/>
       <c r="K209" s="6"/>
     </row>
     <row r="210" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B210" s="5" t="s">
         <v>179</v>
       </c>
-      <c r="C210" s="22"/>
-      <c r="D210" s="22"/>
-      <c r="E210" s="22"/>
-      <c r="F210" s="22"/>
-      <c r="G210" s="22"/>
-      <c r="H210" s="22"/>
-      <c r="I210" s="22"/>
-      <c r="J210" s="22"/>
       <c r="K210" s="6"/>
     </row>
     <row r="211" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B211" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="C211" s="22"/>
-      <c r="D211" s="22"/>
-      <c r="E211" s="22"/>
-      <c r="F211" s="22"/>
-      <c r="G211" s="22"/>
-      <c r="H211" s="22"/>
-      <c r="I211" s="22"/>
-      <c r="J211" s="22"/>
       <c r="K211" s="6"/>
     </row>
     <row r="212" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B212" s="5" t="s">
         <v>181</v>
       </c>
-      <c r="C212" s="22"/>
-      <c r="D212" s="22"/>
-      <c r="E212" s="22"/>
-      <c r="F212" s="22"/>
-      <c r="G212" s="22"/>
-      <c r="H212" s="22"/>
-      <c r="I212" s="22"/>
-      <c r="J212" s="22"/>
       <c r="K212" s="6"/>
     </row>
     <row r="213" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B213" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="C213" s="22"/>
-      <c r="D213" s="22"/>
-      <c r="E213" s="22"/>
-      <c r="F213" s="22"/>
-      <c r="G213" s="22"/>
-      <c r="H213" s="22"/>
-      <c r="I213" s="22"/>
-      <c r="J213" s="22"/>
       <c r="K213" s="6"/>
       <c r="L213" t="s">
         <v>142</v>
@@ -8735,82 +8825,34 @@
       <c r="B214" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="C214" s="22"/>
-      <c r="D214" s="22"/>
-      <c r="E214" s="22"/>
-      <c r="F214" s="22"/>
-      <c r="G214" s="22"/>
-      <c r="H214" s="22"/>
-      <c r="I214" s="22"/>
-      <c r="J214" s="22"/>
       <c r="K214" s="6"/>
     </row>
     <row r="215" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B215" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="C215" s="22"/>
-      <c r="D215" s="22"/>
-      <c r="E215" s="22"/>
-      <c r="F215" s="22"/>
-      <c r="G215" s="22"/>
-      <c r="H215" s="22"/>
-      <c r="I215" s="22"/>
-      <c r="J215" s="22"/>
       <c r="K215" s="6"/>
     </row>
     <row r="216" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B216" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C216" s="22"/>
-      <c r="D216" s="22"/>
-      <c r="E216" s="22"/>
-      <c r="F216" s="22"/>
-      <c r="G216" s="22"/>
-      <c r="H216" s="22"/>
-      <c r="I216" s="22"/>
-      <c r="J216" s="22"/>
       <c r="K216" s="6"/>
     </row>
     <row r="217" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B217" s="5"/>
-      <c r="C217" s="22"/>
-      <c r="D217" s="22"/>
-      <c r="E217" s="22"/>
-      <c r="F217" s="22"/>
-      <c r="G217" s="22"/>
-      <c r="H217" s="22"/>
-      <c r="I217" s="22"/>
-      <c r="J217" s="22"/>
       <c r="K217" s="6"/>
     </row>
     <row r="218" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B218" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="C218" s="22"/>
-      <c r="D218" s="22"/>
-      <c r="E218" s="22"/>
-      <c r="F218" s="22"/>
-      <c r="G218" s="22"/>
-      <c r="H218" s="22"/>
-      <c r="I218" s="22"/>
-      <c r="J218" s="22"/>
       <c r="K218" s="6"/>
     </row>
     <row r="219" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B219" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="C219" s="22"/>
-      <c r="D219" s="22"/>
-      <c r="E219" s="22"/>
-      <c r="F219" s="22"/>
-      <c r="G219" s="22"/>
-      <c r="H219" s="22"/>
-      <c r="I219" s="22"/>
-      <c r="J219" s="22"/>
       <c r="K219" s="6"/>
       <c r="L219" t="s">
         <v>142</v>
@@ -8821,42 +8863,18 @@
     </row>
     <row r="220" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B220" s="5"/>
-      <c r="C220" s="22"/>
-      <c r="D220" s="22"/>
-      <c r="E220" s="22"/>
-      <c r="F220" s="22"/>
-      <c r="G220" s="22"/>
-      <c r="H220" s="22"/>
-      <c r="I220" s="22"/>
-      <c r="J220" s="22"/>
       <c r="K220" s="6"/>
     </row>
     <row r="221" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B221" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="C221" s="22"/>
-      <c r="D221" s="22"/>
-      <c r="E221" s="22"/>
-      <c r="F221" s="22"/>
-      <c r="G221" s="22"/>
-      <c r="H221" s="22"/>
-      <c r="I221" s="22"/>
-      <c r="J221" s="22"/>
       <c r="K221" s="6"/>
     </row>
     <row r="222" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B222" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="C222" s="22"/>
-      <c r="D222" s="22"/>
-      <c r="E222" s="22"/>
-      <c r="F222" s="22"/>
-      <c r="G222" s="22"/>
-      <c r="H222" s="22"/>
-      <c r="I222" s="22"/>
-      <c r="J222" s="22"/>
       <c r="K222" s="6"/>
       <c r="L222" t="s">
         <v>142</v>
@@ -8869,66 +8887,26 @@
       <c r="B223" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C223" s="22"/>
-      <c r="D223" s="22"/>
-      <c r="E223" s="22"/>
-      <c r="F223" s="22"/>
-      <c r="G223" s="22"/>
-      <c r="H223" s="22"/>
-      <c r="I223" s="22"/>
-      <c r="J223" s="22"/>
       <c r="K223" s="6"/>
     </row>
     <row r="224" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B224" s="5"/>
-      <c r="C224" s="22"/>
-      <c r="D224" s="22"/>
-      <c r="E224" s="22"/>
-      <c r="F224" s="22"/>
-      <c r="G224" s="22"/>
-      <c r="H224" s="22"/>
-      <c r="I224" s="22"/>
-      <c r="J224" s="22"/>
       <c r="K224" s="6"/>
     </row>
     <row r="225" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B225" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="C225" s="22"/>
-      <c r="D225" s="22"/>
-      <c r="E225" s="22"/>
-      <c r="F225" s="22"/>
-      <c r="G225" s="22"/>
-      <c r="H225" s="22"/>
-      <c r="I225" s="22"/>
-      <c r="J225" s="22"/>
       <c r="K225" s="6"/>
     </row>
     <row r="226" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B226" s="5"/>
-      <c r="C226" s="22"/>
-      <c r="D226" s="22"/>
-      <c r="E226" s="22"/>
-      <c r="F226" s="22"/>
-      <c r="G226" s="22"/>
-      <c r="H226" s="22"/>
-      <c r="I226" s="22"/>
-      <c r="J226" s="22"/>
       <c r="K226" s="6"/>
     </row>
     <row r="227" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B227" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="C227" s="22"/>
-      <c r="D227" s="22"/>
-      <c r="E227" s="22"/>
-      <c r="F227" s="22"/>
-      <c r="G227" s="22"/>
-      <c r="H227" s="22"/>
-      <c r="I227" s="22"/>
-      <c r="J227" s="22"/>
       <c r="K227" s="6"/>
       <c r="L227" t="s">
         <v>142</v>
@@ -8941,246 +8919,102 @@
       <c r="B228" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="C228" s="22"/>
-      <c r="D228" s="22"/>
-      <c r="E228" s="22"/>
-      <c r="F228" s="22"/>
-      <c r="G228" s="22"/>
-      <c r="H228" s="22"/>
-      <c r="I228" s="22"/>
-      <c r="J228" s="22"/>
       <c r="K228" s="6"/>
     </row>
     <row r="229" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B229" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="C229" s="22"/>
-      <c r="D229" s="22"/>
-      <c r="E229" s="22"/>
-      <c r="F229" s="22"/>
-      <c r="G229" s="22"/>
-      <c r="H229" s="22"/>
-      <c r="I229" s="22"/>
-      <c r="J229" s="22"/>
       <c r="K229" s="6"/>
     </row>
     <row r="230" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B230" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="C230" s="22"/>
-      <c r="D230" s="22"/>
-      <c r="E230" s="22"/>
-      <c r="F230" s="22"/>
-      <c r="G230" s="22"/>
-      <c r="H230" s="22"/>
-      <c r="I230" s="22"/>
-      <c r="J230" s="22"/>
       <c r="K230" s="6"/>
     </row>
     <row r="231" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B231" s="5" t="s">
         <v>195</v>
       </c>
-      <c r="C231" s="22"/>
-      <c r="D231" s="22"/>
-      <c r="E231" s="22"/>
-      <c r="F231" s="22"/>
-      <c r="G231" s="22"/>
-      <c r="H231" s="22"/>
-      <c r="I231" s="22"/>
-      <c r="J231" s="22"/>
       <c r="K231" s="6"/>
     </row>
     <row r="232" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B232" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="C232" s="22"/>
-      <c r="D232" s="22"/>
-      <c r="E232" s="22"/>
-      <c r="F232" s="22"/>
-      <c r="G232" s="22"/>
-      <c r="H232" s="22"/>
-      <c r="I232" s="22"/>
-      <c r="J232" s="22"/>
       <c r="K232" s="6"/>
     </row>
     <row r="233" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B233" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C233" s="22"/>
-      <c r="D233" s="22"/>
-      <c r="E233" s="22"/>
-      <c r="F233" s="22"/>
-      <c r="G233" s="22"/>
-      <c r="H233" s="22"/>
-      <c r="I233" s="22"/>
-      <c r="J233" s="22"/>
       <c r="K233" s="6"/>
     </row>
     <row r="234" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B234" s="5"/>
-      <c r="C234" s="22"/>
-      <c r="D234" s="22"/>
-      <c r="E234" s="22"/>
-      <c r="F234" s="22"/>
-      <c r="G234" s="22"/>
-      <c r="H234" s="22"/>
-      <c r="I234" s="22"/>
-      <c r="J234" s="22"/>
       <c r="K234" s="6"/>
     </row>
     <row r="235" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B235" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C235" s="22"/>
-      <c r="D235" s="22"/>
-      <c r="E235" s="22"/>
-      <c r="F235" s="22"/>
-      <c r="G235" s="22"/>
-      <c r="H235" s="22"/>
-      <c r="I235" s="22"/>
-      <c r="J235" s="22"/>
       <c r="K235" s="6"/>
     </row>
     <row r="236" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B236" s="5"/>
-      <c r="C236" s="22"/>
-      <c r="D236" s="22"/>
-      <c r="E236" s="22"/>
-      <c r="F236" s="22"/>
-      <c r="G236" s="22"/>
-      <c r="H236" s="22"/>
-      <c r="I236" s="22"/>
-      <c r="J236" s="22"/>
       <c r="K236" s="6"/>
     </row>
     <row r="237" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B237" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="C237" s="22"/>
-      <c r="D237" s="22"/>
-      <c r="E237" s="22"/>
-      <c r="F237" s="22"/>
-      <c r="G237" s="22"/>
-      <c r="H237" s="22"/>
-      <c r="I237" s="22"/>
-      <c r="J237" s="22"/>
       <c r="K237" s="6"/>
     </row>
     <row r="238" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B238" s="5" t="s">
         <v>199</v>
       </c>
-      <c r="C238" s="22"/>
-      <c r="D238" s="22"/>
-      <c r="E238" s="22"/>
-      <c r="F238" s="22"/>
-      <c r="G238" s="22"/>
-      <c r="H238" s="22"/>
-      <c r="I238" s="22"/>
-      <c r="J238" s="22"/>
       <c r="K238" s="6"/>
     </row>
     <row r="239" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B239" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="C239" s="22"/>
-      <c r="D239" s="22"/>
-      <c r="E239" s="22"/>
-      <c r="F239" s="22"/>
-      <c r="G239" s="22"/>
-      <c r="H239" s="22"/>
-      <c r="I239" s="22"/>
-      <c r="J239" s="22"/>
       <c r="K239" s="6"/>
     </row>
     <row r="240" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B240" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="C240" s="22"/>
-      <c r="D240" s="22"/>
-      <c r="E240" s="22"/>
-      <c r="F240" s="22"/>
-      <c r="G240" s="22"/>
-      <c r="H240" s="22"/>
-      <c r="I240" s="22"/>
-      <c r="J240" s="22"/>
       <c r="K240" s="6"/>
     </row>
     <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B241" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="C241" s="22"/>
-      <c r="D241" s="22"/>
-      <c r="E241" s="22"/>
-      <c r="F241" s="22"/>
-      <c r="G241" s="22"/>
-      <c r="H241" s="22"/>
-      <c r="I241" s="22"/>
-      <c r="J241" s="22"/>
       <c r="K241" s="6"/>
     </row>
     <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B242" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="C242" s="22"/>
-      <c r="D242" s="22"/>
-      <c r="E242" s="22"/>
-      <c r="F242" s="22"/>
-      <c r="G242" s="22"/>
-      <c r="H242" s="22"/>
-      <c r="I242" s="22"/>
-      <c r="J242" s="22"/>
       <c r="K242" s="6"/>
     </row>
     <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B243" s="5" t="s">
         <v>203</v>
       </c>
-      <c r="C243" s="22"/>
-      <c r="D243" s="22"/>
-      <c r="E243" s="22"/>
-      <c r="F243" s="22"/>
-      <c r="G243" s="22"/>
-      <c r="H243" s="22"/>
-      <c r="I243" s="22"/>
-      <c r="J243" s="22"/>
       <c r="K243" s="6"/>
     </row>
     <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B244" s="5" t="s">
         <v>185</v>
       </c>
-      <c r="C244" s="22"/>
-      <c r="D244" s="22"/>
-      <c r="E244" s="22"/>
-      <c r="F244" s="22"/>
-      <c r="G244" s="22"/>
-      <c r="H244" s="22"/>
-      <c r="I244" s="22"/>
-      <c r="J244" s="22"/>
       <c r="K244" s="6"/>
     </row>
     <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B245" s="5"/>
-      <c r="C245" s="22"/>
-      <c r="D245" s="22"/>
-      <c r="E245" s="22"/>
-      <c r="F245" s="22"/>
-      <c r="G245" s="22"/>
-      <c r="H245" s="22"/>
-      <c r="I245" s="22"/>
-      <c r="J245" s="22"/>
       <c r="K245" s="6"/>
     </row>
     <row r="246" spans="1:11" x14ac:dyDescent="0.25">
@@ -9218,96 +9052,48 @@
       <c r="B251" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="C251" s="22"/>
-      <c r="D251" s="22"/>
-      <c r="E251" s="22"/>
-      <c r="F251" s="22"/>
-      <c r="G251" s="22"/>
-      <c r="H251" s="22"/>
       <c r="I251" s="6"/>
     </row>
     <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B252" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="C252" s="22"/>
-      <c r="D252" s="22"/>
-      <c r="E252" s="22"/>
-      <c r="F252" s="22"/>
-      <c r="G252" s="22"/>
-      <c r="H252" s="22"/>
       <c r="I252" s="6"/>
     </row>
     <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B253" s="5" t="s">
         <v>215</v>
       </c>
-      <c r="C253" s="22"/>
-      <c r="D253" s="22"/>
-      <c r="E253" s="22"/>
-      <c r="F253" s="22"/>
-      <c r="G253" s="22"/>
-      <c r="H253" s="22"/>
       <c r="I253" s="6"/>
     </row>
     <row r="254" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B254" s="23" t="s">
+      <c r="B254" s="22" t="s">
         <v>209</v>
       </c>
-      <c r="C254" s="22"/>
-      <c r="D254" s="22"/>
-      <c r="E254" s="22"/>
-      <c r="F254" s="22"/>
-      <c r="G254" s="22"/>
-      <c r="H254" s="22"/>
       <c r="I254" s="6"/>
     </row>
     <row r="255" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B255" s="23" t="s">
+      <c r="B255" s="22" t="s">
         <v>210</v>
       </c>
-      <c r="C255" s="22"/>
-      <c r="D255" s="22"/>
-      <c r="E255" s="22"/>
-      <c r="F255" s="22"/>
-      <c r="G255" s="22"/>
-      <c r="H255" s="22"/>
       <c r="I255" s="6"/>
     </row>
     <row r="256" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B256" s="23" t="s">
+      <c r="B256" s="22" t="s">
         <v>211</v>
       </c>
-      <c r="C256" s="22"/>
-      <c r="D256" s="22"/>
-      <c r="E256" s="22"/>
-      <c r="F256" s="22"/>
-      <c r="G256" s="22"/>
-      <c r="H256" s="22"/>
       <c r="I256" s="6"/>
     </row>
     <row r="257" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B257" s="23" t="s">
+      <c r="B257" s="22" t="s">
         <v>212</v>
       </c>
-      <c r="C257" s="22"/>
-      <c r="D257" s="22"/>
-      <c r="E257" s="22"/>
-      <c r="F257" s="22"/>
-      <c r="G257" s="22"/>
-      <c r="H257" s="22"/>
       <c r="I257" s="6"/>
     </row>
     <row r="258" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B258" s="23" t="s">
+      <c r="B258" s="22" t="s">
         <v>213</v>
       </c>
-      <c r="C258" s="22"/>
-      <c r="D258" s="22"/>
-      <c r="E258" s="22"/>
-      <c r="F258" s="22"/>
-      <c r="G258" s="22"/>
-      <c r="H258" s="22"/>
       <c r="I258" s="6"/>
     </row>
     <row r="259" spans="1:9" x14ac:dyDescent="0.25">
@@ -9340,27 +9126,18 @@
       <c r="B264" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="C264" s="22"/>
-      <c r="D264" s="22"/>
-      <c r="E264" s="22"/>
       <c r="F264" s="6"/>
     </row>
     <row r="265" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B265" s="5" t="s">
         <v>218</v>
       </c>
-      <c r="C265" s="22"/>
-      <c r="D265" s="22"/>
-      <c r="E265" s="22"/>
       <c r="F265" s="6"/>
     </row>
     <row r="266" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B266" s="5" t="s">
         <v>219</v>
       </c>
-      <c r="C266" s="22"/>
-      <c r="D266" s="22"/>
-      <c r="E266" s="22"/>
       <c r="F266" s="6"/>
     </row>
     <row r="267" spans="1:9" x14ac:dyDescent="0.25">
@@ -9376,6 +9153,5261 @@
       <c r="A270" s="1" t="s">
         <v>241</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4231C1C5-6F1F-4243-B140-5BD8367ACEDD}">
+  <dimension ref="A2:T336"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A326" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="Q194" sqref="Q194"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="23" t="s">
+        <v>0</v>
+      </c>
+      <c r="B5" s="24"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="24"/>
+      <c r="E5" s="24"/>
+      <c r="F5" s="24"/>
+      <c r="G5" s="24"/>
+      <c r="H5" s="24"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="24"/>
+      <c r="B6" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+      <c r="K6" s="26"/>
+      <c r="L6" s="27"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="24"/>
+      <c r="B7" s="28"/>
+      <c r="C7" s="24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="24"/>
+      <c r="K7" s="24"/>
+      <c r="L7" s="29"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="24"/>
+      <c r="B8" s="28"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="29"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="24"/>
+      <c r="B9" s="28"/>
+      <c r="C9" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="29"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="24"/>
+      <c r="B10" s="28"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24" t="s">
+        <v>5</v>
+      </c>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="29"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="24"/>
+      <c r="B11" s="28"/>
+      <c r="C11" s="24"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="29"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="24"/>
+      <c r="B12" s="28"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="29"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="24"/>
+      <c r="B13" s="28"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="H13" s="24"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="24"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="29"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="24"/>
+      <c r="B14" s="28"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="29"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="24"/>
+      <c r="B15" s="28"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="29"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="24"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="24"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="7" t="s">
+        <v>295</v>
+      </c>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="29"/>
+      <c r="M16" t="s">
+        <v>142</v>
+      </c>
+      <c r="N16" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" s="24"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="29"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" s="24"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="24"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24" t="s">
+        <v>98</v>
+      </c>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="29"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" s="24"/>
+      <c r="B19" s="28"/>
+      <c r="C19" s="24"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="29"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" s="24"/>
+      <c r="B20" s="28"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="29"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" s="24"/>
+      <c r="B21" s="28"/>
+      <c r="C21" s="24"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="24"/>
+      <c r="L21" s="29"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22" s="24"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="24"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="29"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23" s="24"/>
+      <c r="B23" s="28"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="29"/>
+    </row>
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A24" s="24"/>
+      <c r="B24" s="28"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="24"/>
+      <c r="L24" s="29"/>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A25" s="24"/>
+      <c r="B25" s="28"/>
+      <c r="C25" s="24"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>13</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="24"/>
+      <c r="L25" s="29"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A26" s="24"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="24"/>
+      <c r="D26" s="24"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="24"/>
+      <c r="L26" s="29"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A27" s="24"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="24"/>
+      <c r="L27" s="29"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A28" s="24"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="24"/>
+      <c r="L28" s="29"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A29" s="24"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="24"/>
+      <c r="L29" s="29"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A30" s="24"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+      <c r="G30" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="24"/>
+      <c r="L30" s="29"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A31" s="24"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="24"/>
+      <c r="D31" s="24"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24" t="s">
+        <v>19</v>
+      </c>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="24"/>
+      <c r="L31" s="29"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A32" s="24"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="24"/>
+      <c r="D32" s="24"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="24"/>
+      <c r="L32" s="29"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A33" s="24"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="24"/>
+      <c r="D33" s="24"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24" t="s">
+        <v>21</v>
+      </c>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="24"/>
+      <c r="L33" s="29"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A34" s="24"/>
+      <c r="B34" s="28"/>
+      <c r="C34" s="24"/>
+      <c r="D34" s="24"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="24"/>
+      <c r="L34" s="29"/>
+    </row>
+    <row r="35" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A35" s="24"/>
+      <c r="B35" s="28"/>
+      <c r="C35" s="24"/>
+      <c r="D35" s="24"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="24"/>
+      <c r="G35" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="24"/>
+      <c r="L35" s="29"/>
+    </row>
+    <row r="36" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A36" s="24"/>
+      <c r="B36" s="28"/>
+      <c r="C36" s="24"/>
+      <c r="D36" s="24"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="24"/>
+      <c r="L36" s="29"/>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A37" s="24"/>
+      <c r="B37" s="28"/>
+      <c r="C37" s="24"/>
+      <c r="D37" s="24"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24" t="s">
+        <v>25</v>
+      </c>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="24"/>
+      <c r="L37" s="29"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A38" s="24"/>
+      <c r="B38" s="28"/>
+      <c r="C38" s="24"/>
+      <c r="D38" s="24"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="24"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="24"/>
+      <c r="L38" s="29"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A39" s="24"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="24"/>
+      <c r="D39" s="24"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="24"/>
+      <c r="L39" s="29"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A40" s="24"/>
+      <c r="B40" s="28"/>
+      <c r="C40" s="24"/>
+      <c r="D40" s="24"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="24"/>
+      <c r="L40" s="29"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A41" s="24"/>
+      <c r="B41" s="28"/>
+      <c r="C41" s="24"/>
+      <c r="D41" s="24"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="24"/>
+      <c r="L41" s="29"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A42" s="24"/>
+      <c r="B42" s="28"/>
+      <c r="C42" s="24"/>
+      <c r="D42" s="24"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="24"/>
+      <c r="L42" s="29"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A43" s="24"/>
+      <c r="B43" s="28"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="29"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A44" s="24"/>
+      <c r="B44" s="28"/>
+      <c r="C44" s="24"/>
+      <c r="D44" s="24"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="24"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="24"/>
+      <c r="L44" s="29"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A45" s="24"/>
+      <c r="B45" s="28"/>
+      <c r="C45" s="24"/>
+      <c r="D45" s="24"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24" t="s">
+        <v>33</v>
+      </c>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="24"/>
+      <c r="L45" s="29"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A46" s="24"/>
+      <c r="B46" s="28"/>
+      <c r="C46" s="24"/>
+      <c r="D46" s="24"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="24"/>
+      <c r="L46" s="29"/>
+    </row>
+    <row r="47" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A47" s="24"/>
+      <c r="B47" s="28"/>
+      <c r="C47" s="24"/>
+      <c r="D47" s="24"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="24"/>
+      <c r="L47" s="29"/>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A48" s="24"/>
+      <c r="B48" s="28"/>
+      <c r="C48" s="24"/>
+      <c r="D48" s="24"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="24"/>
+      <c r="L48" s="29"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="24"/>
+      <c r="B49" s="28"/>
+      <c r="C49" s="24"/>
+      <c r="D49" s="24"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24" t="s">
+        <v>37</v>
+      </c>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="24"/>
+      <c r="L49" s="29"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="24"/>
+      <c r="B50" s="28"/>
+      <c r="C50" s="24"/>
+      <c r="D50" s="24"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="24"/>
+      <c r="L50" s="29"/>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" s="24"/>
+      <c r="B51" s="28"/>
+      <c r="C51" s="24"/>
+      <c r="D51" s="24"/>
+      <c r="E51" s="24"/>
+      <c r="F51" s="24"/>
+      <c r="G51" s="24"/>
+      <c r="H51" s="24" t="s">
+        <v>39</v>
+      </c>
+      <c r="I51" s="24"/>
+      <c r="J51" s="24"/>
+      <c r="K51" s="24"/>
+      <c r="L51" s="29"/>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" s="24"/>
+      <c r="B52" s="28"/>
+      <c r="C52" s="24"/>
+      <c r="D52" s="24"/>
+      <c r="E52" s="24"/>
+      <c r="F52" s="24"/>
+      <c r="G52" s="24" t="s">
+        <v>40</v>
+      </c>
+      <c r="H52" s="24"/>
+      <c r="I52" s="24"/>
+      <c r="J52" s="24"/>
+      <c r="K52" s="24"/>
+      <c r="L52" s="29"/>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" s="24"/>
+      <c r="B53" s="28"/>
+      <c r="C53" s="24"/>
+      <c r="D53" s="24"/>
+      <c r="E53" s="24"/>
+      <c r="F53" s="24"/>
+      <c r="G53" s="24"/>
+      <c r="H53" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" s="24"/>
+      <c r="J53" s="24"/>
+      <c r="K53" s="24"/>
+      <c r="L53" s="29"/>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" s="24"/>
+      <c r="B54" s="28"/>
+      <c r="C54" s="24"/>
+      <c r="D54" s="24"/>
+      <c r="E54" s="24"/>
+      <c r="F54" s="24"/>
+      <c r="G54" s="24"/>
+      <c r="H54" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="I54" s="24"/>
+      <c r="J54" s="24"/>
+      <c r="K54" s="24"/>
+      <c r="L54" s="29"/>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" s="24"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="24"/>
+      <c r="D55" s="24"/>
+      <c r="E55" s="24"/>
+      <c r="F55" s="24"/>
+      <c r="G55" s="24"/>
+      <c r="H55" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="I55" s="24"/>
+      <c r="J55" s="24"/>
+      <c r="K55" s="24"/>
+      <c r="L55" s="29"/>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" s="24"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="24"/>
+      <c r="D56" s="24"/>
+      <c r="E56" s="24"/>
+      <c r="F56" s="24"/>
+      <c r="G56" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="H56" s="24"/>
+      <c r="I56" s="24"/>
+      <c r="J56" s="24"/>
+      <c r="K56" s="24"/>
+      <c r="L56" s="29"/>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" s="24"/>
+      <c r="B57" s="28"/>
+      <c r="C57" s="24"/>
+      <c r="D57" s="24"/>
+      <c r="E57" s="24"/>
+      <c r="F57" s="24"/>
+      <c r="G57" s="24"/>
+      <c r="H57" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="I57" s="24"/>
+      <c r="J57" s="24"/>
+      <c r="K57" s="24"/>
+      <c r="L57" s="29"/>
+      <c r="M57" t="s">
+        <v>142</v>
+      </c>
+      <c r="N57" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" s="24"/>
+      <c r="B58" s="28"/>
+      <c r="C58" s="24"/>
+      <c r="D58" s="24"/>
+      <c r="E58" s="24"/>
+      <c r="F58" s="24"/>
+      <c r="G58" s="24"/>
+      <c r="H58" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="I58" s="24"/>
+      <c r="J58" s="24"/>
+      <c r="K58" s="24"/>
+      <c r="L58" s="29"/>
+      <c r="M58" t="s">
+        <v>142</v>
+      </c>
+      <c r="N58" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" s="24"/>
+      <c r="B59" s="28"/>
+      <c r="C59" s="24"/>
+      <c r="D59" s="24"/>
+      <c r="E59" s="24"/>
+      <c r="F59" s="24"/>
+      <c r="G59" s="24"/>
+      <c r="H59" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="I59" s="24"/>
+      <c r="J59" s="24"/>
+      <c r="K59" s="24"/>
+      <c r="L59" s="29"/>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" s="24"/>
+      <c r="B60" s="28"/>
+      <c r="C60" s="24"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="24"/>
+      <c r="F60" s="24"/>
+      <c r="G60" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="H60" s="24"/>
+      <c r="I60" s="24"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="29"/>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" s="24"/>
+      <c r="B61" s="28"/>
+      <c r="C61" s="24"/>
+      <c r="D61" s="24"/>
+      <c r="E61" s="24"/>
+      <c r="F61" s="24"/>
+      <c r="G61" s="24"/>
+      <c r="H61" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="I61" s="24"/>
+      <c r="J61" s="24"/>
+      <c r="K61" s="24"/>
+      <c r="L61" s="29"/>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" s="24"/>
+      <c r="B62" s="28"/>
+      <c r="C62" s="24"/>
+      <c r="D62" s="24"/>
+      <c r="E62" s="24"/>
+      <c r="F62" s="24"/>
+      <c r="G62" s="24"/>
+      <c r="H62" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="I62" s="24"/>
+      <c r="J62" s="24"/>
+      <c r="K62" s="24"/>
+      <c r="L62" s="29"/>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" s="24"/>
+      <c r="B63" s="28"/>
+      <c r="C63" s="24"/>
+      <c r="D63" s="24"/>
+      <c r="E63" s="24"/>
+      <c r="F63" s="24"/>
+      <c r="G63" s="24"/>
+      <c r="H63" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="I63" s="24"/>
+      <c r="J63" s="24"/>
+      <c r="K63" s="24"/>
+      <c r="L63" s="29"/>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" s="24"/>
+      <c r="B64" s="28"/>
+      <c r="C64" s="24"/>
+      <c r="D64" s="24"/>
+      <c r="E64" s="24"/>
+      <c r="F64" s="24"/>
+      <c r="G64" s="7" t="s">
+        <v>261</v>
+      </c>
+      <c r="H64" s="24"/>
+      <c r="I64" s="24"/>
+      <c r="J64" s="24"/>
+      <c r="K64" s="24"/>
+      <c r="L64" s="29"/>
+      <c r="M64" t="s">
+        <v>142</v>
+      </c>
+      <c r="N64" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A65" s="24"/>
+      <c r="B65" s="28"/>
+      <c r="C65" s="24"/>
+      <c r="D65" s="24"/>
+      <c r="E65" s="24"/>
+      <c r="F65" s="24"/>
+      <c r="G65" s="24"/>
+      <c r="H65" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="I65" s="24"/>
+      <c r="J65" s="24"/>
+      <c r="K65" s="24"/>
+      <c r="L65" s="29"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A66" s="24"/>
+      <c r="B66" s="28"/>
+      <c r="C66" s="24"/>
+      <c r="D66" s="24"/>
+      <c r="E66" s="24"/>
+      <c r="F66" s="24"/>
+      <c r="G66" s="24"/>
+      <c r="H66" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="I66" s="24"/>
+      <c r="J66" s="24"/>
+      <c r="K66" s="24"/>
+      <c r="L66" s="29"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A67" s="24"/>
+      <c r="B67" s="28"/>
+      <c r="C67" s="24"/>
+      <c r="D67" s="24"/>
+      <c r="E67" s="24"/>
+      <c r="F67" s="24"/>
+      <c r="G67" s="24" t="s">
+        <v>44</v>
+      </c>
+      <c r="H67" s="24"/>
+      <c r="I67" s="24"/>
+      <c r="J67" s="24"/>
+      <c r="K67" s="24"/>
+      <c r="L67" s="29"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A68" s="24"/>
+      <c r="B68" s="28"/>
+      <c r="C68" s="24"/>
+      <c r="D68" s="24"/>
+      <c r="E68" s="24"/>
+      <c r="F68" s="24"/>
+      <c r="G68" s="24"/>
+      <c r="H68" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="I68" s="24"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="29"/>
+    </row>
+    <row r="69" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A69" s="24"/>
+      <c r="B69" s="28"/>
+      <c r="C69" s="24"/>
+      <c r="D69" s="24"/>
+      <c r="E69" s="24"/>
+      <c r="F69" s="24"/>
+      <c r="G69" s="24"/>
+      <c r="H69" s="24" t="s">
+        <v>46</v>
+      </c>
+      <c r="I69" s="24"/>
+      <c r="J69" s="24"/>
+      <c r="K69" s="24"/>
+      <c r="L69" s="29"/>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A70" s="24"/>
+      <c r="B70" s="28"/>
+      <c r="C70" s="24"/>
+      <c r="D70" s="24"/>
+      <c r="E70" s="24"/>
+      <c r="F70" s="24"/>
+      <c r="G70" s="24"/>
+      <c r="H70" s="24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" s="24"/>
+      <c r="J70" s="24"/>
+      <c r="K70" s="24"/>
+      <c r="L70" s="29"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A71" s="24"/>
+      <c r="B71" s="28"/>
+      <c r="C71" s="24"/>
+      <c r="D71" s="24"/>
+      <c r="E71" s="24"/>
+      <c r="F71" s="24"/>
+      <c r="G71" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="H71" s="24"/>
+      <c r="I71" s="24"/>
+      <c r="J71" s="24"/>
+      <c r="K71" s="24"/>
+      <c r="L71" s="29"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A72" s="24"/>
+      <c r="B72" s="28"/>
+      <c r="C72" s="24"/>
+      <c r="D72" s="24"/>
+      <c r="E72" s="24"/>
+      <c r="F72" s="24"/>
+      <c r="G72" s="24"/>
+      <c r="H72" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="I72" s="24"/>
+      <c r="J72" s="24"/>
+      <c r="K72" s="24"/>
+      <c r="L72" s="29"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A73" s="24"/>
+      <c r="B73" s="28"/>
+      <c r="C73" s="24"/>
+      <c r="D73" s="24"/>
+      <c r="E73" s="24"/>
+      <c r="F73" s="24"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="I73" s="24"/>
+      <c r="J73" s="24"/>
+      <c r="K73" s="24"/>
+      <c r="L73" s="29"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A74" s="24"/>
+      <c r="B74" s="28"/>
+      <c r="C74" s="24"/>
+      <c r="D74" s="24"/>
+      <c r="E74" s="24"/>
+      <c r="F74" s="24"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="I74" s="24"/>
+      <c r="J74" s="24"/>
+      <c r="K74" s="24"/>
+      <c r="L74" s="29"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A75" s="24"/>
+      <c r="B75" s="28"/>
+      <c r="C75" s="24"/>
+      <c r="D75" s="24"/>
+      <c r="E75" s="24"/>
+      <c r="F75" s="24"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="24" t="s">
+        <v>52</v>
+      </c>
+      <c r="I75" s="24"/>
+      <c r="J75" s="24"/>
+      <c r="K75" s="24"/>
+      <c r="L75" s="29"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A76" s="24"/>
+      <c r="B76" s="28"/>
+      <c r="C76" s="24"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="24"/>
+      <c r="F76" s="24"/>
+      <c r="G76" s="24" t="s">
+        <v>53</v>
+      </c>
+      <c r="H76" s="24"/>
+      <c r="I76" s="24"/>
+      <c r="J76" s="24"/>
+      <c r="K76" s="24"/>
+      <c r="L76" s="29"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A77" s="24"/>
+      <c r="B77" s="28"/>
+      <c r="C77" s="24"/>
+      <c r="D77" s="24"/>
+      <c r="E77" s="24"/>
+      <c r="F77" s="24"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="24" t="s">
+        <v>54</v>
+      </c>
+      <c r="I77" s="24"/>
+      <c r="J77" s="24"/>
+      <c r="K77" s="24"/>
+      <c r="L77" s="29"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A78" s="24"/>
+      <c r="B78" s="28"/>
+      <c r="C78" s="24"/>
+      <c r="D78" s="24"/>
+      <c r="E78" s="24"/>
+      <c r="F78" s="24"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="24" t="s">
+        <v>55</v>
+      </c>
+      <c r="I78" s="24"/>
+      <c r="J78" s="24"/>
+      <c r="K78" s="24"/>
+      <c r="L78" s="29"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A79" s="24"/>
+      <c r="B79" s="28"/>
+      <c r="C79" s="24"/>
+      <c r="D79" s="24"/>
+      <c r="E79" s="24"/>
+      <c r="F79" s="24"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="24" t="s">
+        <v>56</v>
+      </c>
+      <c r="I79" s="24"/>
+      <c r="J79" s="24"/>
+      <c r="K79" s="24"/>
+      <c r="L79" s="29"/>
+    </row>
+    <row r="80" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A80" s="24"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="24"/>
+      <c r="D80" s="24"/>
+      <c r="E80" s="24"/>
+      <c r="F80" s="24"/>
+      <c r="G80" s="24" t="s">
+        <v>57</v>
+      </c>
+      <c r="H80" s="24"/>
+      <c r="I80" s="24"/>
+      <c r="J80" s="24"/>
+      <c r="K80" s="24"/>
+      <c r="L80" s="29"/>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A81" s="24"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="24"/>
+      <c r="D81" s="24"/>
+      <c r="E81" s="24"/>
+      <c r="F81" s="24"/>
+      <c r="G81" s="24"/>
+      <c r="H81" s="24" t="s">
+        <v>58</v>
+      </c>
+      <c r="I81" s="24"/>
+      <c r="J81" s="24"/>
+      <c r="K81" s="24"/>
+      <c r="L81" s="29"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A82" s="24"/>
+      <c r="B82" s="28"/>
+      <c r="C82" s="24"/>
+      <c r="D82" s="24"/>
+      <c r="E82" s="24"/>
+      <c r="F82" s="24"/>
+      <c r="G82" s="24"/>
+      <c r="H82" s="24" t="s">
+        <v>59</v>
+      </c>
+      <c r="I82" s="24"/>
+      <c r="J82" s="24"/>
+      <c r="K82" s="24"/>
+      <c r="L82" s="29"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A83" s="24"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="24"/>
+      <c r="D83" s="24"/>
+      <c r="E83" s="24"/>
+      <c r="F83" s="24"/>
+      <c r="G83" s="24"/>
+      <c r="H83" s="24" t="s">
+        <v>60</v>
+      </c>
+      <c r="I83" s="24"/>
+      <c r="J83" s="24"/>
+      <c r="K83" s="24"/>
+      <c r="L83" s="29"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A84" s="24"/>
+      <c r="B84" s="28"/>
+      <c r="C84" s="24"/>
+      <c r="D84" s="24"/>
+      <c r="E84" s="24"/>
+      <c r="F84" s="24"/>
+      <c r="G84" s="24" t="s">
+        <v>61</v>
+      </c>
+      <c r="H84" s="24"/>
+      <c r="I84" s="24"/>
+      <c r="J84" s="24"/>
+      <c r="K84" s="24"/>
+      <c r="L84" s="29"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A85" s="24"/>
+      <c r="B85" s="28"/>
+      <c r="C85" s="24"/>
+      <c r="D85" s="24"/>
+      <c r="E85" s="24"/>
+      <c r="F85" s="24"/>
+      <c r="G85" s="24"/>
+      <c r="H85" s="24" t="s">
+        <v>62</v>
+      </c>
+      <c r="I85" s="24"/>
+      <c r="J85" s="24"/>
+      <c r="K85" s="24"/>
+      <c r="L85" s="29"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A86" s="24"/>
+      <c r="B86" s="28"/>
+      <c r="C86" s="24"/>
+      <c r="D86" s="24"/>
+      <c r="E86" s="24"/>
+      <c r="F86" s="24"/>
+      <c r="G86" s="24"/>
+      <c r="H86" s="24"/>
+      <c r="I86" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="J86" s="24"/>
+      <c r="K86" s="24"/>
+      <c r="L86" s="29"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A87" s="24"/>
+      <c r="B87" s="28"/>
+      <c r="C87" s="24"/>
+      <c r="D87" s="24"/>
+      <c r="E87" s="24"/>
+      <c r="F87" s="24"/>
+      <c r="G87" s="24"/>
+      <c r="H87" s="24" t="s">
+        <v>64</v>
+      </c>
+      <c r="I87" s="24"/>
+      <c r="J87" s="24"/>
+      <c r="K87" s="24"/>
+      <c r="L87" s="29"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A88" s="24"/>
+      <c r="B88" s="28"/>
+      <c r="C88" s="24"/>
+      <c r="D88" s="24"/>
+      <c r="E88" s="24"/>
+      <c r="F88" s="24"/>
+      <c r="G88" s="24"/>
+      <c r="H88" s="24" t="s">
+        <v>65</v>
+      </c>
+      <c r="I88" s="24"/>
+      <c r="J88" s="24"/>
+      <c r="K88" s="24"/>
+      <c r="L88" s="29"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A89" s="24"/>
+      <c r="B89" s="28"/>
+      <c r="C89" s="24"/>
+      <c r="D89" s="24"/>
+      <c r="E89" s="24"/>
+      <c r="F89" s="24"/>
+      <c r="G89" s="24" t="s">
+        <v>66</v>
+      </c>
+      <c r="H89" s="24"/>
+      <c r="I89" s="24"/>
+      <c r="J89" s="24"/>
+      <c r="K89" s="24"/>
+      <c r="L89" s="29"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A90" s="24"/>
+      <c r="B90" s="28"/>
+      <c r="C90" s="24"/>
+      <c r="D90" s="24"/>
+      <c r="E90" s="24"/>
+      <c r="F90" s="24"/>
+      <c r="G90" s="24"/>
+      <c r="H90" s="24" t="s">
+        <v>67</v>
+      </c>
+      <c r="I90" s="24"/>
+      <c r="J90" s="24"/>
+      <c r="K90" s="24"/>
+      <c r="L90" s="29"/>
+    </row>
+    <row r="91" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A91" s="24"/>
+      <c r="B91" s="28"/>
+      <c r="C91" s="24"/>
+      <c r="D91" s="24"/>
+      <c r="E91" s="24"/>
+      <c r="F91" s="24"/>
+      <c r="G91" s="24"/>
+      <c r="H91" s="24" t="s">
+        <v>68</v>
+      </c>
+      <c r="I91" s="24"/>
+      <c r="J91" s="24"/>
+      <c r="K91" s="24"/>
+      <c r="L91" s="29"/>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A92" s="24"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="24"/>
+      <c r="D92" s="24"/>
+      <c r="E92" s="24"/>
+      <c r="F92" s="24"/>
+      <c r="G92" s="24"/>
+      <c r="H92" s="24" t="s">
+        <v>69</v>
+      </c>
+      <c r="I92" s="24"/>
+      <c r="J92" s="24"/>
+      <c r="K92" s="24"/>
+      <c r="L92" s="29"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A93" s="24"/>
+      <c r="B93" s="28"/>
+      <c r="C93" s="24"/>
+      <c r="D93" s="24"/>
+      <c r="E93" s="24"/>
+      <c r="F93" s="24"/>
+      <c r="G93" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H93" s="24"/>
+      <c r="I93" s="24"/>
+      <c r="J93" s="24"/>
+      <c r="K93" s="24"/>
+      <c r="L93" s="29"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A94" s="24"/>
+      <c r="B94" s="28"/>
+      <c r="C94" s="24"/>
+      <c r="D94" s="24"/>
+      <c r="E94" s="24"/>
+      <c r="F94" s="24"/>
+      <c r="G94" s="24"/>
+      <c r="H94" s="24" t="s">
+        <v>71</v>
+      </c>
+      <c r="I94" s="24"/>
+      <c r="J94" s="24"/>
+      <c r="K94" s="24"/>
+      <c r="L94" s="29"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A95" s="24"/>
+      <c r="B95" s="28"/>
+      <c r="C95" s="24"/>
+      <c r="D95" s="24"/>
+      <c r="E95" s="24"/>
+      <c r="F95" s="24"/>
+      <c r="G95" s="24"/>
+      <c r="H95" s="24" t="s">
+        <v>72</v>
+      </c>
+      <c r="I95" s="24"/>
+      <c r="J95" s="24"/>
+      <c r="K95" s="24"/>
+      <c r="L95" s="29"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A96" s="24"/>
+      <c r="B96" s="28"/>
+      <c r="C96" s="24"/>
+      <c r="D96" s="24"/>
+      <c r="E96" s="24"/>
+      <c r="F96" s="24"/>
+      <c r="G96" s="24"/>
+      <c r="H96" s="24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I96" s="24"/>
+      <c r="J96" s="24"/>
+      <c r="K96" s="24"/>
+      <c r="L96" s="29"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A97" s="24"/>
+      <c r="B97" s="28"/>
+      <c r="C97" s="24"/>
+      <c r="D97" s="24"/>
+      <c r="E97" s="24"/>
+      <c r="F97" s="24"/>
+      <c r="G97" s="24"/>
+      <c r="H97" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="I97" s="24"/>
+      <c r="J97" s="24"/>
+      <c r="K97" s="24"/>
+      <c r="L97" s="29"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A98" s="24"/>
+      <c r="B98" s="28"/>
+      <c r="C98" s="24"/>
+      <c r="D98" s="24"/>
+      <c r="E98" s="24"/>
+      <c r="F98" s="24"/>
+      <c r="G98" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H98" s="24"/>
+      <c r="I98" s="24"/>
+      <c r="J98" s="24"/>
+      <c r="K98" s="24"/>
+      <c r="L98" s="29"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A99" s="24"/>
+      <c r="B99" s="28"/>
+      <c r="C99" s="24"/>
+      <c r="D99" s="24"/>
+      <c r="E99" s="24"/>
+      <c r="F99" s="24"/>
+      <c r="G99" s="24"/>
+      <c r="H99" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="I99" s="24"/>
+      <c r="J99" s="24"/>
+      <c r="K99" s="24"/>
+      <c r="L99" s="29"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A100" s="24"/>
+      <c r="B100" s="28"/>
+      <c r="C100" s="24"/>
+      <c r="D100" s="24"/>
+      <c r="E100" s="24"/>
+      <c r="F100" s="24"/>
+      <c r="G100" s="24"/>
+      <c r="H100" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="I100" s="24"/>
+      <c r="J100" s="24"/>
+      <c r="K100" s="24"/>
+      <c r="L100" s="29"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A101" s="24"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="24"/>
+      <c r="D101" s="24"/>
+      <c r="E101" s="24"/>
+      <c r="F101" s="24"/>
+      <c r="G101" s="24"/>
+      <c r="H101" s="24" t="s">
+        <v>78</v>
+      </c>
+      <c r="I101" s="24"/>
+      <c r="J101" s="24"/>
+      <c r="K101" s="24"/>
+      <c r="L101" s="29"/>
+    </row>
+    <row r="102" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A102" s="24"/>
+      <c r="B102" s="28"/>
+      <c r="C102" s="24"/>
+      <c r="D102" s="24"/>
+      <c r="E102" s="24"/>
+      <c r="F102" s="24"/>
+      <c r="G102" s="24"/>
+      <c r="H102" s="24" t="s">
+        <v>79</v>
+      </c>
+      <c r="I102" s="24"/>
+      <c r="J102" s="24"/>
+      <c r="K102" s="24"/>
+      <c r="L102" s="29"/>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A103" s="24"/>
+      <c r="B103" s="28"/>
+      <c r="C103" s="24"/>
+      <c r="D103" s="24"/>
+      <c r="E103" s="24"/>
+      <c r="F103" s="24"/>
+      <c r="G103" s="24" t="s">
+        <v>80</v>
+      </c>
+      <c r="H103" s="24"/>
+      <c r="I103" s="24"/>
+      <c r="J103" s="24"/>
+      <c r="K103" s="24"/>
+      <c r="L103" s="29"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A104" s="24"/>
+      <c r="B104" s="28"/>
+      <c r="C104" s="24"/>
+      <c r="D104" s="24"/>
+      <c r="E104" s="24"/>
+      <c r="F104" s="24"/>
+      <c r="G104" s="24"/>
+      <c r="H104" s="24" t="s">
+        <v>81</v>
+      </c>
+      <c r="I104" s="24"/>
+      <c r="J104" s="24"/>
+      <c r="K104" s="24"/>
+      <c r="L104" s="29"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A105" s="24"/>
+      <c r="B105" s="28"/>
+      <c r="C105" s="24"/>
+      <c r="D105" s="24"/>
+      <c r="E105" s="24"/>
+      <c r="F105" s="24"/>
+      <c r="G105" s="24"/>
+      <c r="H105" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="I105" s="24"/>
+      <c r="J105" s="24"/>
+      <c r="K105" s="24"/>
+      <c r="L105" s="29"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A106" s="24"/>
+      <c r="B106" s="28"/>
+      <c r="C106" s="24"/>
+      <c r="D106" s="24"/>
+      <c r="E106" s="24"/>
+      <c r="F106" s="24"/>
+      <c r="G106" s="24" t="s">
+        <v>83</v>
+      </c>
+      <c r="H106" s="24"/>
+      <c r="I106" s="24"/>
+      <c r="J106" s="24"/>
+      <c r="K106" s="24"/>
+      <c r="L106" s="29"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A107" s="24"/>
+      <c r="B107" s="28"/>
+      <c r="C107" s="24"/>
+      <c r="D107" s="24"/>
+      <c r="E107" s="24"/>
+      <c r="F107" s="24"/>
+      <c r="G107" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H107" s="24"/>
+      <c r="I107" s="24"/>
+      <c r="J107" s="24"/>
+      <c r="K107" s="24"/>
+      <c r="L107" s="29"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A108" s="24"/>
+      <c r="B108" s="28"/>
+      <c r="C108" s="24"/>
+      <c r="D108" s="24"/>
+      <c r="E108" s="24"/>
+      <c r="F108" s="24"/>
+      <c r="G108" s="24"/>
+      <c r="H108" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="I108" s="24"/>
+      <c r="J108" s="24"/>
+      <c r="K108" s="24"/>
+      <c r="L108" s="29"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A109" s="24"/>
+      <c r="B109" s="28"/>
+      <c r="C109" s="24"/>
+      <c r="D109" s="24"/>
+      <c r="E109" s="24"/>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="I109" s="24"/>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="L109" s="29"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A110" s="24"/>
+      <c r="B110" s="28"/>
+      <c r="C110" s="24"/>
+      <c r="D110" s="24"/>
+      <c r="E110" s="24"/>
+      <c r="F110" s="24"/>
+      <c r="G110" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="H110" s="24"/>
+      <c r="I110" s="24"/>
+      <c r="J110" s="24"/>
+      <c r="K110" s="24"/>
+      <c r="L110" s="29"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A111" s="24"/>
+      <c r="B111" s="28"/>
+      <c r="C111" s="24"/>
+      <c r="D111" s="24"/>
+      <c r="E111" s="24"/>
+      <c r="F111" s="24"/>
+      <c r="G111" s="24"/>
+      <c r="H111" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="I111" s="24"/>
+      <c r="J111" s="24"/>
+      <c r="K111" s="24"/>
+      <c r="L111" s="29"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A112" s="24"/>
+      <c r="B112" s="28"/>
+      <c r="C112" s="24"/>
+      <c r="D112" s="24"/>
+      <c r="E112" s="24"/>
+      <c r="F112" s="24"/>
+      <c r="G112" s="24"/>
+      <c r="H112" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="I112" s="24"/>
+      <c r="J112" s="24"/>
+      <c r="K112" s="24"/>
+      <c r="L112" s="29"/>
+    </row>
+    <row r="113" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A113" s="24"/>
+      <c r="B113" s="28"/>
+      <c r="C113" s="24"/>
+      <c r="D113" s="24"/>
+      <c r="E113" s="24"/>
+      <c r="F113" s="24"/>
+      <c r="G113" s="24"/>
+      <c r="H113" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="I113" s="24"/>
+      <c r="J113" s="24"/>
+      <c r="K113" s="24"/>
+      <c r="L113" s="29"/>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A114" s="24"/>
+      <c r="B114" s="28"/>
+      <c r="C114" s="24"/>
+      <c r="D114" s="24"/>
+      <c r="E114" s="24"/>
+      <c r="F114" s="24"/>
+      <c r="G114" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" s="24"/>
+      <c r="I114" s="24"/>
+      <c r="J114" s="24"/>
+      <c r="K114" s="24"/>
+      <c r="L114" s="29"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A115" s="24"/>
+      <c r="B115" s="28"/>
+      <c r="C115" s="24"/>
+      <c r="D115" s="24"/>
+      <c r="E115" s="24"/>
+      <c r="F115" s="24"/>
+      <c r="G115" s="24"/>
+      <c r="H115" s="24" t="s">
+        <v>92</v>
+      </c>
+      <c r="I115" s="24"/>
+      <c r="J115" s="24"/>
+      <c r="K115" s="24"/>
+      <c r="L115" s="29"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A116" s="24"/>
+      <c r="B116" s="28"/>
+      <c r="C116" s="24"/>
+      <c r="D116" s="24"/>
+      <c r="E116" s="24"/>
+      <c r="F116" s="24"/>
+      <c r="G116" s="24"/>
+      <c r="H116" s="24" t="s">
+        <v>93</v>
+      </c>
+      <c r="I116" s="24"/>
+      <c r="J116" s="24"/>
+      <c r="K116" s="24"/>
+      <c r="L116" s="29"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A117" s="24"/>
+      <c r="B117" s="28"/>
+      <c r="C117" s="24"/>
+      <c r="D117" s="24"/>
+      <c r="E117" s="24"/>
+      <c r="F117" s="24"/>
+      <c r="G117" s="24"/>
+      <c r="H117" s="24" t="s">
+        <v>94</v>
+      </c>
+      <c r="I117" s="24"/>
+      <c r="J117" s="24"/>
+      <c r="K117" s="24"/>
+      <c r="L117" s="29"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A118" s="24"/>
+      <c r="B118" s="28"/>
+      <c r="C118" s="24"/>
+      <c r="D118" s="24"/>
+      <c r="E118" s="24"/>
+      <c r="F118" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="G118" s="24"/>
+      <c r="H118" s="24"/>
+      <c r="I118" s="24"/>
+      <c r="J118" s="24"/>
+      <c r="K118" s="24"/>
+      <c r="L118" s="29"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A119" s="24"/>
+      <c r="B119" s="28"/>
+      <c r="C119" s="24"/>
+      <c r="D119" s="24"/>
+      <c r="E119" s="24"/>
+      <c r="F119" s="24"/>
+      <c r="G119" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H119" s="24"/>
+      <c r="I119" s="24"/>
+      <c r="J119" s="24"/>
+      <c r="K119" s="24"/>
+      <c r="L119" s="29"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A120" s="24"/>
+      <c r="B120" s="28"/>
+      <c r="C120" s="24"/>
+      <c r="D120" s="24"/>
+      <c r="E120" s="24"/>
+      <c r="F120" s="24"/>
+      <c r="G120" s="24" t="s">
+        <v>104</v>
+      </c>
+      <c r="H120" s="24"/>
+      <c r="I120" s="24"/>
+      <c r="J120" s="24"/>
+      <c r="K120" s="24"/>
+      <c r="L120" s="29"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A121" s="24"/>
+      <c r="B121" s="28"/>
+      <c r="C121" s="24"/>
+      <c r="D121" s="24"/>
+      <c r="E121" s="24"/>
+      <c r="F121" s="24"/>
+      <c r="G121" s="24" t="s">
+        <v>105</v>
+      </c>
+      <c r="H121" s="24"/>
+      <c r="I121" s="24"/>
+      <c r="J121" s="24"/>
+      <c r="K121" s="24"/>
+      <c r="L121" s="29"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A122" s="24"/>
+      <c r="B122" s="28"/>
+      <c r="C122" s="24"/>
+      <c r="D122" s="24"/>
+      <c r="E122" s="24"/>
+      <c r="F122" s="24" t="s">
+        <v>111</v>
+      </c>
+      <c r="G122" s="24"/>
+      <c r="H122" s="24"/>
+      <c r="I122" s="24"/>
+      <c r="J122" s="24"/>
+      <c r="K122" s="24"/>
+      <c r="L122" s="29"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A123" s="24"/>
+      <c r="B123" s="28"/>
+      <c r="C123" s="24"/>
+      <c r="D123" s="24"/>
+      <c r="E123" s="24"/>
+      <c r="F123" s="24"/>
+      <c r="G123" s="24" t="s">
+        <v>112</v>
+      </c>
+      <c r="H123" s="24"/>
+      <c r="I123" s="24"/>
+      <c r="J123" s="24"/>
+      <c r="K123" s="24"/>
+      <c r="L123" s="29"/>
+    </row>
+    <row r="124" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A124" s="24"/>
+      <c r="B124" s="28"/>
+      <c r="C124" s="24"/>
+      <c r="D124" s="24"/>
+      <c r="E124" s="24"/>
+      <c r="F124" s="24"/>
+      <c r="G124" s="24"/>
+      <c r="H124" s="24" t="s">
+        <v>113</v>
+      </c>
+      <c r="I124" s="24"/>
+      <c r="J124" s="24"/>
+      <c r="K124" s="24"/>
+      <c r="L124" s="29"/>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A125" s="24"/>
+      <c r="B125" s="28"/>
+      <c r="C125" s="24"/>
+      <c r="D125" s="24"/>
+      <c r="E125" s="24"/>
+      <c r="F125" s="24"/>
+      <c r="G125" s="24"/>
+      <c r="H125" s="24" t="s">
+        <v>115</v>
+      </c>
+      <c r="I125" s="24"/>
+      <c r="J125" s="24"/>
+      <c r="K125" s="24"/>
+      <c r="L125" s="29"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A126" s="24"/>
+      <c r="B126" s="28"/>
+      <c r="C126" s="24"/>
+      <c r="D126" s="24"/>
+      <c r="E126" s="24"/>
+      <c r="F126" s="24"/>
+      <c r="G126" s="24"/>
+      <c r="H126" s="24" t="s">
+        <v>114</v>
+      </c>
+      <c r="I126" s="24"/>
+      <c r="J126" s="24"/>
+      <c r="K126" s="24"/>
+      <c r="L126" s="29"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A127" s="24"/>
+      <c r="B127" s="28"/>
+      <c r="C127" s="24"/>
+      <c r="D127" s="24"/>
+      <c r="E127" s="24"/>
+      <c r="F127" s="24"/>
+      <c r="G127" s="24"/>
+      <c r="H127" s="24" t="s">
+        <v>116</v>
+      </c>
+      <c r="I127" s="24"/>
+      <c r="J127" s="24"/>
+      <c r="K127" s="24"/>
+      <c r="L127" s="29"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A128" s="24"/>
+      <c r="B128" s="28"/>
+      <c r="C128" s="24"/>
+      <c r="D128" s="24"/>
+      <c r="E128" s="24"/>
+      <c r="F128" s="24"/>
+      <c r="G128" s="24"/>
+      <c r="H128" s="24" t="s">
+        <v>117</v>
+      </c>
+      <c r="I128" s="24"/>
+      <c r="J128" s="24"/>
+      <c r="K128" s="24"/>
+      <c r="L128" s="29"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A129" s="24"/>
+      <c r="B129" s="28"/>
+      <c r="C129" s="24"/>
+      <c r="D129" s="24"/>
+      <c r="E129" s="24"/>
+      <c r="F129" s="24"/>
+      <c r="G129" s="24"/>
+      <c r="H129" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="I129" s="24"/>
+      <c r="J129" s="24"/>
+      <c r="K129" s="24"/>
+      <c r="L129" s="29"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A130" s="24"/>
+      <c r="B130" s="28"/>
+      <c r="C130" s="24"/>
+      <c r="D130" s="24"/>
+      <c r="E130" s="24"/>
+      <c r="F130" s="24" t="s">
+        <v>106</v>
+      </c>
+      <c r="G130" s="24"/>
+      <c r="H130" s="24"/>
+      <c r="I130" s="24"/>
+      <c r="J130" s="24"/>
+      <c r="K130" s="24"/>
+      <c r="L130" s="29"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A131" s="24"/>
+      <c r="B131" s="28"/>
+      <c r="C131" s="24"/>
+      <c r="D131" s="24"/>
+      <c r="E131" s="24"/>
+      <c r="F131" s="24"/>
+      <c r="G131" s="24" t="s">
+        <v>107</v>
+      </c>
+      <c r="H131" s="24"/>
+      <c r="I131" s="24"/>
+      <c r="J131" s="24"/>
+      <c r="K131" s="24"/>
+      <c r="L131" s="29"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A132" s="24"/>
+      <c r="B132" s="28"/>
+      <c r="C132" s="24"/>
+      <c r="D132" s="24"/>
+      <c r="E132" s="24"/>
+      <c r="F132" s="24"/>
+      <c r="G132" s="24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H132" s="24"/>
+      <c r="I132" s="24"/>
+      <c r="J132" s="24"/>
+      <c r="K132" s="24"/>
+      <c r="L132" s="29"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A133" s="24"/>
+      <c r="B133" s="28"/>
+      <c r="C133" s="24"/>
+      <c r="D133" s="24"/>
+      <c r="E133" s="24"/>
+      <c r="F133" s="24"/>
+      <c r="G133" s="24" t="s">
+        <v>109</v>
+      </c>
+      <c r="H133" s="24"/>
+      <c r="I133" s="24"/>
+      <c r="J133" s="24"/>
+      <c r="K133" s="24"/>
+      <c r="L133" s="29"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A134" s="24"/>
+      <c r="B134" s="28"/>
+      <c r="C134" s="24"/>
+      <c r="D134" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="E134" s="24"/>
+      <c r="F134" s="24"/>
+      <c r="G134" s="24"/>
+      <c r="H134" s="24"/>
+      <c r="I134" s="24"/>
+      <c r="J134" s="24"/>
+      <c r="K134" s="24"/>
+      <c r="L134" s="29"/>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A135" s="24"/>
+      <c r="B135" s="30"/>
+      <c r="C135" s="31"/>
+      <c r="D135" s="31"/>
+      <c r="E135" s="31"/>
+      <c r="F135" s="31"/>
+      <c r="G135" s="31"/>
+      <c r="H135" s="31"/>
+      <c r="I135" s="31"/>
+      <c r="J135" s="31"/>
+      <c r="K135" s="31"/>
+      <c r="L135" s="32"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B139" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+      <c r="E139" s="3"/>
+      <c r="F139" s="3"/>
+      <c r="G139" s="3"/>
+      <c r="H139" s="3"/>
+      <c r="I139" s="4"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B140" s="22" t="s">
+        <v>243</v>
+      </c>
+      <c r="C140" s="33"/>
+      <c r="D140" s="33"/>
+      <c r="E140" s="33"/>
+      <c r="F140" s="33"/>
+      <c r="G140" s="33"/>
+      <c r="H140" s="33"/>
+      <c r="I140" s="6"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B141" s="5" t="s">
+        <v>244</v>
+      </c>
+      <c r="C141" s="33"/>
+      <c r="D141" s="33"/>
+      <c r="E141" s="33"/>
+      <c r="F141" s="33"/>
+      <c r="G141" s="33"/>
+      <c r="H141" s="33"/>
+      <c r="I141" s="6"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B142" s="5" t="s">
+        <v>245</v>
+      </c>
+      <c r="C142" s="33"/>
+      <c r="D142" s="33"/>
+      <c r="E142" s="33"/>
+      <c r="F142" s="33"/>
+      <c r="G142" s="33"/>
+      <c r="H142" s="33"/>
+      <c r="I142" s="6"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B143" s="5" t="s">
+        <v>252</v>
+      </c>
+      <c r="C143" s="33"/>
+      <c r="D143" s="33"/>
+      <c r="E143" s="33"/>
+      <c r="F143" s="33"/>
+      <c r="G143" s="33"/>
+      <c r="H143" s="33"/>
+      <c r="I143" s="6"/>
+      <c r="J143" t="s">
+        <v>142</v>
+      </c>
+      <c r="K143" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="B144" s="5" t="s">
+        <v>246</v>
+      </c>
+      <c r="C144" s="33"/>
+      <c r="D144" s="33"/>
+      <c r="E144" s="33"/>
+      <c r="F144" s="33"/>
+      <c r="G144" s="33"/>
+      <c r="H144" s="33"/>
+      <c r="I144" s="6"/>
+    </row>
+    <row r="145" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B145" s="5" t="s">
+        <v>247</v>
+      </c>
+      <c r="C145" s="33"/>
+      <c r="D145" s="33"/>
+      <c r="E145" s="33"/>
+      <c r="F145" s="33"/>
+      <c r="G145" s="33"/>
+      <c r="H145" s="33"/>
+      <c r="I145" s="6"/>
+    </row>
+    <row r="146" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B146" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C146" s="33"/>
+      <c r="D146" s="33"/>
+      <c r="E146" s="33"/>
+      <c r="F146" s="33"/>
+      <c r="G146" s="33"/>
+      <c r="H146" s="33"/>
+      <c r="I146" s="6"/>
+    </row>
+    <row r="147" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B147" s="22" t="s">
+        <v>249</v>
+      </c>
+      <c r="C147" s="33"/>
+      <c r="D147" s="33"/>
+      <c r="E147" s="33"/>
+      <c r="F147" s="33"/>
+      <c r="G147" s="33"/>
+      <c r="H147" s="33"/>
+      <c r="I147" s="6"/>
+    </row>
+    <row r="148" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B148" s="22" t="s">
+        <v>250</v>
+      </c>
+      <c r="C148" s="33"/>
+      <c r="D148" s="33"/>
+      <c r="E148" s="33"/>
+      <c r="F148" s="33"/>
+      <c r="G148" s="33"/>
+      <c r="H148" s="33"/>
+      <c r="I148" s="6"/>
+    </row>
+    <row r="149" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B149" s="22" t="s">
+        <v>251</v>
+      </c>
+      <c r="C149" s="33"/>
+      <c r="D149" s="33"/>
+      <c r="E149" s="33"/>
+      <c r="F149" s="33"/>
+      <c r="G149" s="33"/>
+      <c r="H149" s="33"/>
+      <c r="I149" s="6"/>
+    </row>
+    <row r="150" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B150" s="22" t="s">
+        <v>247</v>
+      </c>
+      <c r="C150" s="33"/>
+      <c r="D150" s="33"/>
+      <c r="E150" s="33"/>
+      <c r="F150" s="33"/>
+      <c r="G150" s="33"/>
+      <c r="H150" s="33"/>
+      <c r="I150" s="6"/>
+    </row>
+    <row r="151" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B151" s="22" t="s">
+        <v>248</v>
+      </c>
+      <c r="C151" s="33"/>
+      <c r="D151" s="33"/>
+      <c r="E151" s="33"/>
+      <c r="F151" s="33"/>
+      <c r="G151" s="33"/>
+      <c r="H151" s="33"/>
+      <c r="I151" s="6"/>
+    </row>
+    <row r="152" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B152" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C152" s="9"/>
+      <c r="D152" s="9"/>
+      <c r="E152" s="9"/>
+      <c r="F152" s="9"/>
+      <c r="G152" s="9"/>
+      <c r="H152" s="9"/>
+      <c r="I152" s="10"/>
+    </row>
+    <row r="155" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="156" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B156" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+      <c r="E156" s="3"/>
+      <c r="F156" s="3"/>
+      <c r="G156" s="3"/>
+      <c r="H156" s="4"/>
+    </row>
+    <row r="157" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B157" s="5"/>
+      <c r="C157" s="33"/>
+      <c r="D157" s="33"/>
+      <c r="E157" s="33"/>
+      <c r="F157" s="33"/>
+      <c r="G157" s="33"/>
+      <c r="H157" s="6"/>
+    </row>
+    <row r="158" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B158" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="C158" s="33"/>
+      <c r="D158" s="33"/>
+      <c r="E158" s="33"/>
+      <c r="F158" s="33"/>
+      <c r="G158" s="33"/>
+      <c r="H158" s="6"/>
+    </row>
+    <row r="159" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B159" s="22" t="s">
+        <v>255</v>
+      </c>
+      <c r="C159" s="33"/>
+      <c r="D159" s="33"/>
+      <c r="E159" s="33"/>
+      <c r="F159" s="33"/>
+      <c r="G159" s="33"/>
+      <c r="H159" s="6"/>
+    </row>
+    <row r="160" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B160" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="C160" s="33"/>
+      <c r="D160" s="33"/>
+      <c r="E160" s="33"/>
+      <c r="F160" s="33"/>
+      <c r="G160" s="33"/>
+      <c r="H160" s="6"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B161" s="22" t="s">
+        <v>257</v>
+      </c>
+      <c r="C161" s="33"/>
+      <c r="D161" s="33"/>
+      <c r="E161" s="33"/>
+      <c r="F161" s="33"/>
+      <c r="G161" s="33"/>
+      <c r="H161" s="6"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B162" s="22" t="s">
+        <v>185</v>
+      </c>
+      <c r="C162" s="33"/>
+      <c r="D162" s="33"/>
+      <c r="E162" s="33"/>
+      <c r="F162" s="33"/>
+      <c r="G162" s="33"/>
+      <c r="H162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B163" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C163" s="9"/>
+      <c r="D163" s="9"/>
+      <c r="E163" s="9"/>
+      <c r="F163" s="9"/>
+      <c r="G163" s="9"/>
+      <c r="H163" s="10"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B164" s="33"/>
+      <c r="C164" s="33"/>
+      <c r="D164" s="33"/>
+      <c r="E164" s="33"/>
+      <c r="F164" s="33"/>
+      <c r="G164" s="33"/>
+      <c r="H164" s="33"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B165" s="33"/>
+      <c r="C165" s="33"/>
+      <c r="D165" s="33"/>
+      <c r="E165" s="33"/>
+      <c r="F165" s="33"/>
+      <c r="G165" s="33"/>
+      <c r="H165" s="33"/>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" t="s">
+        <v>296</v>
+      </c>
+      <c r="B166" s="33"/>
+      <c r="C166" s="33"/>
+      <c r="D166" s="33"/>
+      <c r="E166" s="33"/>
+      <c r="F166" s="33"/>
+      <c r="G166" s="33"/>
+      <c r="H166" s="33"/>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B167" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+      <c r="E167" s="3"/>
+      <c r="F167" s="3"/>
+      <c r="G167" s="3"/>
+      <c r="H167" s="4"/>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B168" s="5" t="s">
+        <v>224</v>
+      </c>
+      <c r="C168" s="33"/>
+      <c r="D168" s="33"/>
+      <c r="E168" s="33"/>
+      <c r="F168" s="33"/>
+      <c r="G168" s="33"/>
+      <c r="H168" s="6"/>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B169" s="5" t="s">
+        <v>298</v>
+      </c>
+      <c r="C169" s="33"/>
+      <c r="D169" s="33"/>
+      <c r="E169" s="33"/>
+      <c r="F169" s="33"/>
+      <c r="G169" s="33"/>
+      <c r="H169" s="6"/>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B170" s="5" t="s">
+        <v>299</v>
+      </c>
+      <c r="C170" s="33"/>
+      <c r="D170" s="33"/>
+      <c r="E170" s="33"/>
+      <c r="F170" s="33"/>
+      <c r="G170" s="33"/>
+      <c r="H170" s="6"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B171" s="5" t="s">
+        <v>300</v>
+      </c>
+      <c r="C171" s="33"/>
+      <c r="D171" s="33"/>
+      <c r="E171" s="33"/>
+      <c r="F171" s="33"/>
+      <c r="G171" s="33"/>
+      <c r="H171" s="6"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B172" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C172" s="33"/>
+      <c r="D172" s="33"/>
+      <c r="E172" s="33"/>
+      <c r="F172" s="33"/>
+      <c r="G172" s="33"/>
+      <c r="H172" s="6"/>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B173" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C173" s="33"/>
+      <c r="D173" s="33"/>
+      <c r="E173" s="33"/>
+      <c r="F173" s="33"/>
+      <c r="G173" s="33"/>
+      <c r="H173" s="6"/>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B174" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C174" s="33"/>
+      <c r="D174" s="33"/>
+      <c r="E174" s="33"/>
+      <c r="F174" s="33"/>
+      <c r="G174" s="33"/>
+      <c r="H174" s="6"/>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B175" s="5" t="s">
+        <v>304</v>
+      </c>
+      <c r="C175" s="33"/>
+      <c r="D175" s="33"/>
+      <c r="E175" s="33"/>
+      <c r="F175" s="33"/>
+      <c r="G175" s="33"/>
+      <c r="H175" s="6"/>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B176" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="C176" s="33"/>
+      <c r="D176" s="33"/>
+      <c r="E176" s="33"/>
+      <c r="F176" s="33"/>
+      <c r="G176" s="33"/>
+      <c r="H176" s="6"/>
+    </row>
+    <row r="177" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B177" s="5" t="s">
+        <v>301</v>
+      </c>
+      <c r="C177" s="33"/>
+      <c r="D177" s="33"/>
+      <c r="E177" s="33"/>
+      <c r="F177" s="33"/>
+      <c r="G177" s="33"/>
+      <c r="H177" s="6"/>
+    </row>
+    <row r="178" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B178" s="5" t="s">
+        <v>302</v>
+      </c>
+      <c r="C178" s="33"/>
+      <c r="D178" s="33"/>
+      <c r="E178" s="33"/>
+      <c r="F178" s="33"/>
+      <c r="G178" s="33"/>
+      <c r="H178" s="6"/>
+    </row>
+    <row r="179" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B179" s="5" t="s">
+        <v>303</v>
+      </c>
+      <c r="C179" s="33"/>
+      <c r="D179" s="33"/>
+      <c r="E179" s="33"/>
+      <c r="F179" s="33"/>
+      <c r="G179" s="33"/>
+      <c r="H179" s="6"/>
+    </row>
+    <row r="180" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B180" s="5" t="s">
+        <v>306</v>
+      </c>
+      <c r="C180" s="33"/>
+      <c r="D180" s="33"/>
+      <c r="E180" s="33"/>
+      <c r="F180" s="33"/>
+      <c r="G180" s="33"/>
+      <c r="H180" s="6"/>
+    </row>
+    <row r="181" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B181" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="C181" s="33"/>
+      <c r="D181" s="33"/>
+      <c r="E181" s="33"/>
+      <c r="F181" s="33"/>
+      <c r="G181" s="33"/>
+      <c r="H181" s="6"/>
+    </row>
+    <row r="182" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B182" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C182" s="33"/>
+      <c r="D182" s="33"/>
+      <c r="E182" s="33"/>
+      <c r="F182" s="33"/>
+      <c r="G182" s="33"/>
+      <c r="H182" s="6"/>
+    </row>
+    <row r="183" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B183" s="5"/>
+      <c r="C183" s="33"/>
+      <c r="D183" s="33"/>
+      <c r="E183" s="33"/>
+      <c r="F183" s="33"/>
+      <c r="G183" s="33"/>
+      <c r="H183" s="6"/>
+    </row>
+    <row r="184" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B184" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C184" s="33"/>
+      <c r="D184" s="33"/>
+      <c r="E184" s="33"/>
+      <c r="F184" s="33"/>
+      <c r="G184" s="33"/>
+      <c r="H184" s="6"/>
+    </row>
+    <row r="185" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B185" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C185" s="9"/>
+      <c r="D185" s="9"/>
+      <c r="E185" s="9"/>
+      <c r="F185" s="9"/>
+      <c r="G185" s="9"/>
+      <c r="H185" s="10"/>
+    </row>
+    <row r="186" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B186" s="33"/>
+      <c r="C186" s="33"/>
+      <c r="D186" s="33"/>
+      <c r="E186" s="33"/>
+      <c r="F186" s="33"/>
+      <c r="G186" s="33"/>
+      <c r="H186" s="33"/>
+    </row>
+    <row r="188" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A188" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B189" s="2" t="s">
+        <v>145</v>
+      </c>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+      <c r="E189" s="3"/>
+      <c r="F189" s="3"/>
+      <c r="G189" s="3"/>
+      <c r="H189" s="3"/>
+      <c r="I189" s="4"/>
+    </row>
+    <row r="190" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B190" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="C190" s="33"/>
+      <c r="D190" s="33"/>
+      <c r="E190" s="33"/>
+      <c r="F190" s="33"/>
+      <c r="G190" s="33"/>
+      <c r="H190" s="33"/>
+      <c r="I190" s="6"/>
+    </row>
+    <row r="191" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B191" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="C191" s="33"/>
+      <c r="D191" s="33"/>
+      <c r="E191" s="33"/>
+      <c r="F191" s="33"/>
+      <c r="G191" s="33"/>
+      <c r="H191" s="33"/>
+      <c r="I191" s="6"/>
+    </row>
+    <row r="192" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B192" s="5" t="s">
+        <v>267</v>
+      </c>
+      <c r="C192" s="33"/>
+      <c r="D192" s="33"/>
+      <c r="E192" s="33"/>
+      <c r="F192" s="33"/>
+      <c r="G192" s="33"/>
+      <c r="H192" s="33"/>
+      <c r="I192" s="6"/>
+    </row>
+    <row r="193" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B193" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="C193" s="33"/>
+      <c r="D193" s="33"/>
+      <c r="E193" s="33"/>
+      <c r="F193" s="33"/>
+      <c r="G193" s="33"/>
+      <c r="H193" s="33"/>
+      <c r="I193" s="6"/>
+    </row>
+    <row r="194" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B194" s="5" t="s">
+        <v>269</v>
+      </c>
+      <c r="C194" s="33"/>
+      <c r="D194" s="33"/>
+      <c r="E194" s="33"/>
+      <c r="F194" s="33"/>
+      <c r="G194" s="33"/>
+      <c r="H194" s="33"/>
+      <c r="I194" s="6"/>
+    </row>
+    <row r="195" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B195" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="C195" s="33"/>
+      <c r="D195" s="33"/>
+      <c r="E195" s="33"/>
+      <c r="F195" s="33"/>
+      <c r="G195" s="33"/>
+      <c r="H195" s="33"/>
+      <c r="I195" s="6"/>
+    </row>
+    <row r="196" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B196" s="5" t="s">
+        <v>271</v>
+      </c>
+      <c r="C196" s="33"/>
+      <c r="D196" s="33"/>
+      <c r="E196" s="33"/>
+      <c r="F196" s="33"/>
+      <c r="G196" s="33"/>
+      <c r="H196" s="33"/>
+      <c r="I196" s="6"/>
+    </row>
+    <row r="197" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B197" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="C197" s="33"/>
+      <c r="D197" s="33"/>
+      <c r="E197" s="33"/>
+      <c r="F197" s="33"/>
+      <c r="G197" s="33"/>
+      <c r="H197" s="33"/>
+      <c r="I197" s="6"/>
+    </row>
+    <row r="198" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B198" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="C198" s="33"/>
+      <c r="D198" s="33"/>
+      <c r="E198" s="33"/>
+      <c r="F198" s="33"/>
+      <c r="G198" s="33"/>
+      <c r="H198" s="33"/>
+      <c r="I198" s="6"/>
+    </row>
+    <row r="199" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B199" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="C199" s="33"/>
+      <c r="D199" s="33"/>
+      <c r="E199" s="33"/>
+      <c r="F199" s="33"/>
+      <c r="G199" s="33"/>
+      <c r="H199" s="33"/>
+      <c r="I199" s="6"/>
+    </row>
+    <row r="200" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B200" s="5" t="s">
+        <v>275</v>
+      </c>
+      <c r="C200" s="33"/>
+      <c r="D200" s="33"/>
+      <c r="E200" s="33"/>
+      <c r="F200" s="33"/>
+      <c r="G200" s="33"/>
+      <c r="H200" s="33"/>
+      <c r="I200" s="6"/>
+    </row>
+    <row r="201" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B201" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="C201" s="33"/>
+      <c r="D201" s="33"/>
+      <c r="E201" s="33"/>
+      <c r="F201" s="33"/>
+      <c r="G201" s="33"/>
+      <c r="H201" s="33"/>
+      <c r="I201" s="6"/>
+    </row>
+    <row r="202" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B202" s="5" t="s">
+        <v>277</v>
+      </c>
+      <c r="C202" s="33"/>
+      <c r="D202" s="33"/>
+      <c r="E202" s="33"/>
+      <c r="F202" s="33"/>
+      <c r="G202" s="33"/>
+      <c r="H202" s="33"/>
+      <c r="I202" s="6"/>
+    </row>
+    <row r="203" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B203" s="5" t="s">
+        <v>278</v>
+      </c>
+      <c r="C203" s="33"/>
+      <c r="D203" s="33"/>
+      <c r="E203" s="33"/>
+      <c r="F203" s="33"/>
+      <c r="G203" s="33"/>
+      <c r="H203" s="33"/>
+      <c r="I203" s="6"/>
+    </row>
+    <row r="204" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B204" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C204" s="33"/>
+      <c r="D204" s="33"/>
+      <c r="E204" s="33"/>
+      <c r="F204" s="33"/>
+      <c r="G204" s="33"/>
+      <c r="H204" s="33"/>
+      <c r="I204" s="6"/>
+    </row>
+    <row r="205" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B205" s="5" t="s">
+        <v>280</v>
+      </c>
+      <c r="C205" s="33"/>
+      <c r="D205" s="33"/>
+      <c r="E205" s="33"/>
+      <c r="F205" s="33"/>
+      <c r="G205" s="33"/>
+      <c r="H205" s="33"/>
+      <c r="I205" s="6"/>
+    </row>
+    <row r="206" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B206" s="5" t="s">
+        <v>281</v>
+      </c>
+      <c r="C206" s="33"/>
+      <c r="D206" s="33"/>
+      <c r="E206" s="33"/>
+      <c r="F206" s="33"/>
+      <c r="G206" s="33"/>
+      <c r="H206" s="33"/>
+      <c r="I206" s="6"/>
+    </row>
+    <row r="207" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B207" s="5" t="s">
+        <v>279</v>
+      </c>
+      <c r="C207" s="33"/>
+      <c r="D207" s="33"/>
+      <c r="E207" s="33"/>
+      <c r="F207" s="33"/>
+      <c r="G207" s="33"/>
+      <c r="H207" s="33"/>
+      <c r="I207" s="6"/>
+    </row>
+    <row r="208" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B208" s="5" t="s">
+        <v>162</v>
+      </c>
+      <c r="C208" s="33"/>
+      <c r="D208" s="33"/>
+      <c r="E208" s="33"/>
+      <c r="F208" s="33"/>
+      <c r="G208" s="33"/>
+      <c r="H208" s="33"/>
+      <c r="I208" s="6"/>
+    </row>
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B209" s="8" t="s">
+        <v>163</v>
+      </c>
+      <c r="C209" s="9"/>
+      <c r="D209" s="9"/>
+      <c r="E209" s="9"/>
+      <c r="F209" s="9"/>
+      <c r="G209" s="9"/>
+      <c r="H209" s="9"/>
+      <c r="I209" s="10"/>
+    </row>
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B213" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C213" s="3"/>
+      <c r="D213" s="3"/>
+      <c r="E213" s="3"/>
+      <c r="F213" s="3"/>
+      <c r="G213" s="3"/>
+      <c r="H213" s="3"/>
+      <c r="I213" s="4"/>
+    </row>
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B214" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C214" s="33"/>
+      <c r="D214" s="33"/>
+      <c r="E214" s="33"/>
+      <c r="F214" s="33"/>
+      <c r="G214" s="33"/>
+      <c r="H214" s="33"/>
+      <c r="I214" s="6"/>
+    </row>
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B215" s="5" t="s">
+        <v>168</v>
+      </c>
+      <c r="C215" s="33"/>
+      <c r="D215" s="33"/>
+      <c r="E215" s="33"/>
+      <c r="F215" s="33"/>
+      <c r="G215" s="33"/>
+      <c r="H215" s="33"/>
+      <c r="I215" s="6"/>
+    </row>
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B216" s="5"/>
+      <c r="C216" s="33"/>
+      <c r="D216" s="33"/>
+      <c r="E216" s="33"/>
+      <c r="F216" s="33"/>
+      <c r="G216" s="33"/>
+      <c r="H216" s="33"/>
+      <c r="I216" s="6"/>
+    </row>
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B217" s="5"/>
+      <c r="C217" s="33"/>
+      <c r="D217" s="33"/>
+      <c r="E217" s="33"/>
+      <c r="F217" s="33"/>
+      <c r="G217" s="33"/>
+      <c r="H217" s="33"/>
+      <c r="I217" s="6"/>
+    </row>
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B218" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C218" s="33"/>
+      <c r="D218" s="33"/>
+      <c r="E218" s="33"/>
+      <c r="F218" s="33"/>
+      <c r="G218" s="33"/>
+      <c r="H218" s="33"/>
+      <c r="I218" s="6"/>
+    </row>
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B219" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="C219" s="33"/>
+      <c r="D219" s="33"/>
+      <c r="E219" s="33"/>
+      <c r="F219" s="33"/>
+      <c r="G219" s="33"/>
+      <c r="H219" s="33"/>
+      <c r="I219" s="6"/>
+    </row>
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B220" s="5"/>
+      <c r="C220" s="33"/>
+      <c r="D220" s="33"/>
+      <c r="E220" s="33"/>
+      <c r="F220" s="33"/>
+      <c r="G220" s="33"/>
+      <c r="H220" s="33"/>
+      <c r="I220" s="6"/>
+    </row>
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B221" s="5" t="s">
+        <v>287</v>
+      </c>
+      <c r="C221" s="33"/>
+      <c r="D221" s="33"/>
+      <c r="E221" s="33"/>
+      <c r="F221" s="33"/>
+      <c r="G221" s="33"/>
+      <c r="H221" s="33"/>
+      <c r="I221" s="6"/>
+    </row>
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B222" s="5"/>
+      <c r="C222" s="33"/>
+      <c r="D222" s="33"/>
+      <c r="E222" s="33"/>
+      <c r="F222" s="33"/>
+      <c r="G222" s="33"/>
+      <c r="H222" s="33"/>
+      <c r="I222" s="6"/>
+    </row>
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B223" s="5" t="s">
+        <v>288</v>
+      </c>
+      <c r="C223" s="33"/>
+      <c r="D223" s="33"/>
+      <c r="E223" s="33"/>
+      <c r="F223" s="33"/>
+      <c r="G223" s="33"/>
+      <c r="H223" s="33"/>
+      <c r="I223" s="6"/>
+      <c r="J223" t="s">
+        <v>142</v>
+      </c>
+      <c r="K223" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B224" s="5" t="s">
+        <v>289</v>
+      </c>
+      <c r="C224" s="33"/>
+      <c r="D224" s="33"/>
+      <c r="E224" s="33"/>
+      <c r="F224" s="33"/>
+      <c r="G224" s="33"/>
+      <c r="H224" s="33"/>
+      <c r="I224" s="6"/>
+      <c r="K224" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="225" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B225" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="C225" s="33"/>
+      <c r="D225" s="33"/>
+      <c r="E225" s="33"/>
+      <c r="F225" s="33"/>
+      <c r="G225" s="33"/>
+      <c r="H225" s="33"/>
+      <c r="I225" s="6"/>
+    </row>
+    <row r="226" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B226" s="5" t="s">
+        <v>290</v>
+      </c>
+      <c r="C226" s="33"/>
+      <c r="D226" s="33"/>
+      <c r="E226" s="33"/>
+      <c r="F226" s="33"/>
+      <c r="G226" s="33"/>
+      <c r="H226" s="33"/>
+      <c r="I226" s="6"/>
+    </row>
+    <row r="227" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B227" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="C227" s="33"/>
+      <c r="D227" s="33"/>
+      <c r="E227" s="33"/>
+      <c r="F227" s="33"/>
+      <c r="G227" s="33"/>
+      <c r="H227" s="33"/>
+      <c r="I227" s="6"/>
+    </row>
+    <row r="228" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B228" s="5" t="s">
+        <v>183</v>
+      </c>
+      <c r="C228" s="33"/>
+      <c r="D228" s="33"/>
+      <c r="E228" s="33"/>
+      <c r="F228" s="33"/>
+      <c r="G228" s="33"/>
+      <c r="H228" s="33"/>
+      <c r="I228" s="6"/>
+    </row>
+    <row r="229" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B229" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C229" s="33"/>
+      <c r="D229" s="33"/>
+      <c r="E229" s="33"/>
+      <c r="F229" s="33"/>
+      <c r="G229" s="33"/>
+      <c r="H229" s="33"/>
+      <c r="I229" s="6"/>
+    </row>
+    <row r="230" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B230" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C230" s="33"/>
+      <c r="D230" s="33"/>
+      <c r="E230" s="33"/>
+      <c r="F230" s="33"/>
+      <c r="G230" s="33"/>
+      <c r="H230" s="33"/>
+      <c r="I230" s="6"/>
+    </row>
+    <row r="231" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B231" s="5"/>
+      <c r="C231" s="33"/>
+      <c r="D231" s="33"/>
+      <c r="E231" s="33"/>
+      <c r="F231" s="33"/>
+      <c r="G231" s="33"/>
+      <c r="H231" s="33"/>
+      <c r="I231" s="6"/>
+    </row>
+    <row r="232" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B232" s="5" t="s">
+        <v>198</v>
+      </c>
+      <c r="C232" s="33"/>
+      <c r="D232" s="33"/>
+      <c r="E232" s="33"/>
+      <c r="F232" s="33"/>
+      <c r="G232" s="33"/>
+      <c r="H232" s="33"/>
+      <c r="I232" s="6"/>
+    </row>
+    <row r="233" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B233" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="C233" s="33"/>
+      <c r="D233" s="33"/>
+      <c r="E233" s="33"/>
+      <c r="F233" s="33"/>
+      <c r="G233" s="33"/>
+      <c r="H233" s="33"/>
+      <c r="I233" s="6"/>
+    </row>
+    <row r="234" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B234" s="5" t="s">
+        <v>200</v>
+      </c>
+      <c r="C234" s="33"/>
+      <c r="D234" s="33"/>
+      <c r="E234" s="33"/>
+      <c r="F234" s="33"/>
+      <c r="G234" s="33"/>
+      <c r="H234" s="33"/>
+      <c r="I234" s="6"/>
+    </row>
+    <row r="235" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B235" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="C235" s="33"/>
+      <c r="D235" s="33"/>
+      <c r="E235" s="33"/>
+      <c r="F235" s="33"/>
+      <c r="G235" s="33"/>
+      <c r="H235" s="33"/>
+      <c r="I235" s="6"/>
+    </row>
+    <row r="236" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B236" s="5" t="s">
+        <v>202</v>
+      </c>
+      <c r="C236" s="33"/>
+      <c r="D236" s="33"/>
+      <c r="E236" s="33"/>
+      <c r="F236" s="33"/>
+      <c r="G236" s="33"/>
+      <c r="H236" s="33"/>
+      <c r="I236" s="6"/>
+    </row>
+    <row r="237" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B237" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C237" s="33"/>
+      <c r="D237" s="33"/>
+      <c r="E237" s="33"/>
+      <c r="F237" s="33"/>
+      <c r="G237" s="33"/>
+      <c r="H237" s="33"/>
+      <c r="I237" s="6"/>
+    </row>
+    <row r="238" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B238" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="C238" s="33"/>
+      <c r="D238" s="33"/>
+      <c r="E238" s="33"/>
+      <c r="F238" s="33"/>
+      <c r="G238" s="33"/>
+      <c r="H238" s="33"/>
+      <c r="I238" s="6"/>
+    </row>
+    <row r="239" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B239" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C239" s="33"/>
+      <c r="D239" s="33"/>
+      <c r="E239" s="33"/>
+      <c r="F239" s="33"/>
+      <c r="G239" s="33"/>
+      <c r="H239" s="33"/>
+      <c r="I239" s="6"/>
+    </row>
+    <row r="240" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B240" s="5"/>
+      <c r="C240" s="33"/>
+      <c r="D240" s="33"/>
+      <c r="E240" s="33"/>
+      <c r="F240" s="33"/>
+      <c r="G240" s="33"/>
+      <c r="H240" s="33"/>
+      <c r="I240" s="6"/>
+    </row>
+    <row r="241" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B241" s="5" t="s">
+        <v>291</v>
+      </c>
+      <c r="C241" s="33"/>
+      <c r="D241" s="33"/>
+      <c r="E241" s="33"/>
+      <c r="F241" s="33"/>
+      <c r="G241" s="33"/>
+      <c r="H241" s="33"/>
+      <c r="I241" s="6"/>
+    </row>
+    <row r="242" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B242" s="5" t="s">
+        <v>292</v>
+      </c>
+      <c r="C242" s="33"/>
+      <c r="D242" s="33"/>
+      <c r="E242" s="33"/>
+      <c r="F242" s="33"/>
+      <c r="G242" s="33"/>
+      <c r="H242" s="33"/>
+      <c r="I242" s="6"/>
+    </row>
+    <row r="243" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B243" s="5" t="s">
+        <v>293</v>
+      </c>
+      <c r="C243" s="33"/>
+      <c r="D243" s="33"/>
+      <c r="E243" s="33"/>
+      <c r="F243" s="33"/>
+      <c r="G243" s="33"/>
+      <c r="H243" s="33"/>
+      <c r="I243" s="6"/>
+    </row>
+    <row r="244" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B244" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="C244" s="33"/>
+      <c r="D244" s="33"/>
+      <c r="E244" s="33"/>
+      <c r="F244" s="33"/>
+      <c r="G244" s="33"/>
+      <c r="H244" s="33"/>
+      <c r="I244" s="6"/>
+    </row>
+    <row r="245" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B245" s="5" t="s">
+        <v>294</v>
+      </c>
+      <c r="C245" s="33"/>
+      <c r="D245" s="33"/>
+      <c r="E245" s="33"/>
+      <c r="F245" s="33"/>
+      <c r="G245" s="33"/>
+      <c r="H245" s="33"/>
+      <c r="I245" s="6"/>
+    </row>
+    <row r="246" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B246" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="C246" s="33"/>
+      <c r="D246" s="33"/>
+      <c r="E246" s="33"/>
+      <c r="F246" s="33"/>
+      <c r="G246" s="33"/>
+      <c r="H246" s="33"/>
+      <c r="I246" s="6"/>
+    </row>
+    <row r="247" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="B247" s="8" t="s">
+        <v>204</v>
+      </c>
+      <c r="C247" s="9"/>
+      <c r="D247" s="9"/>
+      <c r="E247" s="9"/>
+      <c r="F247" s="9"/>
+      <c r="G247" s="9"/>
+      <c r="H247" s="9"/>
+      <c r="I247" s="10"/>
+    </row>
+    <row r="250" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A250" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B250" s="3"/>
+      <c r="C250" s="3"/>
+      <c r="D250" s="3"/>
+      <c r="E250" s="3"/>
+      <c r="F250" s="3"/>
+      <c r="G250" s="3"/>
+      <c r="H250" s="3"/>
+      <c r="I250" s="3"/>
+      <c r="J250" s="3"/>
+      <c r="K250" s="3"/>
+      <c r="L250" s="3"/>
+      <c r="M250" s="3"/>
+      <c r="N250" s="3"/>
+      <c r="O250" s="3"/>
+      <c r="P250" s="3"/>
+      <c r="Q250" s="3"/>
+      <c r="R250" s="3"/>
+      <c r="S250" s="3"/>
+      <c r="T250" s="4"/>
+    </row>
+    <row r="251" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A251" s="5"/>
+      <c r="B251" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="C251" s="3"/>
+      <c r="D251" s="3"/>
+      <c r="E251" s="3"/>
+      <c r="F251" s="3"/>
+      <c r="G251" s="3"/>
+      <c r="H251" s="3"/>
+      <c r="I251" s="3"/>
+      <c r="J251" s="3"/>
+      <c r="K251" s="3"/>
+      <c r="L251" s="3"/>
+      <c r="M251" s="3"/>
+      <c r="N251" s="3"/>
+      <c r="O251" s="3"/>
+      <c r="P251" s="3"/>
+      <c r="Q251" s="3"/>
+      <c r="R251" s="3"/>
+      <c r="S251" s="4"/>
+      <c r="T251" s="6"/>
+    </row>
+    <row r="252" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A252" s="5"/>
+      <c r="B252" s="5"/>
+      <c r="C252" s="33"/>
+      <c r="D252" s="33"/>
+      <c r="E252" s="33"/>
+      <c r="F252" s="33"/>
+      <c r="G252" s="33"/>
+      <c r="H252" s="33"/>
+      <c r="I252" s="33"/>
+      <c r="J252" s="33"/>
+      <c r="K252" s="33"/>
+      <c r="L252" s="33"/>
+      <c r="M252" s="33"/>
+      <c r="N252" s="33"/>
+      <c r="O252" s="33"/>
+      <c r="P252" s="33"/>
+      <c r="Q252" s="33"/>
+      <c r="R252" s="33"/>
+      <c r="S252" s="6"/>
+      <c r="T252" s="6"/>
+    </row>
+    <row r="253" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A253" s="5"/>
+      <c r="B253" s="5"/>
+      <c r="C253" s="33"/>
+      <c r="D253" s="33"/>
+      <c r="E253" s="33"/>
+      <c r="F253" s="33"/>
+      <c r="G253" s="33"/>
+      <c r="H253" s="33"/>
+      <c r="I253" s="33"/>
+      <c r="J253" s="33"/>
+      <c r="K253" s="33"/>
+      <c r="L253" s="33"/>
+      <c r="M253" s="33"/>
+      <c r="N253" s="33"/>
+      <c r="O253" s="33"/>
+      <c r="P253" s="33"/>
+      <c r="Q253" s="33"/>
+      <c r="R253" s="33"/>
+      <c r="S253" s="6"/>
+      <c r="T253" s="6"/>
+    </row>
+    <row r="254" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A254" s="5"/>
+      <c r="B254" s="5"/>
+      <c r="C254" s="33"/>
+      <c r="D254" s="33"/>
+      <c r="E254" s="33"/>
+      <c r="F254" s="33"/>
+      <c r="G254" s="33"/>
+      <c r="H254" s="33"/>
+      <c r="I254" s="33"/>
+      <c r="J254" s="33"/>
+      <c r="K254" s="33"/>
+      <c r="L254" s="33"/>
+      <c r="M254" s="33"/>
+      <c r="N254" s="33"/>
+      <c r="O254" s="33"/>
+      <c r="P254" s="33"/>
+      <c r="Q254" s="33"/>
+      <c r="R254" s="33"/>
+      <c r="S254" s="6"/>
+      <c r="T254" s="6"/>
+    </row>
+    <row r="255" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A255" s="5"/>
+      <c r="B255" s="5"/>
+      <c r="C255" s="33"/>
+      <c r="D255" s="33"/>
+      <c r="E255" s="33"/>
+      <c r="F255" s="33"/>
+      <c r="G255" s="33"/>
+      <c r="H255" s="33"/>
+      <c r="I255" s="33"/>
+      <c r="J255" s="33"/>
+      <c r="K255" s="33"/>
+      <c r="L255" s="33"/>
+      <c r="M255" s="33"/>
+      <c r="N255" s="33"/>
+      <c r="O255" s="33"/>
+      <c r="P255" s="33"/>
+      <c r="Q255" s="33"/>
+      <c r="R255" s="33"/>
+      <c r="S255" s="6"/>
+      <c r="T255" s="6"/>
+    </row>
+    <row r="256" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A256" s="5"/>
+      <c r="B256" s="5"/>
+      <c r="C256" s="33"/>
+      <c r="D256" s="33"/>
+      <c r="E256" s="33"/>
+      <c r="F256" s="33"/>
+      <c r="G256" s="33"/>
+      <c r="H256" s="33"/>
+      <c r="I256" s="33"/>
+      <c r="J256" s="33"/>
+      <c r="K256" s="33"/>
+      <c r="L256" s="33"/>
+      <c r="M256" s="33"/>
+      <c r="N256" s="33"/>
+      <c r="O256" s="33"/>
+      <c r="P256" s="33"/>
+      <c r="Q256" s="33"/>
+      <c r="R256" s="33"/>
+      <c r="S256" s="6"/>
+      <c r="T256" s="6"/>
+    </row>
+    <row r="257" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A257" s="5"/>
+      <c r="B257" s="5"/>
+      <c r="C257" s="33"/>
+      <c r="D257" s="33"/>
+      <c r="E257" s="33"/>
+      <c r="F257" s="33"/>
+      <c r="G257" s="33"/>
+      <c r="H257" s="33"/>
+      <c r="I257" s="33"/>
+      <c r="J257" s="33"/>
+      <c r="K257" s="33"/>
+      <c r="L257" s="33"/>
+      <c r="M257" s="33"/>
+      <c r="N257" s="33"/>
+      <c r="O257" s="33"/>
+      <c r="P257" s="33"/>
+      <c r="Q257" s="33"/>
+      <c r="R257" s="33"/>
+      <c r="S257" s="6"/>
+      <c r="T257" s="6"/>
+    </row>
+    <row r="258" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A258" s="5"/>
+      <c r="B258" s="5"/>
+      <c r="C258" s="33"/>
+      <c r="D258" s="33"/>
+      <c r="E258" s="33"/>
+      <c r="F258" s="33"/>
+      <c r="G258" s="33"/>
+      <c r="H258" s="33"/>
+      <c r="I258" s="33"/>
+      <c r="J258" s="33"/>
+      <c r="K258" s="33"/>
+      <c r="L258" s="33"/>
+      <c r="M258" s="33"/>
+      <c r="N258" s="33"/>
+      <c r="O258" s="33"/>
+      <c r="P258" s="33"/>
+      <c r="Q258" s="33"/>
+      <c r="R258" s="33"/>
+      <c r="S258" s="6"/>
+      <c r="T258" s="6"/>
+    </row>
+    <row r="259" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A259" s="5"/>
+      <c r="B259" s="5"/>
+      <c r="C259" s="33"/>
+      <c r="D259" s="33"/>
+      <c r="E259" s="33"/>
+      <c r="F259" s="33"/>
+      <c r="G259" s="33"/>
+      <c r="H259" s="33"/>
+      <c r="I259" s="33"/>
+      <c r="J259" s="33"/>
+      <c r="K259" s="33"/>
+      <c r="L259" s="33"/>
+      <c r="M259" s="33"/>
+      <c r="N259" s="33"/>
+      <c r="O259" s="33"/>
+      <c r="P259" s="33"/>
+      <c r="Q259" s="33"/>
+      <c r="R259" s="33"/>
+      <c r="S259" s="6"/>
+      <c r="T259" s="6"/>
+    </row>
+    <row r="260" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A260" s="5"/>
+      <c r="B260" s="5"/>
+      <c r="C260" s="33"/>
+      <c r="D260" s="33"/>
+      <c r="E260" s="33"/>
+      <c r="F260" s="33"/>
+      <c r="G260" s="33"/>
+      <c r="H260" s="33"/>
+      <c r="I260" s="33"/>
+      <c r="J260" s="33"/>
+      <c r="K260" s="33"/>
+      <c r="L260" s="33"/>
+      <c r="M260" s="33"/>
+      <c r="N260" s="33"/>
+      <c r="O260" s="33"/>
+      <c r="P260" s="33"/>
+      <c r="Q260" s="33"/>
+      <c r="R260" s="33"/>
+      <c r="S260" s="6"/>
+      <c r="T260" s="6"/>
+    </row>
+    <row r="261" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A261" s="5"/>
+      <c r="B261" s="5"/>
+      <c r="C261" s="33"/>
+      <c r="D261" s="33"/>
+      <c r="E261" s="33"/>
+      <c r="F261" s="33"/>
+      <c r="G261" s="33"/>
+      <c r="H261" s="33"/>
+      <c r="I261" s="33"/>
+      <c r="J261" s="33"/>
+      <c r="K261" s="33"/>
+      <c r="L261" s="33"/>
+      <c r="M261" s="33"/>
+      <c r="N261" s="33"/>
+      <c r="O261" s="33"/>
+      <c r="P261" s="33"/>
+      <c r="Q261" s="33"/>
+      <c r="R261" s="33"/>
+      <c r="S261" s="6"/>
+      <c r="T261" s="6"/>
+    </row>
+    <row r="262" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A262" s="5"/>
+      <c r="B262" s="5"/>
+      <c r="C262" s="33"/>
+      <c r="D262" s="33"/>
+      <c r="E262" s="33"/>
+      <c r="F262" s="33"/>
+      <c r="G262" s="33"/>
+      <c r="H262" s="33"/>
+      <c r="I262" s="33"/>
+      <c r="J262" s="33"/>
+      <c r="K262" s="33"/>
+      <c r="L262" s="33"/>
+      <c r="M262" s="33"/>
+      <c r="N262" s="33"/>
+      <c r="O262" s="33"/>
+      <c r="P262" s="33"/>
+      <c r="Q262" s="33"/>
+      <c r="R262" s="33"/>
+      <c r="S262" s="6"/>
+      <c r="T262" s="6"/>
+    </row>
+    <row r="263" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A263" s="5"/>
+      <c r="B263" s="5"/>
+      <c r="C263" s="33"/>
+      <c r="D263" s="33"/>
+      <c r="E263" s="33"/>
+      <c r="F263" s="33"/>
+      <c r="G263" s="33"/>
+      <c r="H263" s="33"/>
+      <c r="I263" s="33"/>
+      <c r="J263" s="33"/>
+      <c r="K263" s="33"/>
+      <c r="L263" s="33"/>
+      <c r="M263" s="33"/>
+      <c r="N263" s="33"/>
+      <c r="O263" s="33"/>
+      <c r="P263" s="33"/>
+      <c r="Q263" s="33"/>
+      <c r="R263" s="33"/>
+      <c r="S263" s="6"/>
+      <c r="T263" s="6"/>
+    </row>
+    <row r="264" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A264" s="5"/>
+      <c r="B264" s="5"/>
+      <c r="C264" s="33"/>
+      <c r="D264" s="33"/>
+      <c r="E264" s="33"/>
+      <c r="F264" s="33"/>
+      <c r="G264" s="33"/>
+      <c r="H264" s="33"/>
+      <c r="I264" s="33"/>
+      <c r="J264" s="33"/>
+      <c r="K264" s="33"/>
+      <c r="L264" s="33"/>
+      <c r="M264" s="33"/>
+      <c r="N264" s="33"/>
+      <c r="O264" s="33"/>
+      <c r="P264" s="33"/>
+      <c r="Q264" s="33"/>
+      <c r="R264" s="33"/>
+      <c r="S264" s="6"/>
+      <c r="T264" s="6"/>
+    </row>
+    <row r="265" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A265" s="5"/>
+      <c r="B265" s="5"/>
+      <c r="C265" s="33"/>
+      <c r="D265" s="33"/>
+      <c r="E265" s="33"/>
+      <c r="F265" s="33"/>
+      <c r="G265" s="33"/>
+      <c r="H265" s="33"/>
+      <c r="I265" s="33"/>
+      <c r="J265" s="33"/>
+      <c r="K265" s="33"/>
+      <c r="L265" s="33"/>
+      <c r="M265" s="33"/>
+      <c r="N265" s="33"/>
+      <c r="O265" s="33"/>
+      <c r="P265" s="33"/>
+      <c r="Q265" s="33"/>
+      <c r="R265" s="33"/>
+      <c r="S265" s="6"/>
+      <c r="T265" s="6"/>
+    </row>
+    <row r="266" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A266" s="5"/>
+      <c r="B266" s="5"/>
+      <c r="C266" s="33"/>
+      <c r="D266" s="33"/>
+      <c r="E266" s="33"/>
+      <c r="F266" s="33"/>
+      <c r="G266" s="33"/>
+      <c r="H266" s="33"/>
+      <c r="I266" s="33"/>
+      <c r="J266" s="33"/>
+      <c r="K266" s="33"/>
+      <c r="L266" s="33"/>
+      <c r="M266" s="33"/>
+      <c r="N266" s="33"/>
+      <c r="O266" s="33"/>
+      <c r="P266" s="33"/>
+      <c r="Q266" s="33"/>
+      <c r="R266" s="33"/>
+      <c r="S266" s="6"/>
+      <c r="T266" s="6"/>
+    </row>
+    <row r="267" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A267" s="5"/>
+      <c r="B267" s="5"/>
+      <c r="C267" s="33"/>
+      <c r="D267" s="33"/>
+      <c r="E267" s="33"/>
+      <c r="F267" s="33"/>
+      <c r="G267" s="33"/>
+      <c r="H267" s="33"/>
+      <c r="I267" s="33"/>
+      <c r="J267" s="33"/>
+      <c r="K267" s="33"/>
+      <c r="L267" s="33"/>
+      <c r="M267" s="33"/>
+      <c r="N267" s="33"/>
+      <c r="O267" s="33"/>
+      <c r="P267" s="33"/>
+      <c r="Q267" s="33"/>
+      <c r="R267" s="33"/>
+      <c r="S267" s="6"/>
+      <c r="T267" s="6"/>
+    </row>
+    <row r="268" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A268" s="5"/>
+      <c r="B268" s="5"/>
+      <c r="C268" s="33"/>
+      <c r="D268" s="33"/>
+      <c r="E268" s="33"/>
+      <c r="F268" s="33"/>
+      <c r="G268" s="33"/>
+      <c r="H268" s="33"/>
+      <c r="I268" s="33"/>
+      <c r="J268" s="33"/>
+      <c r="K268" s="33"/>
+      <c r="L268" s="33"/>
+      <c r="M268" s="33"/>
+      <c r="N268" s="33"/>
+      <c r="O268" s="33"/>
+      <c r="P268" s="33"/>
+      <c r="Q268" s="33"/>
+      <c r="R268" s="33"/>
+      <c r="S268" s="6"/>
+      <c r="T268" s="6"/>
+    </row>
+    <row r="269" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A269" s="5"/>
+      <c r="B269" s="5"/>
+      <c r="C269" s="33"/>
+      <c r="D269" s="33"/>
+      <c r="E269" s="33"/>
+      <c r="F269" s="33"/>
+      <c r="G269" s="33"/>
+      <c r="H269" s="33"/>
+      <c r="I269" s="33"/>
+      <c r="J269" s="33"/>
+      <c r="K269" s="33"/>
+      <c r="L269" s="33"/>
+      <c r="M269" s="33"/>
+      <c r="N269" s="33"/>
+      <c r="O269" s="33"/>
+      <c r="P269" s="33"/>
+      <c r="Q269" s="33"/>
+      <c r="R269" s="33"/>
+      <c r="S269" s="6"/>
+      <c r="T269" s="6"/>
+    </row>
+    <row r="270" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A270" s="5"/>
+      <c r="B270" s="5"/>
+      <c r="C270" s="33"/>
+      <c r="D270" s="33"/>
+      <c r="E270" s="33"/>
+      <c r="F270" s="33"/>
+      <c r="G270" s="33"/>
+      <c r="H270" s="33"/>
+      <c r="I270" s="33"/>
+      <c r="J270" s="33"/>
+      <c r="K270" s="33"/>
+      <c r="L270" s="33"/>
+      <c r="M270" s="33"/>
+      <c r="N270" s="33"/>
+      <c r="O270" s="33"/>
+      <c r="P270" s="33"/>
+      <c r="Q270" s="33"/>
+      <c r="R270" s="33"/>
+      <c r="S270" s="6"/>
+      <c r="T270" s="6"/>
+    </row>
+    <row r="271" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A271" s="5"/>
+      <c r="B271" s="5"/>
+      <c r="C271" s="33"/>
+      <c r="D271" s="33"/>
+      <c r="E271" s="33"/>
+      <c r="F271" s="33"/>
+      <c r="G271" s="33"/>
+      <c r="H271" s="33"/>
+      <c r="I271" s="33"/>
+      <c r="J271" s="33"/>
+      <c r="K271" s="33"/>
+      <c r="L271" s="33"/>
+      <c r="M271" s="33"/>
+      <c r="N271" s="33"/>
+      <c r="O271" s="33"/>
+      <c r="P271" s="33"/>
+      <c r="Q271" s="33"/>
+      <c r="R271" s="33"/>
+      <c r="S271" s="6"/>
+      <c r="T271" s="6"/>
+    </row>
+    <row r="272" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A272" s="5"/>
+      <c r="B272" s="5"/>
+      <c r="C272" s="33"/>
+      <c r="D272" s="33"/>
+      <c r="E272" s="33"/>
+      <c r="F272" s="33"/>
+      <c r="G272" s="33"/>
+      <c r="H272" s="33"/>
+      <c r="I272" s="33"/>
+      <c r="J272" s="33"/>
+      <c r="K272" s="33"/>
+      <c r="L272" s="33"/>
+      <c r="M272" s="33"/>
+      <c r="N272" s="33"/>
+      <c r="O272" s="33"/>
+      <c r="P272" s="33"/>
+      <c r="Q272" s="33"/>
+      <c r="R272" s="33"/>
+      <c r="S272" s="6"/>
+      <c r="T272" s="6"/>
+    </row>
+    <row r="273" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A273" s="5"/>
+      <c r="B273" s="5"/>
+      <c r="C273" s="33"/>
+      <c r="D273" s="33"/>
+      <c r="E273" s="33"/>
+      <c r="F273" s="33"/>
+      <c r="G273" s="33"/>
+      <c r="H273" s="33"/>
+      <c r="I273" s="33"/>
+      <c r="J273" s="33"/>
+      <c r="K273" s="33"/>
+      <c r="L273" s="33"/>
+      <c r="M273" s="33"/>
+      <c r="N273" s="33"/>
+      <c r="O273" s="33"/>
+      <c r="P273" s="33"/>
+      <c r="Q273" s="33"/>
+      <c r="R273" s="33"/>
+      <c r="S273" s="6"/>
+      <c r="T273" s="6"/>
+    </row>
+    <row r="274" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A274" s="5"/>
+      <c r="B274" s="5"/>
+      <c r="C274" s="33"/>
+      <c r="D274" s="33"/>
+      <c r="E274" s="33"/>
+      <c r="F274" s="33"/>
+      <c r="G274" s="33"/>
+      <c r="H274" s="33"/>
+      <c r="I274" s="33"/>
+      <c r="J274" s="33"/>
+      <c r="K274" s="33"/>
+      <c r="L274" s="33"/>
+      <c r="M274" s="33"/>
+      <c r="N274" s="33"/>
+      <c r="O274" s="33"/>
+      <c r="P274" s="33"/>
+      <c r="Q274" s="33"/>
+      <c r="R274" s="33"/>
+      <c r="S274" s="6"/>
+      <c r="T274" s="6"/>
+    </row>
+    <row r="275" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A275" s="5"/>
+      <c r="B275" s="5"/>
+      <c r="C275" s="33"/>
+      <c r="D275" s="33"/>
+      <c r="E275" s="33"/>
+      <c r="F275" s="33"/>
+      <c r="G275" s="33"/>
+      <c r="H275" s="33"/>
+      <c r="I275" s="33"/>
+      <c r="J275" s="33"/>
+      <c r="K275" s="33"/>
+      <c r="L275" s="33"/>
+      <c r="M275" s="33"/>
+      <c r="N275" s="33"/>
+      <c r="O275" s="33"/>
+      <c r="P275" s="33"/>
+      <c r="Q275" s="33"/>
+      <c r="R275" s="33"/>
+      <c r="S275" s="6"/>
+      <c r="T275" s="6"/>
+    </row>
+    <row r="276" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A276" s="5"/>
+      <c r="B276" s="5"/>
+      <c r="C276" s="33"/>
+      <c r="D276" s="33"/>
+      <c r="E276" s="33"/>
+      <c r="F276" s="33"/>
+      <c r="G276" s="33"/>
+      <c r="H276" s="33"/>
+      <c r="I276" s="33"/>
+      <c r="J276" s="33"/>
+      <c r="K276" s="33"/>
+      <c r="L276" s="33"/>
+      <c r="M276" s="33"/>
+      <c r="N276" s="33"/>
+      <c r="O276" s="33"/>
+      <c r="P276" s="33"/>
+      <c r="Q276" s="33"/>
+      <c r="R276" s="33"/>
+      <c r="S276" s="6"/>
+      <c r="T276" s="6"/>
+    </row>
+    <row r="277" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A277" s="5"/>
+      <c r="B277" s="5"/>
+      <c r="C277" s="33"/>
+      <c r="D277" s="33"/>
+      <c r="E277" s="33"/>
+      <c r="F277" s="33"/>
+      <c r="G277" s="33"/>
+      <c r="H277" s="33"/>
+      <c r="I277" s="33"/>
+      <c r="J277" s="33"/>
+      <c r="K277" s="33"/>
+      <c r="L277" s="33"/>
+      <c r="M277" s="33"/>
+      <c r="N277" s="33"/>
+      <c r="O277" s="33"/>
+      <c r="P277" s="33"/>
+      <c r="Q277" s="33"/>
+      <c r="R277" s="33"/>
+      <c r="S277" s="6"/>
+      <c r="T277" s="6"/>
+    </row>
+    <row r="278" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A278" s="5"/>
+      <c r="B278" s="5"/>
+      <c r="C278" s="33"/>
+      <c r="D278" s="33"/>
+      <c r="E278" s="33"/>
+      <c r="F278" s="33"/>
+      <c r="G278" s="33"/>
+      <c r="H278" s="33"/>
+      <c r="I278" s="33"/>
+      <c r="J278" s="33"/>
+      <c r="K278" s="33"/>
+      <c r="L278" s="33"/>
+      <c r="M278" s="33"/>
+      <c r="N278" s="33"/>
+      <c r="O278" s="33"/>
+      <c r="P278" s="33"/>
+      <c r="Q278" s="33"/>
+      <c r="R278" s="33"/>
+      <c r="S278" s="6"/>
+      <c r="T278" s="6"/>
+    </row>
+    <row r="279" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A279" s="5"/>
+      <c r="B279" s="5"/>
+      <c r="C279" s="33"/>
+      <c r="D279" s="33"/>
+      <c r="E279" s="33"/>
+      <c r="F279" s="33"/>
+      <c r="G279" s="33"/>
+      <c r="H279" s="33"/>
+      <c r="I279" s="33"/>
+      <c r="J279" s="33"/>
+      <c r="K279" s="33"/>
+      <c r="L279" s="33"/>
+      <c r="M279" s="33"/>
+      <c r="N279" s="33"/>
+      <c r="O279" s="33"/>
+      <c r="P279" s="33"/>
+      <c r="Q279" s="33"/>
+      <c r="R279" s="33"/>
+      <c r="S279" s="6"/>
+      <c r="T279" s="6"/>
+    </row>
+    <row r="280" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A280" s="5"/>
+      <c r="B280" s="8"/>
+      <c r="C280" s="9"/>
+      <c r="D280" s="9"/>
+      <c r="E280" s="9"/>
+      <c r="F280" s="9"/>
+      <c r="G280" s="9"/>
+      <c r="H280" s="9"/>
+      <c r="I280" s="9"/>
+      <c r="J280" s="9"/>
+      <c r="K280" s="9"/>
+      <c r="L280" s="9"/>
+      <c r="M280" s="9"/>
+      <c r="N280" s="9"/>
+      <c r="O280" s="9"/>
+      <c r="P280" s="9"/>
+      <c r="Q280" s="9"/>
+      <c r="R280" s="9"/>
+      <c r="S280" s="10"/>
+      <c r="T280" s="6"/>
+    </row>
+    <row r="281" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A281" s="5"/>
+      <c r="B281" s="33"/>
+      <c r="C281" s="33"/>
+      <c r="D281" s="33"/>
+      <c r="E281" s="33"/>
+      <c r="F281" s="33"/>
+      <c r="G281" s="33"/>
+      <c r="H281" s="33"/>
+      <c r="I281" s="33"/>
+      <c r="J281" s="33"/>
+      <c r="K281" s="33"/>
+      <c r="L281" s="33"/>
+      <c r="M281" s="33"/>
+      <c r="N281" s="33"/>
+      <c r="O281" s="33"/>
+      <c r="P281" s="33"/>
+      <c r="Q281" s="33"/>
+      <c r="R281" s="33"/>
+      <c r="S281" s="33"/>
+      <c r="T281" s="6"/>
+    </row>
+    <row r="282" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A282" s="5"/>
+      <c r="B282" s="33"/>
+      <c r="C282" s="33"/>
+      <c r="D282" s="33"/>
+      <c r="E282" s="33"/>
+      <c r="F282" s="33"/>
+      <c r="G282" s="33"/>
+      <c r="H282" s="33"/>
+      <c r="I282" s="33"/>
+      <c r="J282" s="33"/>
+      <c r="K282" s="33"/>
+      <c r="L282" s="33"/>
+      <c r="M282" s="33"/>
+      <c r="N282" s="33"/>
+      <c r="O282" s="33"/>
+      <c r="P282" s="33"/>
+      <c r="Q282" s="33"/>
+      <c r="R282" s="33"/>
+      <c r="S282" s="33"/>
+      <c r="T282" s="6"/>
+    </row>
+    <row r="283" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A283" s="5"/>
+      <c r="B283" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="C283" s="3"/>
+      <c r="D283" s="3"/>
+      <c r="E283" s="3"/>
+      <c r="F283" s="3"/>
+      <c r="G283" s="3"/>
+      <c r="H283" s="3"/>
+      <c r="I283" s="3"/>
+      <c r="J283" s="3"/>
+      <c r="K283" s="3"/>
+      <c r="L283" s="3"/>
+      <c r="M283" s="3"/>
+      <c r="N283" s="3"/>
+      <c r="O283" s="3"/>
+      <c r="P283" s="3"/>
+      <c r="Q283" s="3"/>
+      <c r="R283" s="3"/>
+      <c r="S283" s="4"/>
+      <c r="T283" s="6"/>
+    </row>
+    <row r="284" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A284" s="5"/>
+      <c r="B284" s="5"/>
+      <c r="C284" s="33"/>
+      <c r="D284" s="33"/>
+      <c r="E284" s="33"/>
+      <c r="F284" s="33"/>
+      <c r="G284" s="33"/>
+      <c r="H284" s="33"/>
+      <c r="I284" s="33"/>
+      <c r="J284" s="33"/>
+      <c r="K284" s="33"/>
+      <c r="L284" s="33"/>
+      <c r="M284" s="33"/>
+      <c r="N284" s="33"/>
+      <c r="O284" s="33"/>
+      <c r="P284" s="33"/>
+      <c r="Q284" s="33"/>
+      <c r="R284" s="33"/>
+      <c r="S284" s="6"/>
+      <c r="T284" s="6"/>
+    </row>
+    <row r="285" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A285" s="5"/>
+      <c r="B285" s="5"/>
+      <c r="C285" s="33"/>
+      <c r="D285" s="33"/>
+      <c r="E285" s="33"/>
+      <c r="F285" s="33"/>
+      <c r="G285" s="33"/>
+      <c r="H285" s="33"/>
+      <c r="I285" s="33"/>
+      <c r="J285" s="33"/>
+      <c r="K285" s="33"/>
+      <c r="L285" s="33"/>
+      <c r="M285" s="33"/>
+      <c r="N285" s="33"/>
+      <c r="O285" s="33"/>
+      <c r="P285" s="33"/>
+      <c r="Q285" s="33"/>
+      <c r="R285" s="33"/>
+      <c r="S285" s="6"/>
+      <c r="T285" s="6"/>
+    </row>
+    <row r="286" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A286" s="5"/>
+      <c r="B286" s="5"/>
+      <c r="C286" s="33"/>
+      <c r="D286" s="33"/>
+      <c r="E286" s="33"/>
+      <c r="F286" s="33"/>
+      <c r="G286" s="33"/>
+      <c r="H286" s="33"/>
+      <c r="I286" s="33"/>
+      <c r="J286" s="33"/>
+      <c r="K286" s="33"/>
+      <c r="L286" s="33"/>
+      <c r="M286" s="33"/>
+      <c r="N286" s="33"/>
+      <c r="O286" s="33"/>
+      <c r="P286" s="33"/>
+      <c r="Q286" s="33"/>
+      <c r="R286" s="33"/>
+      <c r="S286" s="6"/>
+      <c r="T286" s="6"/>
+    </row>
+    <row r="287" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A287" s="5"/>
+      <c r="B287" s="5"/>
+      <c r="C287" s="33"/>
+      <c r="D287" s="33"/>
+      <c r="E287" s="33"/>
+      <c r="F287" s="33"/>
+      <c r="G287" s="33"/>
+      <c r="H287" s="33"/>
+      <c r="I287" s="33"/>
+      <c r="J287" s="33"/>
+      <c r="K287" s="33"/>
+      <c r="L287" s="33"/>
+      <c r="M287" s="33"/>
+      <c r="N287" s="33"/>
+      <c r="O287" s="33"/>
+      <c r="P287" s="33"/>
+      <c r="Q287" s="33"/>
+      <c r="R287" s="33"/>
+      <c r="S287" s="6"/>
+      <c r="T287" s="6"/>
+    </row>
+    <row r="288" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A288" s="5"/>
+      <c r="B288" s="5"/>
+      <c r="C288" s="33"/>
+      <c r="D288" s="33"/>
+      <c r="E288" s="33"/>
+      <c r="F288" s="33"/>
+      <c r="G288" s="33"/>
+      <c r="H288" s="33"/>
+      <c r="I288" s="33"/>
+      <c r="J288" s="33"/>
+      <c r="K288" s="33"/>
+      <c r="L288" s="33"/>
+      <c r="M288" s="33"/>
+      <c r="N288" s="33"/>
+      <c r="O288" s="33"/>
+      <c r="P288" s="33"/>
+      <c r="Q288" s="33"/>
+      <c r="R288" s="33"/>
+      <c r="S288" s="6"/>
+      <c r="T288" s="6"/>
+    </row>
+    <row r="289" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A289" s="5"/>
+      <c r="B289" s="5"/>
+      <c r="C289" s="33"/>
+      <c r="D289" s="33"/>
+      <c r="E289" s="33"/>
+      <c r="F289" s="33"/>
+      <c r="G289" s="33"/>
+      <c r="H289" s="33"/>
+      <c r="I289" s="33"/>
+      <c r="J289" s="33"/>
+      <c r="K289" s="33"/>
+      <c r="L289" s="33"/>
+      <c r="M289" s="33"/>
+      <c r="N289" s="33"/>
+      <c r="O289" s="33"/>
+      <c r="P289" s="33"/>
+      <c r="Q289" s="33"/>
+      <c r="R289" s="33"/>
+      <c r="S289" s="6"/>
+      <c r="T289" s="6"/>
+    </row>
+    <row r="290" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A290" s="5"/>
+      <c r="B290" s="5"/>
+      <c r="C290" s="33"/>
+      <c r="D290" s="33"/>
+      <c r="E290" s="33"/>
+      <c r="F290" s="33"/>
+      <c r="G290" s="33"/>
+      <c r="H290" s="33"/>
+      <c r="I290" s="33"/>
+      <c r="J290" s="33"/>
+      <c r="K290" s="33"/>
+      <c r="L290" s="33"/>
+      <c r="M290" s="33"/>
+      <c r="N290" s="33"/>
+      <c r="O290" s="33"/>
+      <c r="P290" s="33"/>
+      <c r="Q290" s="33"/>
+      <c r="R290" s="33"/>
+      <c r="S290" s="6"/>
+      <c r="T290" s="6"/>
+    </row>
+    <row r="291" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A291" s="5"/>
+      <c r="B291" s="5"/>
+      <c r="C291" s="33"/>
+      <c r="D291" s="33"/>
+      <c r="E291" s="33"/>
+      <c r="F291" s="33"/>
+      <c r="G291" s="33"/>
+      <c r="H291" s="33"/>
+      <c r="I291" s="33"/>
+      <c r="J291" s="33"/>
+      <c r="K291" s="33"/>
+      <c r="L291" s="33"/>
+      <c r="M291" s="33"/>
+      <c r="N291" s="33"/>
+      <c r="O291" s="33"/>
+      <c r="P291" s="33"/>
+      <c r="Q291" s="33"/>
+      <c r="R291" s="33"/>
+      <c r="S291" s="6"/>
+      <c r="T291" s="6"/>
+    </row>
+    <row r="292" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A292" s="5"/>
+      <c r="B292" s="5"/>
+      <c r="C292" s="33"/>
+      <c r="D292" s="33"/>
+      <c r="E292" s="33"/>
+      <c r="F292" s="33"/>
+      <c r="G292" s="33"/>
+      <c r="H292" s="33"/>
+      <c r="I292" s="33"/>
+      <c r="J292" s="33"/>
+      <c r="K292" s="33"/>
+      <c r="L292" s="33"/>
+      <c r="M292" s="33"/>
+      <c r="N292" s="33"/>
+      <c r="O292" s="33"/>
+      <c r="P292" s="33"/>
+      <c r="Q292" s="33"/>
+      <c r="R292" s="33"/>
+      <c r="S292" s="6"/>
+      <c r="T292" s="6"/>
+    </row>
+    <row r="293" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A293" s="5"/>
+      <c r="B293" s="5"/>
+      <c r="C293" s="33"/>
+      <c r="D293" s="33"/>
+      <c r="E293" s="33"/>
+      <c r="F293" s="33"/>
+      <c r="G293" s="33"/>
+      <c r="H293" s="33"/>
+      <c r="I293" s="33"/>
+      <c r="J293" s="33"/>
+      <c r="K293" s="33"/>
+      <c r="L293" s="33"/>
+      <c r="M293" s="33"/>
+      <c r="N293" s="33"/>
+      <c r="O293" s="33"/>
+      <c r="P293" s="33"/>
+      <c r="Q293" s="33"/>
+      <c r="R293" s="33"/>
+      <c r="S293" s="6"/>
+      <c r="T293" s="6"/>
+    </row>
+    <row r="294" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A294" s="5"/>
+      <c r="B294" s="5"/>
+      <c r="C294" s="33"/>
+      <c r="D294" s="33"/>
+      <c r="E294" s="33"/>
+      <c r="F294" s="33"/>
+      <c r="G294" s="33"/>
+      <c r="H294" s="33"/>
+      <c r="I294" s="33"/>
+      <c r="J294" s="33"/>
+      <c r="K294" s="33"/>
+      <c r="L294" s="33"/>
+      <c r="M294" s="33"/>
+      <c r="N294" s="33"/>
+      <c r="O294" s="33"/>
+      <c r="P294" s="33"/>
+      <c r="Q294" s="33"/>
+      <c r="R294" s="33"/>
+      <c r="S294" s="6"/>
+      <c r="T294" s="6"/>
+    </row>
+    <row r="295" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A295" s="5"/>
+      <c r="B295" s="5"/>
+      <c r="C295" s="33"/>
+      <c r="D295" s="33"/>
+      <c r="E295" s="33"/>
+      <c r="F295" s="33"/>
+      <c r="G295" s="33"/>
+      <c r="H295" s="33"/>
+      <c r="I295" s="33"/>
+      <c r="J295" s="33"/>
+      <c r="K295" s="33"/>
+      <c r="L295" s="33"/>
+      <c r="M295" s="33"/>
+      <c r="N295" s="33"/>
+      <c r="O295" s="33"/>
+      <c r="P295" s="33"/>
+      <c r="Q295" s="33"/>
+      <c r="R295" s="33"/>
+      <c r="S295" s="6"/>
+      <c r="T295" s="6"/>
+    </row>
+    <row r="296" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A296" s="5"/>
+      <c r="B296" s="5"/>
+      <c r="C296" s="33"/>
+      <c r="D296" s="33"/>
+      <c r="E296" s="33"/>
+      <c r="F296" s="33"/>
+      <c r="G296" s="33"/>
+      <c r="H296" s="33"/>
+      <c r="I296" s="33"/>
+      <c r="J296" s="33"/>
+      <c r="K296" s="33"/>
+      <c r="L296" s="33"/>
+      <c r="M296" s="33"/>
+      <c r="N296" s="33"/>
+      <c r="O296" s="33"/>
+      <c r="P296" s="33"/>
+      <c r="Q296" s="33"/>
+      <c r="R296" s="33"/>
+      <c r="S296" s="6"/>
+      <c r="T296" s="6"/>
+    </row>
+    <row r="297" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A297" s="5"/>
+      <c r="B297" s="5"/>
+      <c r="C297" s="33"/>
+      <c r="D297" s="33"/>
+      <c r="E297" s="33"/>
+      <c r="F297" s="33"/>
+      <c r="G297" s="33"/>
+      <c r="H297" s="33"/>
+      <c r="I297" s="33"/>
+      <c r="J297" s="33"/>
+      <c r="K297" s="33"/>
+      <c r="L297" s="33"/>
+      <c r="M297" s="33"/>
+      <c r="N297" s="33"/>
+      <c r="O297" s="33"/>
+      <c r="P297" s="33"/>
+      <c r="Q297" s="33"/>
+      <c r="R297" s="33"/>
+      <c r="S297" s="6"/>
+      <c r="T297" s="6"/>
+    </row>
+    <row r="298" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A298" s="5"/>
+      <c r="B298" s="5"/>
+      <c r="C298" s="33"/>
+      <c r="D298" s="33"/>
+      <c r="E298" s="33"/>
+      <c r="F298" s="33"/>
+      <c r="G298" s="33"/>
+      <c r="H298" s="33"/>
+      <c r="I298" s="33"/>
+      <c r="J298" s="33"/>
+      <c r="K298" s="33"/>
+      <c r="L298" s="33"/>
+      <c r="M298" s="33"/>
+      <c r="N298" s="33"/>
+      <c r="O298" s="33"/>
+      <c r="P298" s="33"/>
+      <c r="Q298" s="33"/>
+      <c r="R298" s="33"/>
+      <c r="S298" s="6"/>
+      <c r="T298" s="6"/>
+    </row>
+    <row r="299" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A299" s="5"/>
+      <c r="B299" s="5"/>
+      <c r="C299" s="33"/>
+      <c r="D299" s="33"/>
+      <c r="E299" s="33"/>
+      <c r="F299" s="33"/>
+      <c r="G299" s="33"/>
+      <c r="H299" s="33"/>
+      <c r="I299" s="33"/>
+      <c r="J299" s="33"/>
+      <c r="K299" s="33"/>
+      <c r="L299" s="33"/>
+      <c r="M299" s="33"/>
+      <c r="N299" s="33"/>
+      <c r="O299" s="33"/>
+      <c r="P299" s="33"/>
+      <c r="Q299" s="33"/>
+      <c r="R299" s="33"/>
+      <c r="S299" s="6"/>
+      <c r="T299" s="6"/>
+    </row>
+    <row r="300" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A300" s="5"/>
+      <c r="B300" s="5"/>
+      <c r="C300" s="33"/>
+      <c r="D300" s="33"/>
+      <c r="E300" s="33"/>
+      <c r="F300" s="33"/>
+      <c r="G300" s="33"/>
+      <c r="H300" s="33"/>
+      <c r="I300" s="33"/>
+      <c r="J300" s="33"/>
+      <c r="K300" s="33"/>
+      <c r="L300" s="33"/>
+      <c r="M300" s="33"/>
+      <c r="N300" s="33"/>
+      <c r="O300" s="33"/>
+      <c r="P300" s="33"/>
+      <c r="Q300" s="33"/>
+      <c r="R300" s="33"/>
+      <c r="S300" s="6"/>
+      <c r="T300" s="6"/>
+    </row>
+    <row r="301" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A301" s="5"/>
+      <c r="B301" s="5"/>
+      <c r="C301" s="33"/>
+      <c r="D301" s="33"/>
+      <c r="E301" s="33"/>
+      <c r="F301" s="33"/>
+      <c r="G301" s="33"/>
+      <c r="H301" s="33"/>
+      <c r="I301" s="33"/>
+      <c r="J301" s="33"/>
+      <c r="K301" s="33"/>
+      <c r="L301" s="33"/>
+      <c r="M301" s="33"/>
+      <c r="N301" s="33"/>
+      <c r="O301" s="33"/>
+      <c r="P301" s="33"/>
+      <c r="Q301" s="33"/>
+      <c r="R301" s="33"/>
+      <c r="S301" s="6"/>
+      <c r="T301" s="6"/>
+    </row>
+    <row r="302" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A302" s="5"/>
+      <c r="B302" s="5"/>
+      <c r="C302" s="33"/>
+      <c r="D302" s="33"/>
+      <c r="E302" s="33"/>
+      <c r="F302" s="33"/>
+      <c r="G302" s="33"/>
+      <c r="H302" s="33"/>
+      <c r="I302" s="33"/>
+      <c r="J302" s="33"/>
+      <c r="K302" s="33"/>
+      <c r="L302" s="33"/>
+      <c r="M302" s="33"/>
+      <c r="N302" s="33"/>
+      <c r="O302" s="33"/>
+      <c r="P302" s="33"/>
+      <c r="Q302" s="33"/>
+      <c r="R302" s="33"/>
+      <c r="S302" s="6"/>
+      <c r="T302" s="6"/>
+    </row>
+    <row r="303" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A303" s="5"/>
+      <c r="B303" s="5"/>
+      <c r="C303" s="33"/>
+      <c r="D303" s="33"/>
+      <c r="E303" s="33"/>
+      <c r="F303" s="33"/>
+      <c r="G303" s="33"/>
+      <c r="H303" s="33"/>
+      <c r="I303" s="33"/>
+      <c r="J303" s="33"/>
+      <c r="K303" s="33"/>
+      <c r="L303" s="33"/>
+      <c r="M303" s="33"/>
+      <c r="N303" s="33"/>
+      <c r="O303" s="33"/>
+      <c r="P303" s="33"/>
+      <c r="Q303" s="33"/>
+      <c r="R303" s="33"/>
+      <c r="S303" s="6"/>
+      <c r="T303" s="6"/>
+    </row>
+    <row r="304" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A304" s="5"/>
+      <c r="B304" s="5"/>
+      <c r="C304" s="33"/>
+      <c r="D304" s="33"/>
+      <c r="E304" s="33"/>
+      <c r="F304" s="33"/>
+      <c r="G304" s="33"/>
+      <c r="H304" s="33"/>
+      <c r="I304" s="33"/>
+      <c r="J304" s="33"/>
+      <c r="K304" s="33"/>
+      <c r="L304" s="33"/>
+      <c r="M304" s="33"/>
+      <c r="N304" s="33"/>
+      <c r="O304" s="33"/>
+      <c r="P304" s="33"/>
+      <c r="Q304" s="33"/>
+      <c r="R304" s="33"/>
+      <c r="S304" s="6"/>
+      <c r="T304" s="6"/>
+    </row>
+    <row r="305" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A305" s="5"/>
+      <c r="B305" s="5"/>
+      <c r="C305" s="33"/>
+      <c r="D305" s="33"/>
+      <c r="E305" s="33"/>
+      <c r="F305" s="33"/>
+      <c r="G305" s="33"/>
+      <c r="H305" s="33"/>
+      <c r="I305" s="33"/>
+      <c r="J305" s="33"/>
+      <c r="K305" s="33"/>
+      <c r="L305" s="33"/>
+      <c r="M305" s="33"/>
+      <c r="N305" s="33"/>
+      <c r="O305" s="33"/>
+      <c r="P305" s="33"/>
+      <c r="Q305" s="33"/>
+      <c r="R305" s="33"/>
+      <c r="S305" s="6"/>
+      <c r="T305" s="6"/>
+    </row>
+    <row r="306" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A306" s="5"/>
+      <c r="B306" s="5"/>
+      <c r="C306" s="33"/>
+      <c r="D306" s="33"/>
+      <c r="E306" s="33"/>
+      <c r="F306" s="33"/>
+      <c r="G306" s="33"/>
+      <c r="H306" s="33"/>
+      <c r="I306" s="33"/>
+      <c r="J306" s="33"/>
+      <c r="K306" s="33"/>
+      <c r="L306" s="33"/>
+      <c r="M306" s="33"/>
+      <c r="N306" s="33"/>
+      <c r="O306" s="33"/>
+      <c r="P306" s="33"/>
+      <c r="Q306" s="33"/>
+      <c r="R306" s="33"/>
+      <c r="S306" s="6"/>
+      <c r="T306" s="6"/>
+    </row>
+    <row r="307" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A307" s="5"/>
+      <c r="B307" s="5"/>
+      <c r="C307" s="33"/>
+      <c r="D307" s="33"/>
+      <c r="E307" s="33"/>
+      <c r="F307" s="33"/>
+      <c r="G307" s="33"/>
+      <c r="H307" s="33"/>
+      <c r="I307" s="33"/>
+      <c r="J307" s="33"/>
+      <c r="K307" s="33"/>
+      <c r="L307" s="33"/>
+      <c r="M307" s="33"/>
+      <c r="N307" s="33"/>
+      <c r="O307" s="33"/>
+      <c r="P307" s="33"/>
+      <c r="Q307" s="33"/>
+      <c r="R307" s="33"/>
+      <c r="S307" s="6"/>
+      <c r="T307" s="6"/>
+    </row>
+    <row r="308" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A308" s="5"/>
+      <c r="B308" s="5"/>
+      <c r="C308" s="33"/>
+      <c r="D308" s="33"/>
+      <c r="E308" s="33"/>
+      <c r="F308" s="33"/>
+      <c r="G308" s="33"/>
+      <c r="H308" s="33"/>
+      <c r="I308" s="33"/>
+      <c r="J308" s="33"/>
+      <c r="K308" s="33"/>
+      <c r="L308" s="33"/>
+      <c r="M308" s="33"/>
+      <c r="N308" s="33"/>
+      <c r="O308" s="33"/>
+      <c r="P308" s="33"/>
+      <c r="Q308" s="33"/>
+      <c r="R308" s="33"/>
+      <c r="S308" s="6"/>
+      <c r="T308" s="6"/>
+    </row>
+    <row r="309" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A309" s="5"/>
+      <c r="B309" s="5"/>
+      <c r="C309" s="33"/>
+      <c r="D309" s="33"/>
+      <c r="E309" s="33"/>
+      <c r="F309" s="33"/>
+      <c r="G309" s="33"/>
+      <c r="H309" s="33"/>
+      <c r="I309" s="33"/>
+      <c r="J309" s="33"/>
+      <c r="K309" s="33"/>
+      <c r="L309" s="33"/>
+      <c r="M309" s="33"/>
+      <c r="N309" s="33"/>
+      <c r="O309" s="33"/>
+      <c r="P309" s="33"/>
+      <c r="Q309" s="33"/>
+      <c r="R309" s="33"/>
+      <c r="S309" s="6"/>
+      <c r="T309" s="6"/>
+    </row>
+    <row r="310" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A310" s="5"/>
+      <c r="B310" s="5"/>
+      <c r="C310" s="33"/>
+      <c r="D310" s="33"/>
+      <c r="E310" s="33"/>
+      <c r="F310" s="33"/>
+      <c r="G310" s="33"/>
+      <c r="H310" s="33"/>
+      <c r="I310" s="33"/>
+      <c r="J310" s="33"/>
+      <c r="K310" s="33"/>
+      <c r="L310" s="33"/>
+      <c r="M310" s="33"/>
+      <c r="N310" s="33"/>
+      <c r="O310" s="33"/>
+      <c r="P310" s="33"/>
+      <c r="Q310" s="33"/>
+      <c r="R310" s="33"/>
+      <c r="S310" s="6"/>
+      <c r="T310" s="6"/>
+    </row>
+    <row r="311" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A311" s="5"/>
+      <c r="B311" s="5"/>
+      <c r="C311" s="33"/>
+      <c r="D311" s="33"/>
+      <c r="E311" s="33"/>
+      <c r="F311" s="33"/>
+      <c r="G311" s="33"/>
+      <c r="H311" s="33"/>
+      <c r="I311" s="33"/>
+      <c r="J311" s="33"/>
+      <c r="K311" s="33"/>
+      <c r="L311" s="33"/>
+      <c r="M311" s="33"/>
+      <c r="N311" s="33"/>
+      <c r="O311" s="33"/>
+      <c r="P311" s="33"/>
+      <c r="Q311" s="33"/>
+      <c r="R311" s="33"/>
+      <c r="S311" s="6"/>
+      <c r="T311" s="6"/>
+    </row>
+    <row r="312" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A312" s="5"/>
+      <c r="B312" s="5"/>
+      <c r="C312" s="33"/>
+      <c r="D312" s="33"/>
+      <c r="E312" s="33"/>
+      <c r="F312" s="33"/>
+      <c r="G312" s="33"/>
+      <c r="H312" s="33"/>
+      <c r="I312" s="33"/>
+      <c r="J312" s="33"/>
+      <c r="K312" s="33"/>
+      <c r="L312" s="33"/>
+      <c r="M312" s="33"/>
+      <c r="N312" s="33"/>
+      <c r="O312" s="33"/>
+      <c r="P312" s="33"/>
+      <c r="Q312" s="33"/>
+      <c r="R312" s="33"/>
+      <c r="S312" s="6"/>
+      <c r="T312" s="6"/>
+    </row>
+    <row r="313" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A313" s="5"/>
+      <c r="B313" s="5"/>
+      <c r="C313" s="33"/>
+      <c r="D313" s="33"/>
+      <c r="E313" s="33"/>
+      <c r="F313" s="33"/>
+      <c r="G313" s="33"/>
+      <c r="H313" s="33"/>
+      <c r="I313" s="33"/>
+      <c r="J313" s="33"/>
+      <c r="K313" s="33"/>
+      <c r="L313" s="33"/>
+      <c r="M313" s="33"/>
+      <c r="N313" s="33"/>
+      <c r="O313" s="33"/>
+      <c r="P313" s="33"/>
+      <c r="Q313" s="33"/>
+      <c r="R313" s="33"/>
+      <c r="S313" s="6"/>
+      <c r="T313" s="6"/>
+    </row>
+    <row r="314" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A314" s="5"/>
+      <c r="B314" s="5"/>
+      <c r="C314" s="33"/>
+      <c r="D314" s="33"/>
+      <c r="E314" s="33"/>
+      <c r="F314" s="33"/>
+      <c r="G314" s="33"/>
+      <c r="H314" s="33"/>
+      <c r="I314" s="33"/>
+      <c r="J314" s="33"/>
+      <c r="K314" s="33"/>
+      <c r="L314" s="33"/>
+      <c r="M314" s="33"/>
+      <c r="N314" s="33"/>
+      <c r="O314" s="33"/>
+      <c r="P314" s="33"/>
+      <c r="Q314" s="33"/>
+      <c r="R314" s="33"/>
+      <c r="S314" s="6"/>
+      <c r="T314" s="6"/>
+    </row>
+    <row r="315" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A315" s="5"/>
+      <c r="B315" s="5"/>
+      <c r="C315" s="33"/>
+      <c r="D315" s="33"/>
+      <c r="E315" s="33"/>
+      <c r="F315" s="33"/>
+      <c r="G315" s="33"/>
+      <c r="H315" s="33"/>
+      <c r="I315" s="33"/>
+      <c r="J315" s="33"/>
+      <c r="K315" s="33"/>
+      <c r="L315" s="33"/>
+      <c r="M315" s="33"/>
+      <c r="N315" s="33"/>
+      <c r="O315" s="33"/>
+      <c r="P315" s="33"/>
+      <c r="Q315" s="33"/>
+      <c r="R315" s="33"/>
+      <c r="S315" s="6"/>
+      <c r="T315" s="6"/>
+    </row>
+    <row r="316" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A316" s="5"/>
+      <c r="B316" s="5"/>
+      <c r="C316" s="33"/>
+      <c r="D316" s="33"/>
+      <c r="E316" s="33"/>
+      <c r="F316" s="33"/>
+      <c r="G316" s="33"/>
+      <c r="H316" s="33"/>
+      <c r="I316" s="33"/>
+      <c r="J316" s="33"/>
+      <c r="K316" s="33"/>
+      <c r="L316" s="33"/>
+      <c r="M316" s="33"/>
+      <c r="N316" s="33"/>
+      <c r="O316" s="33"/>
+      <c r="P316" s="33"/>
+      <c r="Q316" s="33"/>
+      <c r="R316" s="33"/>
+      <c r="S316" s="6"/>
+      <c r="T316" s="6"/>
+    </row>
+    <row r="317" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A317" s="5"/>
+      <c r="B317" s="5"/>
+      <c r="C317" s="33"/>
+      <c r="D317" s="33"/>
+      <c r="E317" s="33"/>
+      <c r="F317" s="33"/>
+      <c r="G317" s="33"/>
+      <c r="H317" s="33"/>
+      <c r="I317" s="33"/>
+      <c r="J317" s="33"/>
+      <c r="K317" s="33"/>
+      <c r="L317" s="33"/>
+      <c r="M317" s="33"/>
+      <c r="N317" s="33"/>
+      <c r="O317" s="33"/>
+      <c r="P317" s="33"/>
+      <c r="Q317" s="33"/>
+      <c r="R317" s="33"/>
+      <c r="S317" s="6"/>
+      <c r="T317" s="6"/>
+    </row>
+    <row r="318" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A318" s="5"/>
+      <c r="B318" s="5"/>
+      <c r="C318" s="33"/>
+      <c r="D318" s="33"/>
+      <c r="E318" s="33"/>
+      <c r="F318" s="33"/>
+      <c r="G318" s="33"/>
+      <c r="H318" s="33"/>
+      <c r="I318" s="33"/>
+      <c r="J318" s="33"/>
+      <c r="K318" s="33"/>
+      <c r="L318" s="33"/>
+      <c r="M318" s="33"/>
+      <c r="N318" s="33"/>
+      <c r="O318" s="33"/>
+      <c r="P318" s="33"/>
+      <c r="Q318" s="33"/>
+      <c r="R318" s="33"/>
+      <c r="S318" s="6"/>
+      <c r="T318" s="6"/>
+    </row>
+    <row r="319" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A319" s="5"/>
+      <c r="B319" s="5"/>
+      <c r="C319" s="33"/>
+      <c r="D319" s="33"/>
+      <c r="E319" s="33"/>
+      <c r="F319" s="33"/>
+      <c r="G319" s="33"/>
+      <c r="H319" s="33"/>
+      <c r="I319" s="33"/>
+      <c r="J319" s="33"/>
+      <c r="K319" s="33"/>
+      <c r="L319" s="33"/>
+      <c r="M319" s="33"/>
+      <c r="N319" s="33"/>
+      <c r="O319" s="33"/>
+      <c r="P319" s="33"/>
+      <c r="Q319" s="33"/>
+      <c r="R319" s="33"/>
+      <c r="S319" s="6"/>
+      <c r="T319" s="6"/>
+    </row>
+    <row r="320" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A320" s="5"/>
+      <c r="B320" s="5"/>
+      <c r="C320" s="33"/>
+      <c r="D320" s="33"/>
+      <c r="E320" s="33"/>
+      <c r="F320" s="33"/>
+      <c r="G320" s="33"/>
+      <c r="H320" s="33"/>
+      <c r="I320" s="33"/>
+      <c r="J320" s="33"/>
+      <c r="K320" s="33"/>
+      <c r="L320" s="33"/>
+      <c r="M320" s="33"/>
+      <c r="N320" s="33"/>
+      <c r="O320" s="33"/>
+      <c r="P320" s="33"/>
+      <c r="Q320" s="33"/>
+      <c r="R320" s="33"/>
+      <c r="S320" s="6"/>
+      <c r="T320" s="6"/>
+    </row>
+    <row r="321" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A321" s="5"/>
+      <c r="B321" s="5"/>
+      <c r="C321" s="33"/>
+      <c r="D321" s="33"/>
+      <c r="E321" s="33"/>
+      <c r="F321" s="33"/>
+      <c r="G321" s="33"/>
+      <c r="H321" s="33"/>
+      <c r="I321" s="33"/>
+      <c r="J321" s="33"/>
+      <c r="K321" s="33"/>
+      <c r="L321" s="33"/>
+      <c r="M321" s="33"/>
+      <c r="N321" s="33"/>
+      <c r="O321" s="33"/>
+      <c r="P321" s="33"/>
+      <c r="Q321" s="33"/>
+      <c r="R321" s="33"/>
+      <c r="S321" s="6"/>
+      <c r="T321" s="6"/>
+    </row>
+    <row r="322" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A322" s="5"/>
+      <c r="B322" s="5"/>
+      <c r="C322" s="33"/>
+      <c r="D322" s="33"/>
+      <c r="E322" s="33"/>
+      <c r="F322" s="33"/>
+      <c r="G322" s="33"/>
+      <c r="H322" s="33"/>
+      <c r="I322" s="33"/>
+      <c r="J322" s="33"/>
+      <c r="K322" s="33"/>
+      <c r="L322" s="33"/>
+      <c r="M322" s="33"/>
+      <c r="N322" s="33"/>
+      <c r="O322" s="33"/>
+      <c r="P322" s="33"/>
+      <c r="Q322" s="33"/>
+      <c r="R322" s="33"/>
+      <c r="S322" s="6"/>
+      <c r="T322" s="6"/>
+    </row>
+    <row r="323" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A323" s="5"/>
+      <c r="B323" s="5"/>
+      <c r="C323" s="33"/>
+      <c r="D323" s="33"/>
+      <c r="E323" s="33"/>
+      <c r="F323" s="33"/>
+      <c r="G323" s="33"/>
+      <c r="H323" s="33"/>
+      <c r="I323" s="33"/>
+      <c r="J323" s="33"/>
+      <c r="K323" s="33"/>
+      <c r="L323" s="33"/>
+      <c r="M323" s="33"/>
+      <c r="N323" s="33"/>
+      <c r="O323" s="33"/>
+      <c r="P323" s="33"/>
+      <c r="Q323" s="33"/>
+      <c r="R323" s="33"/>
+      <c r="S323" s="6"/>
+      <c r="T323" s="6"/>
+    </row>
+    <row r="324" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A324" s="5"/>
+      <c r="B324" s="5"/>
+      <c r="C324" s="33"/>
+      <c r="D324" s="33"/>
+      <c r="E324" s="33"/>
+      <c r="F324" s="33"/>
+      <c r="G324" s="33"/>
+      <c r="H324" s="33"/>
+      <c r="I324" s="33"/>
+      <c r="J324" s="33"/>
+      <c r="K324" s="33"/>
+      <c r="L324" s="33"/>
+      <c r="M324" s="33"/>
+      <c r="N324" s="33"/>
+      <c r="O324" s="33"/>
+      <c r="P324" s="33"/>
+      <c r="Q324" s="33"/>
+      <c r="R324" s="33"/>
+      <c r="S324" s="6"/>
+      <c r="T324" s="6"/>
+    </row>
+    <row r="325" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A325" s="5"/>
+      <c r="B325" s="5"/>
+      <c r="C325" s="33"/>
+      <c r="D325" s="33"/>
+      <c r="E325" s="33"/>
+      <c r="F325" s="33"/>
+      <c r="G325" s="33"/>
+      <c r="H325" s="33"/>
+      <c r="I325" s="33"/>
+      <c r="J325" s="33"/>
+      <c r="K325" s="33"/>
+      <c r="L325" s="33"/>
+      <c r="M325" s="33"/>
+      <c r="N325" s="33"/>
+      <c r="O325" s="33"/>
+      <c r="P325" s="33"/>
+      <c r="Q325" s="33"/>
+      <c r="R325" s="33"/>
+      <c r="S325" s="6"/>
+      <c r="T325" s="6"/>
+    </row>
+    <row r="326" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A326" s="5"/>
+      <c r="B326" s="5"/>
+      <c r="C326" s="33"/>
+      <c r="D326" s="33"/>
+      <c r="E326" s="33"/>
+      <c r="F326" s="33"/>
+      <c r="G326" s="33"/>
+      <c r="H326" s="33"/>
+      <c r="I326" s="33"/>
+      <c r="J326" s="33"/>
+      <c r="K326" s="33"/>
+      <c r="L326" s="33"/>
+      <c r="M326" s="33"/>
+      <c r="N326" s="33"/>
+      <c r="O326" s="33"/>
+      <c r="P326" s="33"/>
+      <c r="Q326" s="33"/>
+      <c r="R326" s="33"/>
+      <c r="S326" s="6"/>
+      <c r="T326" s="6"/>
+    </row>
+    <row r="327" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A327" s="5"/>
+      <c r="B327" s="5"/>
+      <c r="C327" s="33"/>
+      <c r="D327" s="33"/>
+      <c r="E327" s="33"/>
+      <c r="F327" s="33"/>
+      <c r="G327" s="33"/>
+      <c r="H327" s="33"/>
+      <c r="I327" s="33"/>
+      <c r="J327" s="33"/>
+      <c r="K327" s="33"/>
+      <c r="L327" s="33"/>
+      <c r="M327" s="33"/>
+      <c r="N327" s="33"/>
+      <c r="O327" s="33"/>
+      <c r="P327" s="33"/>
+      <c r="Q327" s="33"/>
+      <c r="R327" s="33"/>
+      <c r="S327" s="6"/>
+      <c r="T327" s="6"/>
+    </row>
+    <row r="328" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A328" s="5"/>
+      <c r="B328" s="5"/>
+      <c r="C328" s="33"/>
+      <c r="D328" s="33"/>
+      <c r="E328" s="33"/>
+      <c r="F328" s="33"/>
+      <c r="G328" s="33"/>
+      <c r="H328" s="33"/>
+      <c r="I328" s="33"/>
+      <c r="J328" s="33"/>
+      <c r="K328" s="33"/>
+      <c r="L328" s="33"/>
+      <c r="M328" s="33"/>
+      <c r="N328" s="33"/>
+      <c r="O328" s="33"/>
+      <c r="P328" s="33"/>
+      <c r="Q328" s="33"/>
+      <c r="R328" s="33"/>
+      <c r="S328" s="6"/>
+      <c r="T328" s="6"/>
+    </row>
+    <row r="329" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A329" s="5"/>
+      <c r="B329" s="5"/>
+      <c r="C329" s="33"/>
+      <c r="D329" s="33"/>
+      <c r="E329" s="33"/>
+      <c r="F329" s="33"/>
+      <c r="G329" s="33"/>
+      <c r="H329" s="33"/>
+      <c r="I329" s="33"/>
+      <c r="J329" s="33"/>
+      <c r="K329" s="33"/>
+      <c r="L329" s="33"/>
+      <c r="M329" s="33"/>
+      <c r="N329" s="33"/>
+      <c r="O329" s="33"/>
+      <c r="P329" s="33"/>
+      <c r="Q329" s="33"/>
+      <c r="R329" s="33"/>
+      <c r="S329" s="6"/>
+      <c r="T329" s="6"/>
+    </row>
+    <row r="330" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A330" s="5"/>
+      <c r="B330" s="5"/>
+      <c r="C330" s="33"/>
+      <c r="D330" s="33"/>
+      <c r="E330" s="33"/>
+      <c r="F330" s="33"/>
+      <c r="G330" s="33"/>
+      <c r="H330" s="33"/>
+      <c r="I330" s="33"/>
+      <c r="J330" s="33"/>
+      <c r="K330" s="33"/>
+      <c r="L330" s="33"/>
+      <c r="M330" s="33"/>
+      <c r="N330" s="33"/>
+      <c r="O330" s="33"/>
+      <c r="P330" s="33"/>
+      <c r="Q330" s="33"/>
+      <c r="R330" s="33"/>
+      <c r="S330" s="6"/>
+      <c r="T330" s="6"/>
+    </row>
+    <row r="331" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A331" s="5"/>
+      <c r="B331" s="5"/>
+      <c r="C331" s="33"/>
+      <c r="D331" s="33"/>
+      <c r="E331" s="33"/>
+      <c r="F331" s="33"/>
+      <c r="G331" s="33"/>
+      <c r="H331" s="33"/>
+      <c r="I331" s="33"/>
+      <c r="J331" s="33"/>
+      <c r="K331" s="33"/>
+      <c r="L331" s="33"/>
+      <c r="M331" s="33"/>
+      <c r="N331" s="33"/>
+      <c r="O331" s="33"/>
+      <c r="P331" s="33"/>
+      <c r="Q331" s="33"/>
+      <c r="R331" s="33"/>
+      <c r="S331" s="6"/>
+      <c r="T331" s="6"/>
+    </row>
+    <row r="332" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A332" s="5"/>
+      <c r="B332" s="5"/>
+      <c r="C332" s="33"/>
+      <c r="D332" s="33"/>
+      <c r="E332" s="33"/>
+      <c r="F332" s="33"/>
+      <c r="G332" s="33"/>
+      <c r="H332" s="33"/>
+      <c r="I332" s="33"/>
+      <c r="J332" s="33"/>
+      <c r="K332" s="33"/>
+      <c r="L332" s="33"/>
+      <c r="M332" s="33"/>
+      <c r="N332" s="33"/>
+      <c r="O332" s="33"/>
+      <c r="P332" s="33"/>
+      <c r="Q332" s="33"/>
+      <c r="R332" s="33"/>
+      <c r="S332" s="6"/>
+      <c r="T332" s="6"/>
+    </row>
+    <row r="333" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A333" s="5"/>
+      <c r="B333" s="5"/>
+      <c r="C333" s="33"/>
+      <c r="D333" s="33"/>
+      <c r="E333" s="33"/>
+      <c r="F333" s="33"/>
+      <c r="G333" s="33"/>
+      <c r="H333" s="33"/>
+      <c r="I333" s="33"/>
+      <c r="J333" s="33"/>
+      <c r="K333" s="33"/>
+      <c r="L333" s="33"/>
+      <c r="M333" s="33"/>
+      <c r="N333" s="33"/>
+      <c r="O333" s="33"/>
+      <c r="P333" s="33"/>
+      <c r="Q333" s="33"/>
+      <c r="R333" s="33"/>
+      <c r="S333" s="6"/>
+      <c r="T333" s="6"/>
+    </row>
+    <row r="334" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A334" s="5"/>
+      <c r="B334" s="5"/>
+      <c r="C334" s="33"/>
+      <c r="D334" s="33"/>
+      <c r="E334" s="33"/>
+      <c r="F334" s="33"/>
+      <c r="G334" s="33"/>
+      <c r="H334" s="33"/>
+      <c r="I334" s="33"/>
+      <c r="J334" s="33"/>
+      <c r="K334" s="33"/>
+      <c r="L334" s="33"/>
+      <c r="M334" s="33"/>
+      <c r="N334" s="33"/>
+      <c r="O334" s="33"/>
+      <c r="P334" s="33"/>
+      <c r="Q334" s="33"/>
+      <c r="R334" s="33"/>
+      <c r="S334" s="6"/>
+      <c r="T334" s="6"/>
+    </row>
+    <row r="335" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A335" s="5"/>
+      <c r="B335" s="8"/>
+      <c r="C335" s="9"/>
+      <c r="D335" s="9"/>
+      <c r="E335" s="9"/>
+      <c r="F335" s="9"/>
+      <c r="G335" s="9"/>
+      <c r="H335" s="9"/>
+      <c r="I335" s="9"/>
+      <c r="J335" s="9"/>
+      <c r="K335" s="9"/>
+      <c r="L335" s="9"/>
+      <c r="M335" s="9"/>
+      <c r="N335" s="9"/>
+      <c r="O335" s="9"/>
+      <c r="P335" s="9"/>
+      <c r="Q335" s="9"/>
+      <c r="R335" s="9"/>
+      <c r="S335" s="10"/>
+      <c r="T335" s="6"/>
+    </row>
+    <row r="336" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="A336" s="8"/>
+      <c r="B336" s="9"/>
+      <c r="C336" s="9"/>
+      <c r="D336" s="9"/>
+      <c r="E336" s="9"/>
+      <c r="F336" s="9"/>
+      <c r="G336" s="9"/>
+      <c r="H336" s="9"/>
+      <c r="I336" s="9"/>
+      <c r="J336" s="9"/>
+      <c r="K336" s="9"/>
+      <c r="L336" s="9"/>
+      <c r="M336" s="9"/>
+      <c r="N336" s="9"/>
+      <c r="O336" s="9"/>
+      <c r="P336" s="9"/>
+      <c r="Q336" s="9"/>
+      <c r="R336" s="9"/>
+      <c r="S336" s="9"/>
+      <c r="T336" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
